--- a/Jogos_da_Semana_FlashScore_2025-02-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-15.xlsx
@@ -1167,7 +1167,7 @@
         <v>1.73</v>
       </c>
       <c r="W5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X5" t="n">
         <v>3.75</v>
@@ -1312,7 +1312,7 @@
         <v>1.67</v>
       </c>
       <c r="W6" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X6" t="n">
         <v>3.75</v>
@@ -1409,13 +1409,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H7" t="n">
         <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J7" t="n">
         <v>2.88</v>
@@ -1424,7 +1424,7 @@
         <v>2.38</v>
       </c>
       <c r="L7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1445,10 +1445,10 @@
         <v>2.38</v>
       </c>
       <c r="S7" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="T7" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U7" t="n">
         <v>2.38</v>
@@ -1457,10 +1457,10 @@
         <v>1.57</v>
       </c>
       <c r="W7" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="X7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y7" t="n">
         <v>1.5</v>
@@ -1475,7 +1475,7 @@
         <v>15</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
         <v>26</v>
@@ -1490,7 +1490,7 @@
         <v>17</v>
       </c>
       <c r="AH7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI7" t="n">
         <v>12</v>
@@ -1598,10 +1598,10 @@
         <v>1.25</v>
       </c>
       <c r="W8" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X8" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y8" t="n">
         <v>2</v>
@@ -1695,13 +1695,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I9" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="J9" t="n">
         <v>1.67</v>
@@ -1743,7 +1743,7 @@
         <v>1.73</v>
       </c>
       <c r="W9" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X9" t="n">
         <v>3.75</v>
@@ -1755,7 +1755,7 @@
         <v>1.95</v>
       </c>
       <c r="AA9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB9" t="n">
         <v>7.5</v>
@@ -1776,7 +1776,7 @@
         <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI9" t="n">
         <v>21</v>
@@ -1788,7 +1788,7 @@
         <v>251</v>
       </c>
       <c r="AL9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM9" t="n">
         <v>51</v>
@@ -1797,10 +1797,10 @@
         <v>26</v>
       </c>
       <c r="AO9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AP9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AQ9" t="n">
         <v>51</v>
@@ -1888,7 +1888,7 @@
         <v>1.5</v>
       </c>
       <c r="W10" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="X10" t="n">
         <v>3.4</v>
@@ -2717,13 +2717,13 @@
         <v>2.3</v>
       </c>
       <c r="L16" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O16" t="n">
         <v>1.2</v>
@@ -2732,10 +2732,10 @@
         <v>4.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R16" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S16" t="n">
         <v>2.07</v>
@@ -2801,7 +2801,7 @@
         <v>13</v>
       </c>
       <c r="AN16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO16" t="n">
         <v>21</v>
@@ -3030,10 +3030,10 @@
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W18" t="n">
         <v>1.44</v>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H22" t="n">
         <v>3.2</v>
@@ -3585,7 +3585,7 @@
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
         <v>1.44</v>
@@ -3662,7 +3662,7 @@
         <v>11</v>
       </c>
       <c r="AO22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP22" t="n">
         <v>29</v>
@@ -3872,10 +3872,10 @@
         <v>2.1</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O24" t="n">
         <v>1.2</v>
@@ -4029,18 +4029,18 @@
         <v>4</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="R25" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W25" t="n">
         <v>1.36</v>
@@ -4088,13 +4088,13 @@
         <v>401</v>
       </c>
       <c r="AL25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM25" t="n">
         <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO25" t="n">
         <v>81</v>
@@ -4155,7 +4155,7 @@
         <v>2.38</v>
       </c>
       <c r="L26" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M26" t="n">
         <v>1.04</v>
@@ -4229,7 +4229,7 @@
         <v>251</v>
       </c>
       <c r="AL26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM26" t="n">
         <v>29</v>
@@ -4238,7 +4238,7 @@
         <v>17</v>
       </c>
       <c r="AO26" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP26" t="n">
         <v>41</v>
@@ -4287,7 +4287,7 @@
         <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J27" t="n">
         <v>6</v>
@@ -4380,13 +4380,13 @@
         <v>7</v>
       </c>
       <c r="AN27" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO27" t="n">
         <v>13</v>
       </c>
       <c r="AP27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ27" t="n">
         <v>41</v>
@@ -4460,10 +4460,10 @@
         <v>2.63</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R28" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S28" t="n">
         <v>4.1</v>
@@ -4472,10 +4472,10 @@
         <v>1.24</v>
       </c>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V28" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W28" t="n">
         <v>1.57</v>
@@ -4541,10 +4541,10 @@
         <v>67</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -4967,7 +4967,7 @@
         <v>51</v>
       </c>
       <c r="AK31" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AL31" t="n">
         <v>9.5</v>
@@ -5211,7 +5211,7 @@
         <v>1.11</v>
       </c>
       <c r="W33" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="X33" t="n">
         <v>2.1</v>
@@ -5493,7 +5493,7 @@
         <v>1.1</v>
       </c>
       <c r="W35" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="X35" t="n">
         <v>2</v>
@@ -5608,10 +5608,10 @@
         <v>5.5</v>
       </c>
       <c r="M36" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N36" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O36" t="n">
         <v>1.67</v>
@@ -5620,10 +5620,10 @@
         <v>2.1</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="R36" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
@@ -5634,7 +5634,7 @@
         <v>1.1</v>
       </c>
       <c r="W36" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="X36" t="n">
         <v>2</v>
@@ -5783,7 +5783,7 @@
         <v>1.67</v>
       </c>
       <c r="W37" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X37" t="n">
         <v>3.75</v>
@@ -5924,7 +5924,7 @@
         <v>1.44</v>
       </c>
       <c r="W38" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X38" t="n">
         <v>3.25</v>
@@ -6472,16 +6472,16 @@
         <v>11</v>
       </c>
       <c r="O42" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P42" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R42" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
@@ -7298,63 +7298,63 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H48" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I48" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J48" t="n">
         <v>3.5</v>
       </c>
       <c r="K48" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L48" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M48" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O48" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P48" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="R48" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V48" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W48" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X48" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z48" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB48" t="n">
         <v>17</v>
@@ -7366,16 +7366,16 @@
         <v>34</v>
       </c>
       <c r="AE48" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF48" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG48" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH48" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI48" t="n">
         <v>12</v>
@@ -7387,7 +7387,7 @@
         <v>151</v>
       </c>
       <c r="AL48" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM48" t="n">
         <v>12</v>
@@ -7884,10 +7884,10 @@
         <v>1.8</v>
       </c>
       <c r="M52" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N52" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O52" t="n">
         <v>1.29</v>
@@ -7896,18 +7896,18 @@
         <v>3.5</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R52" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V52" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W52" t="n">
         <v>1.4</v>
@@ -8055,7 +8055,7 @@
         <v>1.29</v>
       </c>
       <c r="W53" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X53" t="n">
         <v>2.75</v>
@@ -8204,7 +8204,7 @@
         <v>1.4</v>
       </c>
       <c r="W54" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X54" t="n">
         <v>3</v>
@@ -8353,7 +8353,7 @@
         <v>1.44</v>
       </c>
       <c r="W55" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X55" t="n">
         <v>3.25</v>
@@ -8457,25 +8457,25 @@
         <v>1.7</v>
       </c>
       <c r="H56" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I56" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J56" t="n">
         <v>2.4</v>
       </c>
       <c r="K56" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L56" t="n">
         <v>6</v>
       </c>
       <c r="M56" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O56" t="n">
         <v>1.44</v>
@@ -8484,16 +8484,16 @@
         <v>2.63</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R56" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S56" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T56" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="U56" t="n">
         <v>4.5</v>
@@ -8505,13 +8505,13 @@
         <v>1.5</v>
       </c>
       <c r="X56" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="Y56" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z56" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA56" t="n">
         <v>5.5</v>
@@ -8529,10 +8529,10 @@
         <v>17</v>
       </c>
       <c r="AF56" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG56" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH56" t="n">
         <v>6.5</v>
@@ -8547,16 +8547,16 @@
         <v>101</v>
       </c>
       <c r="AL56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM56" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN56" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO56" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP56" t="n">
         <v>51</v>
@@ -8603,13 +8603,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I57" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J57" t="n">
         <v>2.88</v>
@@ -8618,13 +8618,13 @@
         <v>1.95</v>
       </c>
       <c r="L57" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M57" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N57" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O57" t="n">
         <v>1.5</v>
@@ -8639,7 +8639,7 @@
         <v>1.5</v>
       </c>
       <c r="S57" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T57" t="n">
         <v>1.24</v>
@@ -8651,28 +8651,28 @@
         <v>1.17</v>
       </c>
       <c r="W57" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="X57" t="n">
         <v>2.25</v>
       </c>
       <c r="Y57" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z57" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA57" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB57" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC57" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD57" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE57" t="n">
         <v>21</v>
@@ -8681,13 +8681,13 @@
         <v>41</v>
       </c>
       <c r="AG57" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH57" t="n">
         <v>6</v>
       </c>
       <c r="AI57" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ57" t="n">
         <v>67</v>
@@ -8911,10 +8911,10 @@
         <v>12</v>
       </c>
       <c r="M59" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N59" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O59" t="n">
         <v>1.17</v>
@@ -9320,13 +9320,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H62" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I62" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J62" t="n">
         <v>2.3</v>
@@ -9350,24 +9350,24 @@
         <v>3.4</v>
       </c>
       <c r="Q62" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R62" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V62" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W62" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X62" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y62" t="n">
         <v>1.95</v>
@@ -9394,13 +9394,13 @@
         <v>29</v>
       </c>
       <c r="AG62" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH62" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI62" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ62" t="n">
         <v>51</v>
@@ -9412,10 +9412,10 @@
         <v>12</v>
       </c>
       <c r="AM62" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN62" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO62" t="n">
         <v>51</v>
@@ -9491,10 +9491,10 @@
         <v>4</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R63" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
@@ -11024,7 +11024,7 @@
         <v>3.5</v>
       </c>
       <c r="I74" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J74" t="n">
         <v>4</v>
@@ -11080,7 +11080,7 @@
         <v>15</v>
       </c>
       <c r="AC74" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD74" t="n">
         <v>34</v>
@@ -11107,10 +11107,10 @@
         <v>401</v>
       </c>
       <c r="AL74" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM74" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN74" t="n">
         <v>9.5</v>
@@ -11318,10 +11318,10 @@
         <v>3.5</v>
       </c>
       <c r="M76" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N76" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O76" t="n">
         <v>1.44</v>
@@ -11407,10 +11407,10 @@
         <v>41</v>
       </c>
       <c r="AR76" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="77">
@@ -11727,13 +11727,13 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H79" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I79" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J79" t="n">
         <v>2.75</v>
@@ -11748,7 +11748,7 @@
         <v>1.06</v>
       </c>
       <c r="N79" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O79" t="n">
         <v>1.3</v>
@@ -11786,7 +11786,7 @@
         <v>7.5</v>
       </c>
       <c r="AB79" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC79" t="n">
         <v>9</v>
@@ -11798,10 +11798,10 @@
         <v>17</v>
       </c>
       <c r="AF79" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG79" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH79" t="n">
         <v>6.5</v>
@@ -11816,13 +11816,13 @@
         <v>251</v>
       </c>
       <c r="AL79" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM79" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN79" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO79" t="n">
         <v>41</v>
@@ -11868,28 +11868,28 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H80" t="n">
         <v>3.6</v>
       </c>
       <c r="I80" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K80" t="n">
         <v>2.05</v>
       </c>
       <c r="L80" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M80" t="n">
         <v>1.07</v>
       </c>
       <c r="N80" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O80" t="n">
         <v>1.4</v>
@@ -11927,7 +11927,7 @@
         <v>9</v>
       </c>
       <c r="AB80" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC80" t="n">
         <v>13</v>
@@ -11957,7 +11957,7 @@
         <v>451</v>
       </c>
       <c r="AL80" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AM80" t="n">
         <v>8.5</v>
@@ -11969,7 +11969,7 @@
         <v>17</v>
       </c>
       <c r="AP80" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ80" t="n">
         <v>34</v>
@@ -12573,10 +12573,10 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="H85" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I85" t="n">
         <v>1.83</v>
@@ -12714,28 +12714,28 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="H86" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I86" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K86" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L86" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M86" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N86" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O86" t="n">
         <v>1.4</v>
@@ -12744,10 +12744,10 @@
         <v>2.75</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R86" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
@@ -12773,16 +12773,16 @@
         <v>6</v>
       </c>
       <c r="AB86" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AC86" t="n">
         <v>9</v>
       </c>
       <c r="AD86" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE86" t="n">
         <v>17</v>
-      </c>
-      <c r="AE86" t="n">
-        <v>19</v>
       </c>
       <c r="AF86" t="n">
         <v>34</v>
@@ -12791,10 +12791,10 @@
         <v>8</v>
       </c>
       <c r="AH86" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI86" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ86" t="n">
         <v>67</v>
@@ -12803,19 +12803,19 @@
         <v>501</v>
       </c>
       <c r="AL86" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AM86" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AN86" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO86" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP86" t="n">
         <v>41</v>
-      </c>
-      <c r="AP86" t="n">
-        <v>34</v>
       </c>
       <c r="AQ86" t="n">
         <v>41</v>
@@ -13141,16 +13141,16 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H89" t="n">
         <v>3.6</v>
       </c>
       <c r="I89" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J89" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K89" t="n">
         <v>2.2</v>
@@ -13200,7 +13200,7 @@
         <v>7.5</v>
       </c>
       <c r="AB89" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC89" t="n">
         <v>8.5</v>
@@ -13209,7 +13209,7 @@
         <v>17</v>
       </c>
       <c r="AE89" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF89" t="n">
         <v>26</v>
@@ -13236,7 +13236,7 @@
         <v>19</v>
       </c>
       <c r="AN89" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO89" t="n">
         <v>41</v>
@@ -13282,40 +13282,40 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="H90" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I90" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="J90" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="K90" t="n">
         <v>1.95</v>
       </c>
       <c r="L90" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="M90" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N90" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O90" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P90" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R90" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
@@ -13326,10 +13326,10 @@
         <v>1.17</v>
       </c>
       <c r="W90" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X90" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y90" t="n">
         <v>2.2</v>
@@ -13338,28 +13338,28 @@
         <v>1.62</v>
       </c>
       <c r="AA90" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG90" t="n">
         <v>7.5</v>
       </c>
-      <c r="AB90" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC90" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD90" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE90" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF90" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG90" t="n">
+      <c r="AH90" t="n">
         <v>7</v>
-      </c>
-      <c r="AH90" t="n">
-        <v>6.5</v>
       </c>
       <c r="AI90" t="n">
         <v>21</v>
@@ -13371,28 +13371,28 @@
         <v>501</v>
       </c>
       <c r="AL90" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AM90" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AN90" t="n">
         <v>9.5</v>
       </c>
       <c r="AO90" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP90" t="n">
         <v>19</v>
-      </c>
-      <c r="AP90" t="n">
-        <v>21</v>
       </c>
       <c r="AQ90" t="n">
         <v>41</v>
       </c>
       <c r="AR90" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -13445,22 +13445,22 @@
         <v>3.2</v>
       </c>
       <c r="M91" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N91" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O91" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P91" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R91" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
@@ -13739,18 +13739,18 @@
         <v>4</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R93" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V93" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W93" t="n">
         <v>1.33</v>
@@ -13898,7 +13898,7 @@
         <v>1.53</v>
       </c>
       <c r="W94" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X94" t="n">
         <v>3.5</v>
@@ -14039,7 +14039,7 @@
         <v>1.44</v>
       </c>
       <c r="W95" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X95" t="n">
         <v>3.25</v>
@@ -14184,7 +14184,7 @@
         <v>1.57</v>
       </c>
       <c r="W96" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X96" t="n">
         <v>3.5</v>
@@ -14325,7 +14325,7 @@
         <v>1.4</v>
       </c>
       <c r="W97" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X97" t="n">
         <v>3.25</v>
@@ -14466,7 +14466,7 @@
         <v>1.5</v>
       </c>
       <c r="W98" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="X98" t="n">
         <v>3.4</v>
@@ -14607,7 +14607,7 @@
         <v>1.44</v>
       </c>
       <c r="W99" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="X99" t="n">
         <v>3.4</v>
@@ -14748,7 +14748,7 @@
         <v>1.33</v>
       </c>
       <c r="W100" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X100" t="n">
         <v>2.75</v>
@@ -15161,22 +15161,22 @@
         <v>3</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R103" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S103" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T103" t="n">
         <v>1.34</v>
       </c>
       <c r="U103" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V103" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W103" t="n">
         <v>1.44</v>
@@ -15280,19 +15280,19 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H104" t="n">
         <v>5.5</v>
       </c>
       <c r="I104" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J104" t="n">
         <v>1.73</v>
       </c>
       <c r="K104" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L104" t="n">
         <v>12</v>
@@ -15304,16 +15304,16 @@
         <v>10</v>
       </c>
       <c r="O104" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P104" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R104" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S104" t="n">
         <v>2.5</v>
@@ -15373,13 +15373,13 @@
         <v>501</v>
       </c>
       <c r="AL104" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM104" t="n">
         <v>51</v>
       </c>
       <c r="AN104" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO104" t="n">
         <v>201</v>
@@ -16011,10 +16011,10 @@
         <v>2.63</v>
       </c>
       <c r="M109" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N109" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O109" t="n">
         <v>1.25</v>
@@ -16023,18 +16023,18 @@
         <v>3.75</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R109" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V109" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W109" t="n">
         <v>1.36</v>
@@ -16448,7 +16448,7 @@
         <v>1.29</v>
       </c>
       <c r="W112" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X112" t="n">
         <v>2.75</v>
@@ -16589,7 +16589,7 @@
         <v>1.44</v>
       </c>
       <c r="W113" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="X113" t="n">
         <v>3.4</v>
@@ -16730,7 +16730,7 @@
         <v>1.33</v>
       </c>
       <c r="W114" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X114" t="n">
         <v>2.75</v>
@@ -16871,10 +16871,10 @@
         <v>1.22</v>
       </c>
       <c r="W115" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X115" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y115" t="n">
         <v>1.83</v>
@@ -17012,10 +17012,10 @@
         <v>1.25</v>
       </c>
       <c r="W116" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X116" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y116" t="n">
         <v>1.91</v>
@@ -17121,10 +17121,10 @@
         <v>4.5</v>
       </c>
       <c r="K117" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L117" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M117" t="n">
         <v>1.04</v>
@@ -17153,7 +17153,7 @@
         <v>1.4</v>
       </c>
       <c r="W117" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X117" t="n">
         <v>3</v>
@@ -17171,7 +17171,7 @@
         <v>23</v>
       </c>
       <c r="AC117" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD117" t="n">
         <v>41</v>
@@ -17294,7 +17294,7 @@
         <v>1.22</v>
       </c>
       <c r="W118" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X118" t="n">
         <v>2.5</v>
@@ -18390,16 +18390,16 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H126" t="n">
         <v>3.6</v>
       </c>
       <c r="I126" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J126" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K126" t="n">
         <v>2.3</v>
@@ -18459,7 +18459,7 @@
         <v>9</v>
       </c>
       <c r="AD126" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE126" t="n">
         <v>15</v>
@@ -18976,10 +18976,10 @@
         <v>2.75</v>
       </c>
       <c r="M130" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N130" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O130" t="n">
         <v>1.3</v>
@@ -18988,18 +18988,18 @@
         <v>3.4</v>
       </c>
       <c r="Q130" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R130" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S130" t="inlineStr"/>
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V130" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W130" t="n">
         <v>1.4</v>
@@ -19246,7 +19246,7 @@
         <v>3.6</v>
       </c>
       <c r="I132" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J132" t="n">
         <v>2.4</v>
@@ -19411,30 +19411,30 @@
         <v>3</v>
       </c>
       <c r="Q133" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R133" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S133" t="inlineStr"/>
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V133" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W133" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X133" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y133" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z133" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA133" t="n">
         <v>7</v>
@@ -19449,10 +19449,10 @@
         <v>21</v>
       </c>
       <c r="AE133" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF133" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG133" t="n">
         <v>8</v>
@@ -19461,19 +19461,19 @@
         <v>6</v>
       </c>
       <c r="AI133" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ133" t="n">
         <v>51</v>
       </c>
       <c r="AK133" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL133" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AM133" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN133" t="n">
         <v>12</v>
@@ -19681,10 +19681,10 @@
         <v>3.75</v>
       </c>
       <c r="M135" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N135" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O135" t="n">
         <v>1.3</v>
@@ -19693,10 +19693,10 @@
         <v>3.4</v>
       </c>
       <c r="Q135" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R135" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S135" t="inlineStr"/>
       <c r="T135" t="inlineStr"/>
@@ -19828,22 +19828,22 @@
         <v>15</v>
       </c>
       <c r="O136" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P136" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q136" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R136" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S136" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="T136" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U136" t="n">
         <v>2.5</v>
@@ -20090,13 +20090,13 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H138" t="n">
         <v>4</v>
       </c>
       <c r="I138" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J138" t="n">
         <v>2.25</v>
@@ -20153,7 +20153,7 @@
         <v>9</v>
       </c>
       <c r="AB138" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC138" t="n">
         <v>8.5</v>
@@ -20162,7 +20162,7 @@
         <v>13</v>
       </c>
       <c r="AE138" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF138" t="n">
         <v>21</v>
@@ -20183,7 +20183,7 @@
         <v>151</v>
       </c>
       <c r="AL138" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM138" t="n">
         <v>26</v>
@@ -20256,7 +20256,7 @@
         <v>1.04</v>
       </c>
       <c r="N139" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O139" t="n">
         <v>1.25</v>
@@ -21733,22 +21733,22 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="H151" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I151" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J151" t="n">
         <v>1.62</v>
       </c>
       <c r="K151" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L151" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M151" t="n">
         <v>1.05</v>
@@ -21799,7 +21799,7 @@
         <v>5.5</v>
       </c>
       <c r="AC151" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD151" t="n">
         <v>6.5</v>
@@ -21817,7 +21817,7 @@
         <v>11</v>
       </c>
       <c r="AI151" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ151" t="n">
         <v>101</v>
@@ -21826,7 +21826,7 @@
         <v>900</v>
       </c>
       <c r="AL151" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AM151" t="n">
         <v>67</v>
@@ -21835,13 +21835,13 @@
         <v>41</v>
       </c>
       <c r="AO151" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AP151" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AQ151" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AR151" t="n">
         <v>1.33</v>
@@ -22309,16 +22309,16 @@
         </is>
       </c>
       <c r="G155" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H155" t="n">
         <v>3.7</v>
       </c>
-      <c r="H155" t="n">
-        <v>3.75</v>
-      </c>
       <c r="I155" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="J155" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K155" t="n">
         <v>2.1</v>
@@ -22407,7 +22407,7 @@
         <v>9</v>
       </c>
       <c r="AO155" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP155" t="n">
         <v>17</v>
@@ -22595,22 +22595,22 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H157" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I157" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J157" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K157" t="n">
         <v>2.3</v>
       </c>
       <c r="L157" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M157" t="n">
         <v>1.04</v>
@@ -22654,13 +22654,13 @@
         <v>8</v>
       </c>
       <c r="AB157" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC157" t="n">
         <v>8.5</v>
       </c>
       <c r="AD157" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE157" t="n">
         <v>13</v>
@@ -22678,7 +22678,7 @@
         <v>15</v>
       </c>
       <c r="AJ157" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK157" t="n">
         <v>201</v>
@@ -22693,13 +22693,13 @@
         <v>15</v>
       </c>
       <c r="AO157" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP157" t="n">
         <v>34</v>
       </c>
       <c r="AQ157" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR157" t="inlineStr"/>
       <c r="AS157" t="inlineStr"/>
@@ -22902,7 +22902,7 @@
         <v>1.07</v>
       </c>
       <c r="N159" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O159" t="n">
         <v>1.36</v>
@@ -23052,18 +23052,18 @@
         <v>3</v>
       </c>
       <c r="Q160" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R160" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S160" t="inlineStr"/>
       <c r="T160" t="inlineStr"/>
       <c r="U160" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V160" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W160" t="n">
         <v>1.44</v>
@@ -24740,10 +24740,10 @@
         <v>4.33</v>
       </c>
       <c r="M172" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N172" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O172" t="n">
         <v>1.25</v>
@@ -25568,111 +25568,111 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="H178" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="I178" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="J178" t="n">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="K178" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="L178" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="M178" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N178" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="O178" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P178" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="Q178" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R178" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="S178" t="inlineStr"/>
       <c r="T178" t="inlineStr"/>
       <c r="U178" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="V178" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W178" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="X178" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="Y178" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="Z178" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA178" t="n">
         <v>6.7</v>
       </c>
       <c r="AB178" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AC178" t="n">
         <v>8.25</v>
       </c>
       <c r="AD178" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AE178" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF178" t="n">
         <v>27</v>
       </c>
       <c r="AG178" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AH178" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AI178" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ178" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK178" t="n">
         <v>700</v>
       </c>
       <c r="AL178" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AM178" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AN178" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO178" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AP178" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AQ178" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AR178" t="inlineStr"/>
       <c r="AS178" t="inlineStr"/>
@@ -26711,7 +26711,7 @@
         <v>2.05</v>
       </c>
       <c r="L186" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="M186" t="n">
         <v>1.06</v>
@@ -26846,7 +26846,7 @@
         <v>3.4</v>
       </c>
       <c r="J187" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K187" t="n">
         <v>2.05</v>
@@ -27131,10 +27131,10 @@
         <v>4.75</v>
       </c>
       <c r="K189" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L189" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="M189" t="n">
         <v>1.11</v>
@@ -27302,10 +27302,10 @@
       <c r="S190" t="inlineStr"/>
       <c r="T190" t="inlineStr"/>
       <c r="U190" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V190" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W190" t="n">
         <v>1.44</v>
@@ -27435,10 +27435,10 @@
         <v>2.75</v>
       </c>
       <c r="Q191" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R191" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S191" t="inlineStr"/>
       <c r="T191" t="inlineStr"/>
@@ -27584,10 +27584,10 @@
       <c r="S192" t="inlineStr"/>
       <c r="T192" t="inlineStr"/>
       <c r="U192" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V192" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W192" t="n">
         <v>1.33</v>
@@ -28537,13 +28537,13 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="H199" t="n">
         <v>2.67</v>
       </c>
       <c r="I199" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="J199" t="n">
         <v>3.3</v>
@@ -28552,7 +28552,7 @@
         <v>1.95</v>
       </c>
       <c r="L199" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="M199" t="n">
         <v>1.1</v>
@@ -28561,13 +28561,13 @@
         <v>6</v>
       </c>
       <c r="O199" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P199" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="Q199" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R199" t="n">
         <v>1.65</v>
@@ -28584,31 +28584,31 @@
         <v>1.42</v>
       </c>
       <c r="X199" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="Y199" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Z199" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="AA199" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AB199" t="n">
         <v>14.5</v>
       </c>
       <c r="AC199" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD199" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE199" t="n">
         <v>25</v>
       </c>
       <c r="AF199" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG199" t="n">
         <v>6</v>
@@ -28617,7 +28617,7 @@
         <v>5.2</v>
       </c>
       <c r="AI199" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AJ199" t="n">
         <v>55</v>
@@ -28629,16 +28629,16 @@
         <v>8.25</v>
       </c>
       <c r="AM199" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AN199" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AO199" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AP199" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ199" t="n">
         <v>32</v>
@@ -28678,16 +28678,16 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H200" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I200" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J200" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K200" t="n">
         <v>2.2</v>
@@ -28837,10 +28837,10 @@
         <v>5</v>
       </c>
       <c r="M201" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N201" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O201" t="n">
         <v>1.36</v>
@@ -29176,37 +29176,37 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H204" t="n">
         <v>3.5</v>
       </c>
       <c r="I204" t="n">
-        <v>4.55</v>
+        <v>4.75</v>
       </c>
       <c r="J204" t="n">
-        <v>2.27</v>
+        <v>2.4</v>
       </c>
       <c r="K204" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L204" t="n">
-        <v>4.85</v>
+        <v>5.5</v>
       </c>
       <c r="M204" t="n">
         <v>1.07</v>
       </c>
       <c r="N204" t="n">
-        <v>6.7</v>
+        <v>8.5</v>
       </c>
       <c r="O204" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P204" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="Q204" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R204" t="n">
         <v>1.7</v>
@@ -29214,52 +29214,52 @@
       <c r="S204" t="inlineStr"/>
       <c r="T204" t="inlineStr"/>
       <c r="U204" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V204" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W204" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X204" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="Y204" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Z204" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AA204" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB204" t="n">
         <v>7.5</v>
       </c>
       <c r="AC204" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD204" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE204" t="n">
         <v>15</v>
       </c>
       <c r="AF204" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AG204" t="n">
-        <v>6.7</v>
+        <v>8.5</v>
       </c>
       <c r="AH204" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AI204" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AJ204" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="AK204" t="n">
         <v>900</v>
@@ -29268,19 +29268,19 @@
         <v>11</v>
       </c>
       <c r="AM204" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AN204" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AO204" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AP204" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AQ204" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AR204" t="inlineStr"/>
       <c r="AS204" t="inlineStr"/>
@@ -29361,7 +29361,7 @@
         <v>1.14</v>
       </c>
       <c r="W205" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="X205" t="n">
         <v>2.2</v>
@@ -29506,7 +29506,7 @@
         <v>1.29</v>
       </c>
       <c r="W206" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X206" t="n">
         <v>2.75</v>
@@ -29647,10 +29647,10 @@
         <v>1.17</v>
       </c>
       <c r="W207" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X207" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Y207" t="n">
         <v>2.1</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-15.xlsx
@@ -692,40 +692,40 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="H2" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="J2" t="n">
         <v>8</v>
       </c>
       <c r="K2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.8</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
         <v>2.08</v>
@@ -734,25 +734,25 @@
         <v>1.82</v>
       </c>
       <c r="U2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB2" t="n">
         <v>51</v>
@@ -770,7 +770,7 @@
         <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
         <v>11</v>
@@ -785,7 +785,7 @@
         <v>501</v>
       </c>
       <c r="AL2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM2" t="n">
         <v>7</v>
@@ -797,7 +797,7 @@
         <v>9</v>
       </c>
       <c r="AP2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
@@ -861,22 +861,22 @@
         <v>15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R3" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S3" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U3" t="n">
         <v>2.5</v>
@@ -1006,10 +1006,10 @@
         <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q4" t="n">
         <v>2.1</v>
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J5" t="n">
         <v>2.4</v>
@@ -1138,7 +1138,7 @@
         <v>2.5</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
@@ -1147,10 +1147,10 @@
         <v>19</v>
       </c>
       <c r="O5" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q5" t="n">
         <v>1.44</v>
@@ -1167,7 +1167,7 @@
         <v>1.73</v>
       </c>
       <c r="W5" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X5" t="n">
         <v>3.75</v>
@@ -1200,7 +1200,7 @@
         <v>23</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI5" t="n">
         <v>13</v>
@@ -1264,28 +1264,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K6" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L6" t="n">
         <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O6" t="n">
         <v>1.14</v>
@@ -1312,7 +1312,7 @@
         <v>1.67</v>
       </c>
       <c r="W6" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X6" t="n">
         <v>3.75</v>
@@ -1330,7 +1330,7 @@
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD6" t="n">
         <v>67</v>
@@ -1409,13 +1409,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H7" t="n">
         <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J7" t="n">
         <v>2.88</v>
@@ -1424,13 +1424,13 @@
         <v>2.38</v>
       </c>
       <c r="L7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O7" t="n">
         <v>1.17</v>
@@ -1439,16 +1439,16 @@
         <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R7" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S7" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U7" t="n">
         <v>2.38</v>
@@ -1457,10 +1457,10 @@
         <v>1.57</v>
       </c>
       <c r="W7" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="X7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y7" t="n">
         <v>1.5</v>
@@ -1475,7 +1475,7 @@
         <v>15</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
         <v>26</v>
@@ -1490,7 +1490,7 @@
         <v>17</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
         <v>12</v>
@@ -1560,10 +1560,10 @@
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J8" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
@@ -1592,16 +1592,16 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W8" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="X8" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="Y8" t="n">
         <v>2</v>
@@ -1613,7 +1613,7 @@
         <v>6.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC8" t="n">
         <v>9.5</v>
@@ -1646,7 +1646,7 @@
         <v>12</v>
       </c>
       <c r="AM8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN8" t="n">
         <v>17</v>
@@ -1695,10 +1695,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H9" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="I9" t="n">
         <v>9.5</v>
@@ -1716,7 +1716,7 @@
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O9" t="n">
         <v>1.14</v>
@@ -1743,7 +1743,7 @@
         <v>1.73</v>
       </c>
       <c r="W9" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X9" t="n">
         <v>3.75</v>
@@ -1755,13 +1755,13 @@
         <v>1.95</v>
       </c>
       <c r="AA9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB9" t="n">
         <v>7.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD9" t="n">
         <v>8.5</v>
@@ -1773,10 +1773,10 @@
         <v>23</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI9" t="n">
         <v>21</v>
@@ -1840,13 +1840,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H10" t="n">
         <v>4.2</v>
       </c>
       <c r="I10" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
         <v>2.1</v>
@@ -1858,10 +1858,10 @@
         <v>5.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O10" t="n">
         <v>1.2</v>
@@ -1888,7 +1888,7 @@
         <v>1.5</v>
       </c>
       <c r="W10" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="X10" t="n">
         <v>3.4</v>
@@ -1936,7 +1936,7 @@
         <v>17</v>
       </c>
       <c r="AM10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN10" t="n">
         <v>17</v>
@@ -2166,16 +2166,16 @@
         <v>2.3</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="T12" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U12" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V12" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W12" t="n">
         <v>1.29</v>
@@ -2190,7 +2190,7 @@
         <v>2.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB12" t="n">
         <v>29</v>
@@ -2220,13 +2220,13 @@
         <v>41</v>
       </c>
       <c r="AK12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL12" t="n">
         <v>9.5</v>
       </c>
       <c r="AM12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AN12" t="n">
         <v>8.5</v>
@@ -2275,10 +2275,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I13" t="n">
         <v>2.88</v>
@@ -2290,13 +2290,13 @@
         <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.4</v>
@@ -2325,10 +2325,10 @@
         <v>2.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA13" t="n">
         <v>7.5</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="AD13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE13" t="n">
         <v>21</v>
@@ -2349,7 +2349,7 @@
         <v>34</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH13" t="n">
         <v>6</v>
@@ -2361,7 +2361,7 @@
         <v>51</v>
       </c>
       <c r="AK13" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL13" t="n">
         <v>8</v>
@@ -2422,7 +2422,7 @@
         <v>4.2</v>
       </c>
       <c r="I14" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J14" t="n">
         <v>2.25</v>
@@ -2497,7 +2497,7 @@
         <v>19</v>
       </c>
       <c r="AH14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI14" t="n">
         <v>13</v>
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
         <v>3.5</v>
@@ -2576,7 +2576,7 @@
         <v>2.25</v>
       </c>
       <c r="L15" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I16" t="n">
         <v>2.25</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
         <v>2.3</v>
       </c>
       <c r="L16" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
@@ -2726,16 +2726,16 @@
         <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R16" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S16" t="n">
         <v>2.07</v>
@@ -2750,19 +2750,19 @@
         <v>1.5</v>
       </c>
       <c r="W16" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X16" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z16" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB16" t="n">
         <v>17</v>
@@ -2786,19 +2786,19 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK16" t="n">
         <v>126</v>
       </c>
       <c r="AL16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN16" t="n">
         <v>9</v>
@@ -2847,10 +2847,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H17" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I17" t="n">
         <v>6.5</v>
@@ -2883,16 +2883,16 @@
         <v>2.3</v>
       </c>
       <c r="S17" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="T17" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U17" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V17" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W17" t="n">
         <v>1.3</v>
@@ -2928,7 +2928,7 @@
         <v>15</v>
       </c>
       <c r="AH17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI17" t="n">
         <v>17</v>
@@ -2946,7 +2946,7 @@
         <v>34</v>
       </c>
       <c r="AN17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO17" t="n">
         <v>67</v>
@@ -3157,28 +3157,28 @@
         <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P19" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R19" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S19" t="n">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="T19" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="U19" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V19" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W19" t="n">
         <v>1.29</v>
@@ -3284,7 +3284,7 @@
         <v>5.5</v>
       </c>
       <c r="I20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J20" t="n">
         <v>1.8</v>
@@ -3296,10 +3296,10 @@
         <v>6.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O20" t="n">
         <v>1.11</v>
@@ -3567,7 +3567,7 @@
         <v>2.5</v>
       </c>
       <c r="H22" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I22" t="n">
         <v>3</v>
@@ -3585,7 +3585,7 @@
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.44</v>
@@ -3665,7 +3665,7 @@
         <v>29</v>
       </c>
       <c r="AP22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ22" t="n">
         <v>41</v>
@@ -3777,7 +3777,7 @@
         <v>34</v>
       </c>
       <c r="AE23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF23" t="n">
         <v>41</v>
@@ -3816,10 +3816,10 @@
         <v>41</v>
       </c>
       <c r="AR23" t="n">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="24">
@@ -3854,16 +3854,16 @@
         </is>
       </c>
       <c r="G24" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J24" t="n">
         <v>5.5</v>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J24" t="n">
-        <v>5</v>
       </c>
       <c r="K24" t="n">
         <v>2.4</v>
@@ -3872,10 +3872,10 @@
         <v>2.1</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O24" t="n">
         <v>1.2</v>
@@ -3890,16 +3890,16 @@
         <v>2.3</v>
       </c>
       <c r="S24" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="T24" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U24" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V24" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W24" t="n">
         <v>1.3</v>
@@ -3908,16 +3908,16 @@
         <v>3.4</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Z24" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA24" t="n">
         <v>19</v>
       </c>
       <c r="AB24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC24" t="n">
         <v>17</v>
@@ -3935,10 +3935,10 @@
         <v>15</v>
       </c>
       <c r="AH24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ24" t="n">
         <v>41</v>
@@ -3947,7 +3947,7 @@
         <v>151</v>
       </c>
       <c r="AL24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM24" t="n">
         <v>8.5</v>
@@ -4064,7 +4064,7 @@
         <v>8.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE25" t="n">
         <v>12</v>
@@ -4146,7 +4146,7 @@
         <v>4.5</v>
       </c>
       <c r="I26" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J26" t="n">
         <v>2.05</v>
@@ -4433,10 +4433,10 @@
         <v>1.65</v>
       </c>
       <c r="H28" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I28" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J28" t="n">
         <v>2.38</v>
@@ -4460,16 +4460,16 @@
         <v>2.63</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R28" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S28" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="T28" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="U28" t="n">
         <v>4.5</v>
@@ -4478,16 +4478,16 @@
         <v>1.18</v>
       </c>
       <c r="W28" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z28" t="n">
         <v>1.57</v>
-      </c>
-      <c r="X28" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>1.53</v>
       </c>
       <c r="AA28" t="n">
         <v>5</v>
@@ -4496,7 +4496,7 @@
         <v>6.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD28" t="n">
         <v>12</v>
@@ -4508,16 +4508,16 @@
         <v>41</v>
       </c>
       <c r="AG28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH28" t="n">
         <v>6.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ28" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK28" t="n">
         <v>101</v>
@@ -4538,13 +4538,13 @@
         <v>51</v>
       </c>
       <c r="AQ28" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AS28" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="29">
@@ -4579,16 +4579,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H29" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="J29" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
         <v>1.91</v>
@@ -4609,10 +4609,10 @@
         <v>2.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R29" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S29" t="n">
         <v>4.3</v>
@@ -4621,10 +4621,10 @@
         <v>1.22</v>
       </c>
       <c r="U29" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W29" t="n">
         <v>1.57</v>
@@ -4642,7 +4642,7 @@
         <v>6</v>
       </c>
       <c r="AB29" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC29" t="n">
         <v>10</v>
@@ -4690,10 +4690,10 @@
         <v>41</v>
       </c>
       <c r="AR29" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="30">
@@ -4877,13 +4877,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H31" t="n">
         <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J31" t="n">
         <v>2.75</v>
@@ -4940,16 +4940,16 @@
         <v>6.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC31" t="n">
         <v>9</v>
       </c>
       <c r="AD31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF31" t="n">
         <v>29</v>
@@ -4982,7 +4982,7 @@
         <v>41</v>
       </c>
       <c r="AP31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ31" t="n">
         <v>41</v>
@@ -5044,10 +5044,10 @@
         <v>4.33</v>
       </c>
       <c r="M32" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="N32" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="O32" t="n">
         <v>1.83</v>
@@ -5211,7 +5211,7 @@
         <v>1.11</v>
       </c>
       <c r="W33" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="X33" t="n">
         <v>2.1</v>
@@ -5449,13 +5449,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H35" t="n">
         <v>2.88</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J35" t="n">
         <v>2.75</v>
@@ -5470,7 +5470,7 @@
         <v>1.17</v>
       </c>
       <c r="N35" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O35" t="n">
         <v>1.67</v>
@@ -5493,10 +5493,10 @@
         <v>1.1</v>
       </c>
       <c r="W35" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="X35" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y35" t="n">
         <v>2.63</v>
@@ -5514,7 +5514,7 @@
         <v>11</v>
       </c>
       <c r="AD35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE35" t="n">
         <v>23</v>
@@ -5523,10 +5523,10 @@
         <v>51</v>
       </c>
       <c r="AG35" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AH35" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI35" t="n">
         <v>26</v>
@@ -5596,7 +5596,7 @@
         <v>2.9</v>
       </c>
       <c r="I36" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J36" t="n">
         <v>2.88</v>
@@ -5605,48 +5605,48 @@
         <v>1.8</v>
       </c>
       <c r="L36" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M36" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N36" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="O36" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P36" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="R36" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V36" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="W36" t="n">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="X36" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="Y36" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Z36" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AA36" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AB36" t="n">
         <v>7.5</v>
@@ -5658,34 +5658,34 @@
         <v>17</v>
       </c>
       <c r="AE36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF36" t="n">
         <v>51</v>
       </c>
       <c r="AG36" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AH36" t="n">
         <v>6.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ36" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AK36" t="n">
         <v>101</v>
       </c>
       <c r="AL36" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO36" t="n">
         <v>51</v>
@@ -5783,7 +5783,7 @@
         <v>1.67</v>
       </c>
       <c r="W37" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X37" t="n">
         <v>3.75</v>
@@ -5924,7 +5924,7 @@
         <v>1.44</v>
       </c>
       <c r="W38" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X38" t="n">
         <v>3.25</v>
@@ -6162,13 +6162,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
         <v>3.2</v>
       </c>
       <c r="I40" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J40" t="n">
         <v>2.75</v>
@@ -6177,54 +6177,54 @@
         <v>2</v>
       </c>
       <c r="L40" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M40" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N40" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O40" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P40" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="R40" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V40" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W40" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X40" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y40" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA40" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB40" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC40" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD40" t="n">
         <v>17</v>
@@ -6236,40 +6236,44 @@
         <v>34</v>
       </c>
       <c r="AG40" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH40" t="n">
         <v>6</v>
       </c>
       <c r="AI40" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ40" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK40" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AL40" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM40" t="n">
         <v>19</v>
       </c>
       <c r="AN40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO40" t="n">
         <v>41</v>
       </c>
       <c r="AP40" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ40" t="n">
         <v>41</v>
       </c>
-      <c r="AR40" t="inlineStr"/>
-      <c r="AS40" t="inlineStr"/>
+      <c r="AR40" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6327,28 +6331,28 @@
         <v>19</v>
       </c>
       <c r="O41" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P41" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R41" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S41" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T41" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U41" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V41" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W41" t="n">
         <v>1.25</v>
@@ -6901,10 +6905,10 @@
         <v>4</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R45" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
@@ -7298,28 +7302,28 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H48" t="n">
         <v>3.4</v>
       </c>
       <c r="I48" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J48" t="n">
         <v>3.5</v>
       </c>
       <c r="K48" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L48" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M48" t="n">
         <v>1.04</v>
       </c>
       <c r="N48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O48" t="n">
         <v>1.22</v>
@@ -7357,16 +7361,16 @@
         <v>11</v>
       </c>
       <c r="AB48" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC48" t="n">
         <v>11</v>
       </c>
       <c r="AD48" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF48" t="n">
         <v>29</v>
@@ -7378,7 +7382,7 @@
         <v>6.5</v>
       </c>
       <c r="AI48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ48" t="n">
         <v>41</v>
@@ -7393,7 +7397,7 @@
         <v>12</v>
       </c>
       <c r="AN48" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO48" t="n">
         <v>21</v>
@@ -7580,13 +7584,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H50" t="n">
         <v>3.4</v>
       </c>
       <c r="I50" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J50" t="n">
         <v>6</v>
@@ -7595,13 +7599,13 @@
         <v>1.95</v>
       </c>
       <c r="L50" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M50" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N50" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O50" t="n">
         <v>1.5</v>
@@ -7636,19 +7640,19 @@
         <v>1.53</v>
       </c>
       <c r="AA50" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB50" t="n">
         <v>23</v>
       </c>
       <c r="AC50" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD50" t="n">
         <v>51</v>
       </c>
       <c r="AE50" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AF50" t="n">
         <v>51</v>
@@ -7672,7 +7676,7 @@
         <v>5</v>
       </c>
       <c r="AM50" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AN50" t="n">
         <v>9.5</v>
@@ -7681,16 +7685,16 @@
         <v>13</v>
       </c>
       <c r="AP50" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ50" t="n">
         <v>41</v>
       </c>
       <c r="AR50" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="51">
@@ -7746,7 +7750,7 @@
         <v>1.07</v>
       </c>
       <c r="N51" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O51" t="n">
         <v>1.33</v>
@@ -7823,7 +7827,7 @@
         <v>9.5</v>
       </c>
       <c r="AO51" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP51" t="n">
         <v>19</v>
@@ -7869,25 +7873,25 @@
         <v>9.5</v>
       </c>
       <c r="H52" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I52" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="J52" t="n">
+        <v>9</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N52" t="n">
         <v>9.5</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N52" t="n">
-        <v>11</v>
       </c>
       <c r="O52" t="n">
         <v>1.29</v>
@@ -7896,10 +7900,10 @@
         <v>3.5</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R52" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
@@ -7916,37 +7920,37 @@
         <v>2.75</v>
       </c>
       <c r="Y52" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Z52" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA52" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB52" t="n">
         <v>41</v>
       </c>
       <c r="AC52" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD52" t="n">
         <v>126</v>
       </c>
       <c r="AE52" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AF52" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG52" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH52" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI52" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ52" t="n">
         <v>101</v>
@@ -7964,7 +7968,7 @@
         <v>9</v>
       </c>
       <c r="AO52" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP52" t="n">
         <v>13</v>
@@ -8007,13 +8011,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H53" t="n">
         <v>3.3</v>
       </c>
       <c r="I53" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J53" t="n">
         <v>3.1</v>
@@ -8055,7 +8059,7 @@
         <v>1.29</v>
       </c>
       <c r="W53" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X53" t="n">
         <v>2.75</v>
@@ -8079,7 +8083,7 @@
         <v>23</v>
       </c>
       <c r="AE53" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF53" t="n">
         <v>29</v>
@@ -8204,7 +8208,7 @@
         <v>1.4</v>
       </c>
       <c r="W54" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X54" t="n">
         <v>3</v>
@@ -8305,13 +8309,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H55" t="n">
         <v>5</v>
       </c>
       <c r="I55" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J55" t="n">
         <v>1.95</v>
@@ -8329,40 +8333,40 @@
         <v>15</v>
       </c>
       <c r="O55" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P55" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R55" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S55" t="n">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
       <c r="T55" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="U55" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V55" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W55" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X55" t="n">
         <v>3.25</v>
       </c>
       <c r="Y55" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z55" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA55" t="n">
         <v>7.5</v>
@@ -8374,7 +8378,7 @@
         <v>8.5</v>
       </c>
       <c r="AD55" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE55" t="n">
         <v>12</v>
@@ -8401,10 +8405,10 @@
         <v>15</v>
       </c>
       <c r="AM55" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN55" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO55" t="n">
         <v>67</v>
@@ -8416,10 +8420,10 @@
         <v>41</v>
       </c>
       <c r="AR55" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AS55" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="56">
@@ -8502,10 +8506,10 @@
         <v>1.18</v>
       </c>
       <c r="W56" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X56" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Y56" t="n">
         <v>2.25</v>
@@ -8651,7 +8655,7 @@
         <v>1.17</v>
       </c>
       <c r="W57" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="X57" t="n">
         <v>2.25</v>
@@ -8752,114 +8756,118 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H58" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I58" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J58" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K58" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L58" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N58" t="n">
+        <v>7</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P58" t="n">
         <v>2.63</v>
       </c>
-      <c r="M58" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N58" t="n">
-        <v>8</v>
-      </c>
-      <c r="O58" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P58" t="n">
-        <v>2.75</v>
-      </c>
       <c r="Q58" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="R58" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V58" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="W58" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="X58" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Y58" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Z58" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AA58" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB58" t="n">
         <v>19</v>
       </c>
       <c r="AC58" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD58" t="n">
         <v>41</v>
       </c>
       <c r="AE58" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF58" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG58" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH58" t="n">
         <v>6.5</v>
       </c>
       <c r="AI58" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ58" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK58" t="n">
         <v>1250</v>
       </c>
       <c r="AL58" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AM58" t="n">
         <v>8</v>
       </c>
       <c r="AN58" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO58" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP58" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ58" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR58" t="inlineStr"/>
-      <c r="AS58" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>1.98</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8896,7 +8904,7 @@
         <v>1.18</v>
       </c>
       <c r="H59" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="I59" t="n">
         <v>11</v>
@@ -8905,10 +8913,10 @@
         <v>1.57</v>
       </c>
       <c r="K59" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="L59" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M59" t="n">
         <v>1.02</v>
@@ -8917,34 +8925,34 @@
         <v>19</v>
       </c>
       <c r="O59" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P59" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R59" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S59" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="T59" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="U59" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V59" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="W59" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X59" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Y59" t="n">
         <v>2.38</v>
@@ -9038,99 +9046,99 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H60" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="I60" t="n">
         <v>4.8</v>
       </c>
       <c r="J60" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="K60" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="L60" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="M60" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N60" t="n">
-        <v>8.75</v>
+        <v>7.9</v>
       </c>
       <c r="O60" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="P60" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="R60" t="n">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X60" t="n">
         <v>2.75</v>
       </c>
-      <c r="V60" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="W60" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="X60" t="n">
-        <v>2.95</v>
-      </c>
       <c r="Y60" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="Z60" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="AA60" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="AB60" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AC60" t="n">
         <v>8.75</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>8.5</v>
       </c>
       <c r="AD60" t="n">
         <v>14</v>
       </c>
       <c r="AE60" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF60" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AG60" t="n">
-        <v>8.75</v>
+        <v>7.9</v>
       </c>
       <c r="AH60" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AI60" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AJ60" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AK60" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AL60" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AM60" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AN60" t="n">
         <v>16</v>
@@ -9139,10 +9147,10 @@
         <v>90</v>
       </c>
       <c r="AP60" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AQ60" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AR60" t="inlineStr"/>
       <c r="AS60" t="inlineStr"/>
@@ -9344,24 +9352,24 @@
         <v>10</v>
       </c>
       <c r="O62" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P62" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q62" t="n">
         <v>2.05</v>
       </c>
       <c r="R62" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V62" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W62" t="n">
         <v>1.44</v>
@@ -9412,7 +9420,7 @@
         <v>12</v>
       </c>
       <c r="AM62" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN62" t="n">
         <v>17</v>
@@ -9485,10 +9493,10 @@
         <v>13</v>
       </c>
       <c r="O63" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P63" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q63" t="n">
         <v>1.75</v>
@@ -9499,10 +9507,10 @@
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V63" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W63" t="n">
         <v>1.33</v>
@@ -10311,54 +10319,54 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H69" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I69" t="n">
         <v>2.55</v>
       </c>
       <c r="J69" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K69" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L69" t="n">
         <v>3.25</v>
       </c>
       <c r="M69" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N69" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O69" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P69" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R69" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V69" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W69" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X69" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y69" t="n">
         <v>1.83</v>
@@ -10367,7 +10375,7 @@
         <v>1.83</v>
       </c>
       <c r="AA69" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB69" t="n">
         <v>13</v>
@@ -10385,7 +10393,7 @@
         <v>34</v>
       </c>
       <c r="AG69" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH69" t="n">
         <v>6</v>
@@ -10397,7 +10405,7 @@
         <v>51</v>
       </c>
       <c r="AK69" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL69" t="n">
         <v>7.5</v>
@@ -10409,7 +10417,7 @@
         <v>10</v>
       </c>
       <c r="AO69" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP69" t="n">
         <v>21</v>
@@ -10754,10 +10762,10 @@
         <v>5.5</v>
       </c>
       <c r="M72" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N72" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O72" t="n">
         <v>1.3</v>
@@ -11018,7 +11026,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H74" t="n">
         <v>3.5</v>
@@ -11033,7 +11041,7 @@
         <v>2.05</v>
       </c>
       <c r="L74" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M74" t="n">
         <v>1.07</v>
@@ -11074,7 +11082,7 @@
         <v>1.8</v>
       </c>
       <c r="AA74" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB74" t="n">
         <v>15</v>
@@ -11116,7 +11124,7 @@
         <v>9.5</v>
       </c>
       <c r="AO74" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP74" t="n">
         <v>19</v>
@@ -11318,22 +11326,22 @@
         <v>3.5</v>
       </c>
       <c r="M76" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N76" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O76" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P76" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R76" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
@@ -11407,10 +11415,10 @@
         <v>41</v>
       </c>
       <c r="AR76" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -11445,13 +11453,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H77" t="n">
         <v>3.4</v>
       </c>
       <c r="I77" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J77" t="n">
         <v>3.1</v>
@@ -11460,7 +11468,7 @@
         <v>2.1</v>
       </c>
       <c r="L77" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M77" t="n">
         <v>1.06</v>
@@ -11501,7 +11509,7 @@
         <v>2</v>
       </c>
       <c r="AA77" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB77" t="n">
         <v>12</v>
@@ -11513,40 +11521,40 @@
         <v>23</v>
       </c>
       <c r="AE77" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF77" t="n">
         <v>29</v>
       </c>
       <c r="AG77" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH77" t="n">
         <v>6.5</v>
       </c>
       <c r="AI77" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ77" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK77" t="n">
         <v>201</v>
       </c>
       <c r="AL77" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM77" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN77" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO77" t="n">
         <v>29</v>
       </c>
       <c r="AP77" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ77" t="n">
         <v>29</v>
@@ -11727,13 +11735,13 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H79" t="n">
         <v>3.4</v>
       </c>
       <c r="I79" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J79" t="n">
         <v>2.75</v>
@@ -11748,27 +11756,27 @@
         <v>1.06</v>
       </c>
       <c r="N79" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O79" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P79" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R79" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V79" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W79" t="n">
         <v>1.4</v>
@@ -11786,7 +11794,7 @@
         <v>7.5</v>
       </c>
       <c r="AB79" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC79" t="n">
         <v>9</v>
@@ -11801,7 +11809,7 @@
         <v>26</v>
       </c>
       <c r="AG79" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH79" t="n">
         <v>6.5</v>
@@ -11819,10 +11827,10 @@
         <v>11</v>
       </c>
       <c r="AM79" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN79" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO79" t="n">
         <v>41</v>
@@ -11868,7 +11876,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H80" t="n">
         <v>3.6</v>
@@ -12039,10 +12047,10 @@
         <v>3.75</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R81" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
@@ -12153,7 +12161,7 @@
         <v>1.6</v>
       </c>
       <c r="H82" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I82" t="n">
         <v>5</v>
@@ -12188,10 +12196,10 @@
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V82" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W82" t="n">
         <v>1.44</v>
@@ -12206,10 +12214,10 @@
         <v>1.67</v>
       </c>
       <c r="AA82" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB82" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC82" t="n">
         <v>8.5</v>
@@ -12224,7 +12232,7 @@
         <v>34</v>
       </c>
       <c r="AG82" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH82" t="n">
         <v>8</v>
@@ -12297,7 +12305,7 @@
         <v>3.6</v>
       </c>
       <c r="I83" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J83" t="n">
         <v>2.6</v>
@@ -12347,7 +12355,7 @@
         <v>2</v>
       </c>
       <c r="AA83" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB83" t="n">
         <v>9.5</v>
@@ -12432,13 +12440,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H84" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I84" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J84" t="n">
         <v>3.1</v>
@@ -12579,22 +12587,22 @@
         <v>3.75</v>
       </c>
       <c r="I85" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J85" t="n">
         <v>4.5</v>
       </c>
       <c r="K85" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L85" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M85" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N85" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O85" t="n">
         <v>1.25</v>
@@ -12629,13 +12637,13 @@
         <v>2</v>
       </c>
       <c r="AA85" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC85" t="n">
         <v>13</v>
-      </c>
-      <c r="AB85" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC85" t="n">
-        <v>15</v>
       </c>
       <c r="AD85" t="n">
         <v>41</v>
@@ -12644,25 +12652,25 @@
         <v>34</v>
       </c>
       <c r="AF85" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG85" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH85" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI85" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ85" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK85" t="n">
         <v>201</v>
       </c>
       <c r="AL85" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM85" t="n">
         <v>9</v>
@@ -12720,13 +12728,13 @@
         <v>3.6</v>
       </c>
       <c r="I86" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J86" t="n">
         <v>2.6</v>
       </c>
       <c r="K86" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L86" t="n">
         <v>5</v>
@@ -12744,10 +12752,10 @@
         <v>2.75</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R86" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
@@ -12764,10 +12772,10 @@
         <v>2.5</v>
       </c>
       <c r="Y86" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Z86" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AA86" t="n">
         <v>6</v>
@@ -12859,22 +12867,22 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H87" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I87" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="J87" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K87" t="n">
         <v>2.2</v>
       </c>
       <c r="L87" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M87" t="n">
         <v>1.05</v>
@@ -12915,19 +12923,19 @@
         <v>2.05</v>
       </c>
       <c r="AA87" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB87" t="n">
         <v>15</v>
       </c>
       <c r="AC87" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD87" t="n">
         <v>29</v>
       </c>
       <c r="AE87" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF87" t="n">
         <v>29</v>
@@ -12948,7 +12956,7 @@
         <v>201</v>
       </c>
       <c r="AL87" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM87" t="n">
         <v>12</v>
@@ -13003,7 +13011,7 @@
         <v>4</v>
       </c>
       <c r="H88" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I88" t="n">
         <v>1.9</v>
@@ -13015,7 +13023,7 @@
         <v>2.2</v>
       </c>
       <c r="L88" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M88" t="n">
         <v>1.05</v>
@@ -13068,16 +13076,16 @@
         <v>41</v>
       </c>
       <c r="AE88" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF88" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG88" t="n">
         <v>11</v>
       </c>
       <c r="AH88" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI88" t="n">
         <v>15</v>
@@ -13092,7 +13100,7 @@
         <v>7.5</v>
       </c>
       <c r="AM88" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AN88" t="n">
         <v>8.5</v>
@@ -13147,7 +13155,7 @@
         <v>3.6</v>
       </c>
       <c r="I89" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J89" t="n">
         <v>2.6</v>
@@ -13282,13 +13290,13 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H90" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I90" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J90" t="n">
         <v>5</v>
@@ -13297,7 +13305,7 @@
         <v>1.95</v>
       </c>
       <c r="L90" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M90" t="n">
         <v>1.08</v>
@@ -13306,10 +13314,10 @@
         <v>7.5</v>
       </c>
       <c r="O90" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P90" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q90" t="n">
         <v>2.4</v>
@@ -13326,10 +13334,10 @@
         <v>1.17</v>
       </c>
       <c r="W90" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X90" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y90" t="n">
         <v>2.2</v>
@@ -13338,16 +13346,16 @@
         <v>1.62</v>
       </c>
       <c r="AA90" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB90" t="n">
         <v>19</v>
       </c>
       <c r="AC90" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD90" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE90" t="n">
         <v>41</v>
@@ -13374,13 +13382,13 @@
         <v>5.5</v>
       </c>
       <c r="AM90" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AN90" t="n">
         <v>9.5</v>
       </c>
       <c r="AO90" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP90" t="n">
         <v>19</v>
@@ -13389,10 +13397,10 @@
         <v>41</v>
       </c>
       <c r="AR90" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AS90" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="91">
@@ -13427,40 +13435,40 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H91" t="n">
         <v>3.2</v>
       </c>
       <c r="I91" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J91" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K91" t="n">
         <v>2</v>
       </c>
       <c r="L91" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M91" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N91" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O91" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P91" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R91" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
@@ -13471,7 +13479,7 @@
         <v>1.22</v>
       </c>
       <c r="W91" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X91" t="n">
         <v>2.5</v>
@@ -13483,10 +13491,10 @@
         <v>1.83</v>
       </c>
       <c r="AA91" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB91" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC91" t="n">
         <v>11</v>
@@ -13498,7 +13506,7 @@
         <v>26</v>
       </c>
       <c r="AF91" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG91" t="n">
         <v>8</v>
@@ -13513,7 +13521,7 @@
         <v>51</v>
       </c>
       <c r="AK91" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL91" t="n">
         <v>7.5</v>
@@ -13612,10 +13620,10 @@
         <v>1.22</v>
       </c>
       <c r="W92" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X92" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y92" t="n">
         <v>1.83</v>
@@ -13753,7 +13761,7 @@
         <v>1.4</v>
       </c>
       <c r="W93" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X93" t="n">
         <v>3.25</v>
@@ -13880,22 +13888,22 @@
         <v>5</v>
       </c>
       <c r="Q94" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V94" t="n">
         <v>1.57</v>
-      </c>
-      <c r="R94" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S94" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="T94" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U94" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V94" t="n">
-        <v>1.53</v>
       </c>
       <c r="W94" t="n">
         <v>1.25</v>
@@ -14136,19 +14144,19 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H96" t="n">
         <v>3.7</v>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J96" t="n">
         <v>2.75</v>
       </c>
       <c r="K96" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L96" t="n">
         <v>3.4</v>
@@ -14172,19 +14180,19 @@
         <v>2.35</v>
       </c>
       <c r="S96" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="T96" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="U96" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V96" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W96" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X96" t="n">
         <v>3.5</v>
@@ -14229,16 +14237,16 @@
         <v>101</v>
       </c>
       <c r="AL96" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM96" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN96" t="n">
         <v>11</v>
       </c>
       <c r="AO96" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP96" t="n">
         <v>21</v>
@@ -14299,10 +14307,10 @@
         <v>5</v>
       </c>
       <c r="M97" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N97" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O97" t="n">
         <v>1.22</v>
@@ -14325,7 +14333,7 @@
         <v>1.4</v>
       </c>
       <c r="W97" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X97" t="n">
         <v>3.25</v>
@@ -14422,13 +14430,13 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H98" t="n">
         <v>3.6</v>
       </c>
       <c r="I98" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="J98" t="n">
         <v>3.75</v>
@@ -14437,7 +14445,7 @@
         <v>2.3</v>
       </c>
       <c r="L98" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M98" t="n">
         <v>1.03</v>
@@ -14446,30 +14454,30 @@
         <v>15</v>
       </c>
       <c r="O98" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P98" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R98" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V98" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W98" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="X98" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y98" t="n">
         <v>1.57</v>
@@ -14481,16 +14489,16 @@
         <v>13</v>
       </c>
       <c r="AB98" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC98" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD98" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE98" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF98" t="n">
         <v>29</v>
@@ -14593,10 +14601,10 @@
         <v>4.33</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R99" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
@@ -14607,7 +14615,7 @@
         <v>1.44</v>
       </c>
       <c r="W99" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="X99" t="n">
         <v>3.4</v>
@@ -14734,21 +14742,21 @@
         <v>3.75</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R100" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V100" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W100" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X100" t="n">
         <v>2.75</v>
@@ -15007,31 +15015,31 @@
         <v>1.03</v>
       </c>
       <c r="N102" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O102" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P102" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R102" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S102" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="T102" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="U102" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V102" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W102" t="n">
         <v>1.3</v>
@@ -15298,10 +15306,10 @@
         <v>12</v>
       </c>
       <c r="M104" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N104" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O104" t="n">
         <v>1.29</v>
@@ -15447,10 +15455,10 @@
         <v>3</v>
       </c>
       <c r="M105" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N105" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O105" t="n">
         <v>1.3</v>
@@ -15479,10 +15487,10 @@
         <v>2.75</v>
       </c>
       <c r="Y105" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z105" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA105" t="n">
         <v>9.5</v>
@@ -15515,7 +15523,7 @@
         <v>51</v>
       </c>
       <c r="AK105" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL105" t="n">
         <v>8</v>
@@ -15614,22 +15622,22 @@
         <v>1.33</v>
       </c>
       <c r="W106" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X106" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y106" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z106" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA106" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AB106" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC106" t="n">
         <v>9</v>
@@ -15641,37 +15649,37 @@
         <v>15</v>
       </c>
       <c r="AF106" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG106" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH106" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI106" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ106" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK106" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL106" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM106" t="n">
         <v>19</v>
       </c>
       <c r="AN106" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO106" t="n">
         <v>41</v>
       </c>
       <c r="AP106" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ106" t="n">
         <v>34</v>
@@ -15993,22 +16001,22 @@
         </is>
       </c>
       <c r="G109" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H109" t="n">
         <v>3.4</v>
       </c>
-      <c r="H109" t="n">
-        <v>3.5</v>
-      </c>
       <c r="I109" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J109" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K109" t="n">
         <v>2.2</v>
       </c>
       <c r="L109" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M109" t="n">
         <v>1.05</v>
@@ -16043,22 +16051,22 @@
         <v>3</v>
       </c>
       <c r="Y109" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Z109" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA109" t="n">
         <v>11</v>
       </c>
       <c r="AB109" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC109" t="n">
         <v>12</v>
       </c>
       <c r="AD109" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE109" t="n">
         <v>26</v>
@@ -16067,10 +16075,10 @@
         <v>34</v>
       </c>
       <c r="AG109" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH109" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI109" t="n">
         <v>13</v>
@@ -16085,19 +16093,19 @@
         <v>8.5</v>
       </c>
       <c r="AM109" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN109" t="n">
         <v>9</v>
       </c>
       <c r="AO109" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP109" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ109" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR109" t="inlineStr"/>
       <c r="AS109" t="inlineStr"/>
@@ -16134,22 +16142,22 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="H110" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I110" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="J110" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K110" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L110" t="n">
-        <v>2.77</v>
+        <v>2.62</v>
       </c>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr"/>
@@ -16160,7 +16168,7 @@
         <v>3.3</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R110" t="n">
         <v>1.9</v>
@@ -16168,7 +16176,7 @@
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="V110" t="n">
         <v>1.36</v>
@@ -16176,58 +16184,58 @@
       <c r="W110" t="inlineStr"/>
       <c r="X110" t="inlineStr"/>
       <c r="Y110" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Z110" t="n">
         <v>2.05</v>
       </c>
       <c r="AA110" t="n">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="AB110" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AC110" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD110" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AE110" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF110" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG110" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH110" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AI110" t="n">
         <v>13</v>
       </c>
       <c r="AJ110" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK110" t="n">
         <v>350</v>
       </c>
       <c r="AL110" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AM110" t="n">
-        <v>11.75</v>
+        <v>10.5</v>
       </c>
       <c r="AN110" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AO110" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AP110" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AQ110" t="n">
         <v>24</v>
@@ -16267,107 +16275,107 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="H111" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="I111" t="n">
-        <v>4.7</v>
+        <v>4.35</v>
       </c>
       <c r="J111" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="K111" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L111" t="n">
-        <v>4.9</v>
+        <v>4.65</v>
       </c>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P111" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R111" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="S111" t="inlineStr"/>
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="V111" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W111" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X111" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="Y111" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Z111" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="AA111" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AB111" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="AC111" t="n">
         <v>8</v>
       </c>
       <c r="AD111" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AE111" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF111" t="n">
         <v>26</v>
       </c>
       <c r="AG111" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AH111" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="AI111" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ111" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO111" t="n">
         <v>75</v>
       </c>
-      <c r="AK111" t="n">
-        <v>600</v>
-      </c>
-      <c r="AL111" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM111" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN111" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AO111" t="n">
-        <v>80</v>
-      </c>
       <c r="AP111" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ111" t="n">
         <v>45</v>
-      </c>
-      <c r="AQ111" t="n">
-        <v>50</v>
       </c>
       <c r="AR111" t="inlineStr"/>
       <c r="AS111" t="inlineStr"/>
@@ -16448,7 +16456,7 @@
         <v>1.29</v>
       </c>
       <c r="W112" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X112" t="n">
         <v>2.75</v>
@@ -16589,7 +16597,7 @@
         <v>1.44</v>
       </c>
       <c r="W113" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="X113" t="n">
         <v>3.4</v>
@@ -16730,7 +16738,7 @@
         <v>1.33</v>
       </c>
       <c r="W114" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X114" t="n">
         <v>2.75</v>
@@ -16871,10 +16879,10 @@
         <v>1.22</v>
       </c>
       <c r="W115" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X115" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y115" t="n">
         <v>1.83</v>
@@ -16968,28 +16976,28 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H116" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I116" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="J116" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K116" t="n">
         <v>2.05</v>
       </c>
       <c r="L116" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M116" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N116" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O116" t="n">
         <v>1.36</v>
@@ -17006,16 +17014,16 @@
       <c r="S116" t="inlineStr"/>
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V116" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W116" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="X116" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="Y116" t="n">
         <v>1.91</v>
@@ -17027,25 +17035,25 @@
         <v>6.5</v>
       </c>
       <c r="AB116" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AC116" t="n">
         <v>9</v>
       </c>
       <c r="AD116" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE116" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF116" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG116" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH116" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI116" t="n">
         <v>17</v>
@@ -17057,13 +17065,13 @@
         <v>351</v>
       </c>
       <c r="AL116" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM116" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN116" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO116" t="n">
         <v>41</v>
@@ -17130,7 +17138,7 @@
         <v>1.04</v>
       </c>
       <c r="N117" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O117" t="n">
         <v>1.22</v>
@@ -17139,21 +17147,21 @@
         <v>4</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R117" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V117" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W117" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X117" t="n">
         <v>3</v>
@@ -17250,13 +17258,13 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H118" t="n">
         <v>2.88</v>
       </c>
       <c r="I118" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J118" t="n">
         <v>3.2</v>
@@ -17268,10 +17276,10 @@
         <v>3.75</v>
       </c>
       <c r="M118" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N118" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O118" t="n">
         <v>1.4</v>
@@ -17280,21 +17288,21 @@
         <v>2.75</v>
       </c>
       <c r="Q118" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R118" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S118" t="inlineStr"/>
       <c r="T118" t="inlineStr"/>
       <c r="U118" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V118" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W118" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X118" t="n">
         <v>2.5</v>
@@ -17324,10 +17332,10 @@
         <v>34</v>
       </c>
       <c r="AG118" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH118" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI118" t="n">
         <v>15</v>
@@ -17351,7 +17359,7 @@
         <v>34</v>
       </c>
       <c r="AP118" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ118" t="n">
         <v>41</v>
@@ -17391,22 +17399,22 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H119" t="n">
         <v>3</v>
       </c>
       <c r="I119" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J119" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K119" t="n">
         <v>1.95</v>
       </c>
       <c r="L119" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M119" t="n">
         <v>1.1</v>
@@ -17447,10 +17455,10 @@
         <v>1.75</v>
       </c>
       <c r="AA119" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB119" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC119" t="n">
         <v>12</v>
@@ -17480,10 +17488,10 @@
         <v>451</v>
       </c>
       <c r="AL119" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM119" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN119" t="n">
         <v>10</v>
@@ -17492,7 +17500,7 @@
         <v>23</v>
       </c>
       <c r="AP119" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ119" t="n">
         <v>41</v>
@@ -17536,19 +17544,19 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H120" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I120" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J120" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K120" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L120" t="n">
         <v>5.5</v>
@@ -17590,10 +17598,10 @@
         <v>3.4</v>
       </c>
       <c r="Y120" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Z120" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AA120" t="n">
         <v>8.5</v>
@@ -17608,7 +17616,7 @@
         <v>11</v>
       </c>
       <c r="AE120" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF120" t="n">
         <v>21</v>
@@ -17626,7 +17634,7 @@
         <v>41</v>
       </c>
       <c r="AK120" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL120" t="n">
         <v>19</v>
@@ -17681,13 +17689,13 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H121" t="n">
         <v>2.9</v>
       </c>
       <c r="I121" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J121" t="n">
         <v>3.4</v>
@@ -17696,7 +17704,7 @@
         <v>1.95</v>
       </c>
       <c r="L121" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M121" t="n">
         <v>1.1</v>
@@ -17731,10 +17739,10 @@
         <v>2.38</v>
       </c>
       <c r="Y121" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z121" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA121" t="n">
         <v>7</v>
@@ -17776,7 +17784,7 @@
         <v>13</v>
       </c>
       <c r="AN121" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO121" t="n">
         <v>29</v>
@@ -18132,10 +18140,10 @@
         <v>10</v>
       </c>
       <c r="O124" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P124" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q124" t="n">
         <v>2.05</v>
@@ -18146,10 +18154,10 @@
       <c r="S124" t="inlineStr"/>
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V124" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W124" t="n">
         <v>1.44</v>
@@ -18556,7 +18564,7 @@
         <v>1.06</v>
       </c>
       <c r="N127" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O127" t="n">
         <v>1.33</v>
@@ -18988,18 +18996,18 @@
         <v>3.4</v>
       </c>
       <c r="Q130" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R130" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S130" t="inlineStr"/>
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V130" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W130" t="n">
         <v>1.4</v>
@@ -19399,22 +19407,22 @@
         <v>4</v>
       </c>
       <c r="M133" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N133" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O133" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P133" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q133" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R133" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S133" t="inlineStr"/>
       <c r="T133" t="inlineStr"/>
@@ -19804,13 +19812,13 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H136" t="n">
         <v>3.6</v>
       </c>
       <c r="I136" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J136" t="n">
         <v>2.5</v>
@@ -19858,10 +19866,10 @@
         <v>3.4</v>
       </c>
       <c r="Y136" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z136" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA136" t="n">
         <v>10</v>
@@ -19885,13 +19893,13 @@
         <v>15</v>
       </c>
       <c r="AH136" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI136" t="n">
         <v>12</v>
       </c>
       <c r="AJ136" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK136" t="n">
         <v>126</v>
@@ -19909,7 +19917,7 @@
         <v>41</v>
       </c>
       <c r="AP136" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ136" t="n">
         <v>29</v>
@@ -19949,16 +19957,16 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H137" t="n">
         <v>4.5</v>
       </c>
       <c r="I137" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J137" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K137" t="n">
         <v>2.4</v>
@@ -19999,10 +20007,10 @@
         <v>3.4</v>
       </c>
       <c r="Y137" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z137" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA137" t="n">
         <v>8</v>
@@ -20014,7 +20022,7 @@
         <v>8.5</v>
       </c>
       <c r="AD137" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE137" t="n">
         <v>12</v>
@@ -20044,7 +20052,7 @@
         <v>29</v>
       </c>
       <c r="AN137" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO137" t="n">
         <v>51</v>
@@ -20090,22 +20098,22 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H138" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I138" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J138" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K138" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="L138" t="n">
         <v>4.5</v>
-      </c>
-      <c r="J138" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K138" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L138" t="n">
-        <v>4.75</v>
       </c>
       <c r="M138" t="n">
         <v>1.03</v>
@@ -20120,16 +20128,16 @@
         <v>4.5</v>
       </c>
       <c r="Q138" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R138" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S138" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T138" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U138" t="n">
         <v>2.5</v>
@@ -20159,7 +20167,7 @@
         <v>8.5</v>
       </c>
       <c r="AD138" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE138" t="n">
         <v>13</v>
@@ -20186,16 +20194,16 @@
         <v>15</v>
       </c>
       <c r="AM138" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN138" t="n">
         <v>15</v>
       </c>
       <c r="AO138" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP138" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ138" t="n">
         <v>34</v>
@@ -20265,18 +20273,18 @@
         <v>3.75</v>
       </c>
       <c r="Q139" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R139" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S139" t="inlineStr"/>
       <c r="T139" t="inlineStr"/>
       <c r="U139" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V139" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W139" t="n">
         <v>1.36</v>
@@ -20453,7 +20461,7 @@
         <v>9</v>
       </c>
       <c r="AH140" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI140" t="n">
         <v>17</v>
@@ -20477,7 +20485,7 @@
         <v>41</v>
       </c>
       <c r="AP140" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ140" t="n">
         <v>41</v>
@@ -20517,10 +20525,10 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H141" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I141" t="n">
         <v>2.9</v>
@@ -20658,91 +20666,95 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="H142" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I142" t="n">
         <v>3.35</v>
       </c>
-      <c r="I142" t="n">
-        <v>3.3</v>
-      </c>
       <c r="J142" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="K142" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="L142" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P142" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q142" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R142" t="n">
         <v>1.75</v>
-      </c>
-      <c r="R142" t="n">
-        <v>1.85</v>
       </c>
       <c r="S142" t="inlineStr"/>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="n">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="V142" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="W142" t="inlineStr"/>
-      <c r="X142" t="inlineStr"/>
+        <v>1.3</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X142" t="n">
+        <v>2.5</v>
+      </c>
       <c r="Y142" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="Z142" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="AA142" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AB142" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AC142" t="n">
         <v>8.5</v>
       </c>
       <c r="AD142" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE142" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF142" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG142" t="n">
-        <v>10.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH142" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AI142" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ142" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK142" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AL142" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AM142" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AN142" t="n">
         <v>11.5</v>
@@ -20751,7 +20763,7 @@
         <v>45</v>
       </c>
       <c r="AP142" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ142" t="n">
         <v>35</v>
@@ -20790,45 +20802,119 @@
           <t>Olympique de Safi</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
-      <c r="N143" t="inlineStr"/>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
+      <c r="G143" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H143" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I143" t="n">
+        <v>3</v>
+      </c>
+      <c r="J143" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K143" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L143" t="n">
+        <v>4</v>
+      </c>
+      <c r="M143" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N143" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O143" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P143" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R143" t="n">
+        <v>1.5</v>
+      </c>
       <c r="S143" t="inlineStr"/>
       <c r="T143" t="inlineStr"/>
-      <c r="U143" t="inlineStr"/>
-      <c r="V143" t="inlineStr"/>
-      <c r="W143" t="inlineStr"/>
-      <c r="X143" t="inlineStr"/>
-      <c r="Y143" t="inlineStr"/>
-      <c r="Z143" t="inlineStr"/>
-      <c r="AA143" t="inlineStr"/>
-      <c r="AB143" t="inlineStr"/>
-      <c r="AC143" t="inlineStr"/>
-      <c r="AD143" t="inlineStr"/>
-      <c r="AE143" t="inlineStr"/>
-      <c r="AF143" t="inlineStr"/>
-      <c r="AG143" t="inlineStr"/>
-      <c r="AH143" t="inlineStr"/>
-      <c r="AI143" t="inlineStr"/>
-      <c r="AJ143" t="inlineStr"/>
-      <c r="AK143" t="inlineStr"/>
-      <c r="AL143" t="inlineStr"/>
-      <c r="AM143" t="inlineStr"/>
-      <c r="AN143" t="inlineStr"/>
-      <c r="AO143" t="inlineStr"/>
-      <c r="AP143" t="inlineStr"/>
-      <c r="AQ143" t="inlineStr"/>
-      <c r="AR143" t="inlineStr"/>
-      <c r="AS143" t="inlineStr"/>
+      <c r="U143" t="n">
+        <v>5</v>
+      </c>
+      <c r="V143" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X143" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>301</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>1.93</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -20861,45 +20947,119 @@
           <t>FAR Rabat</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="inlineStr"/>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
+      <c r="G144" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H144" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I144" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J144" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K144" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L144" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M144" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N144" t="n">
+        <v>7</v>
+      </c>
+      <c r="O144" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P144" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R144" t="n">
+        <v>1.53</v>
+      </c>
       <c r="S144" t="inlineStr"/>
       <c r="T144" t="inlineStr"/>
-      <c r="U144" t="inlineStr"/>
-      <c r="V144" t="inlineStr"/>
-      <c r="W144" t="inlineStr"/>
-      <c r="X144" t="inlineStr"/>
-      <c r="Y144" t="inlineStr"/>
-      <c r="Z144" t="inlineStr"/>
-      <c r="AA144" t="inlineStr"/>
-      <c r="AB144" t="inlineStr"/>
-      <c r="AC144" t="inlineStr"/>
-      <c r="AD144" t="inlineStr"/>
-      <c r="AE144" t="inlineStr"/>
-      <c r="AF144" t="inlineStr"/>
-      <c r="AG144" t="inlineStr"/>
-      <c r="AH144" t="inlineStr"/>
-      <c r="AI144" t="inlineStr"/>
-      <c r="AJ144" t="inlineStr"/>
-      <c r="AK144" t="inlineStr"/>
-      <c r="AL144" t="inlineStr"/>
-      <c r="AM144" t="inlineStr"/>
-      <c r="AN144" t="inlineStr"/>
-      <c r="AO144" t="inlineStr"/>
-      <c r="AP144" t="inlineStr"/>
-      <c r="AQ144" t="inlineStr"/>
-      <c r="AR144" t="inlineStr"/>
-      <c r="AS144" t="inlineStr"/>
+      <c r="U144" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="V144" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X144" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -20932,45 +21092,119 @@
           <t>Jeunesse Sportive Soualem</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="inlineStr"/>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
+      <c r="G145" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H145" t="n">
+        <v>4</v>
+      </c>
+      <c r="I145" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J145" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K145" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L145" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M145" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N145" t="n">
+        <v>9</v>
+      </c>
+      <c r="O145" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P145" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R145" t="n">
+        <v>1.7</v>
+      </c>
       <c r="S145" t="inlineStr"/>
       <c r="T145" t="inlineStr"/>
-      <c r="U145" t="inlineStr"/>
-      <c r="V145" t="inlineStr"/>
-      <c r="W145" t="inlineStr"/>
-      <c r="X145" t="inlineStr"/>
-      <c r="Y145" t="inlineStr"/>
-      <c r="Z145" t="inlineStr"/>
-      <c r="AA145" t="inlineStr"/>
-      <c r="AB145" t="inlineStr"/>
-      <c r="AC145" t="inlineStr"/>
-      <c r="AD145" t="inlineStr"/>
-      <c r="AE145" t="inlineStr"/>
-      <c r="AF145" t="inlineStr"/>
-      <c r="AG145" t="inlineStr"/>
-      <c r="AH145" t="inlineStr"/>
-      <c r="AI145" t="inlineStr"/>
-      <c r="AJ145" t="inlineStr"/>
-      <c r="AK145" t="inlineStr"/>
-      <c r="AL145" t="inlineStr"/>
-      <c r="AM145" t="inlineStr"/>
-      <c r="AN145" t="inlineStr"/>
-      <c r="AO145" t="inlineStr"/>
-      <c r="AP145" t="inlineStr"/>
-      <c r="AQ145" t="inlineStr"/>
-      <c r="AR145" t="inlineStr"/>
-      <c r="AS145" t="inlineStr"/>
+      <c r="U145" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V145" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X145" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>67</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -21004,16 +21238,16 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H146" t="n">
         <v>3.75</v>
       </c>
       <c r="I146" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J146" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K146" t="n">
         <v>2.4</v>
@@ -21070,16 +21304,16 @@
         <v>17</v>
       </c>
       <c r="AC146" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD146" t="n">
         <v>29</v>
       </c>
       <c r="AE146" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF146" t="n">
         <v>21</v>
-      </c>
-      <c r="AF146" t="n">
-        <v>23</v>
       </c>
       <c r="AG146" t="n">
         <v>17</v>
@@ -21100,10 +21334,10 @@
         <v>12</v>
       </c>
       <c r="AM146" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN146" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO146" t="n">
         <v>23</v>
@@ -21179,18 +21413,18 @@
         <v>2.63</v>
       </c>
       <c r="Q147" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R147" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V147" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W147" t="n">
         <v>1.53</v>
@@ -21256,10 +21490,10 @@
         <v>41</v>
       </c>
       <c r="AR147" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="148">
@@ -21453,10 +21687,10 @@
         <v>6</v>
       </c>
       <c r="M149" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N149" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O149" t="n">
         <v>1.33</v>
@@ -21584,10 +21818,10 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H150" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I150" t="n">
         <v>1.91</v>
@@ -21644,10 +21878,10 @@
         <v>1.53</v>
       </c>
       <c r="AA150" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB150" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC150" t="n">
         <v>15</v>
@@ -21671,7 +21905,7 @@
         <v>23</v>
       </c>
       <c r="AJ150" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK150" t="n">
         <v>101</v>
@@ -21736,10 +21970,10 @@
         <v>1.2</v>
       </c>
       <c r="H151" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="I151" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J151" t="n">
         <v>1.62</v>
@@ -21799,7 +22033,7 @@
         <v>5.5</v>
       </c>
       <c r="AC151" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD151" t="n">
         <v>6.5</v>
@@ -21826,7 +22060,7 @@
         <v>900</v>
       </c>
       <c r="AL151" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM151" t="n">
         <v>67</v>
@@ -22047,16 +22281,16 @@
         <v>11</v>
       </c>
       <c r="O153" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P153" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q153" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R153" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S153" t="inlineStr"/>
       <c r="T153" t="inlineStr"/>
@@ -22194,16 +22428,16 @@
         <v>4.5</v>
       </c>
       <c r="Q154" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R154" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S154" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T154" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U154" t="n">
         <v>2.5</v>
@@ -22309,22 +22543,22 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="H155" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I155" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="J155" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="K155" t="n">
         <v>2.1</v>
       </c>
       <c r="L155" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="M155" t="n">
         <v>1.05</v>
@@ -22339,10 +22573,10 @@
         <v>3.25</v>
       </c>
       <c r="Q155" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R155" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S155" t="inlineStr"/>
       <c r="T155" t="inlineStr"/>
@@ -22365,19 +22599,19 @@
         <v>1.83</v>
       </c>
       <c r="AA155" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB155" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC155" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD155" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE155" t="n">
         <v>41</v>
-      </c>
-      <c r="AE155" t="n">
-        <v>34</v>
       </c>
       <c r="AF155" t="n">
         <v>41</v>
@@ -22386,13 +22620,13 @@
         <v>9.5</v>
       </c>
       <c r="AH155" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI155" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ155" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK155" t="n">
         <v>351</v>
@@ -22401,16 +22635,16 @@
         <v>6.5</v>
       </c>
       <c r="AM155" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AN155" t="n">
         <v>9</v>
       </c>
       <c r="AO155" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AP155" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ155" t="n">
         <v>29</v>
@@ -22843,10 +23077,10 @@
         <v>41</v>
       </c>
       <c r="AR158" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="159">
@@ -23731,7 +23965,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H165" t="n">
         <v>3.25</v>
@@ -23787,7 +24021,7 @@
         <v>1.8</v>
       </c>
       <c r="AA165" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB165" t="n">
         <v>11</v>
@@ -23796,7 +24030,7 @@
         <v>10</v>
       </c>
       <c r="AD165" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE165" t="n">
         <v>21</v>
@@ -24175,13 +24409,13 @@
         <v>1.02</v>
       </c>
       <c r="N168" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O168" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P168" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q168" t="n">
         <v>1.4</v>
@@ -24204,13 +24438,13 @@
         <v>4</v>
       </c>
       <c r="Y168" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Z168" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AA168" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB168" t="n">
         <v>7</v>
@@ -24222,13 +24456,13 @@
         <v>7.5</v>
       </c>
       <c r="AE168" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF168" t="n">
         <v>26</v>
       </c>
       <c r="AG168" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH168" t="n">
         <v>13</v>
@@ -24249,7 +24483,7 @@
         <v>67</v>
       </c>
       <c r="AN168" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO168" t="n">
         <v>201</v>
@@ -24722,28 +24956,28 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H172" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I172" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J172" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K172" t="n">
         <v>2.2</v>
       </c>
       <c r="L172" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M172" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N172" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O172" t="n">
         <v>1.25</v>
@@ -24752,10 +24986,10 @@
         <v>3.75</v>
       </c>
       <c r="Q172" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R172" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="S172" t="inlineStr"/>
       <c r="T172" t="inlineStr"/>
@@ -24781,7 +25015,7 @@
         <v>8</v>
       </c>
       <c r="AB172" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC172" t="n">
         <v>9</v>
@@ -24793,7 +25027,7 @@
         <v>15</v>
       </c>
       <c r="AF172" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG172" t="n">
         <v>11</v>
@@ -24808,25 +25042,25 @@
         <v>41</v>
       </c>
       <c r="AK172" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AL172" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM172" t="n">
         <v>21</v>
       </c>
       <c r="AN172" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO172" t="n">
         <v>41</v>
       </c>
       <c r="AP172" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ172" t="n">
         <v>34</v>
-      </c>
-      <c r="AQ172" t="n">
-        <v>41</v>
       </c>
       <c r="AR172" t="inlineStr"/>
       <c r="AS172" t="inlineStr"/>
@@ -24863,16 +25097,16 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H173" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I173" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J173" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K173" t="n">
         <v>2</v>
@@ -24893,10 +25127,10 @@
         <v>2.75</v>
       </c>
       <c r="Q173" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R173" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S173" t="inlineStr"/>
       <c r="T173" t="inlineStr"/>
@@ -24913,10 +25147,10 @@
         <v>2.5</v>
       </c>
       <c r="Y173" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z173" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA173" t="n">
         <v>5.5</v>
@@ -24928,22 +25162,22 @@
         <v>9.5</v>
       </c>
       <c r="AD173" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE173" t="n">
         <v>17</v>
       </c>
       <c r="AF173" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG173" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH173" t="n">
         <v>7.5</v>
       </c>
       <c r="AI173" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ173" t="n">
         <v>81</v>
@@ -24952,13 +25186,13 @@
         <v>1250</v>
       </c>
       <c r="AL173" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM173" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN173" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO173" t="n">
         <v>51</v>
@@ -25286,48 +25520,48 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H176" t="n">
         <v>3.3</v>
       </c>
       <c r="I176" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K176" t="n">
+        <v>2</v>
+      </c>
+      <c r="L176" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M176" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N176" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O176" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P176" t="n">
         <v>3</v>
       </c>
-      <c r="J176" t="n">
-        <v>3</v>
-      </c>
-      <c r="K176" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L176" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M176" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N176" t="n">
-        <v>8</v>
-      </c>
-      <c r="O176" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P176" t="n">
-        <v>3.25</v>
-      </c>
       <c r="Q176" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R176" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S176" t="inlineStr"/>
       <c r="T176" t="inlineStr"/>
       <c r="U176" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V176" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W176" t="n">
         <v>1.44</v>
@@ -25342,13 +25576,13 @@
         <v>1.83</v>
       </c>
       <c r="AA176" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB176" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC176" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD176" t="n">
         <v>21</v>
@@ -25357,16 +25591,16 @@
         <v>19</v>
       </c>
       <c r="AF176" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG176" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH176" t="n">
         <v>6.5</v>
       </c>
       <c r="AI176" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ176" t="n">
         <v>51</v>
@@ -25384,13 +25618,13 @@
         <v>12</v>
       </c>
       <c r="AO176" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP176" t="n">
         <v>26</v>
       </c>
       <c r="AQ176" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR176" t="inlineStr"/>
       <c r="AS176" t="inlineStr"/>
@@ -25568,13 +25802,13 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="H178" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I178" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="J178" t="n">
         <v>2.05</v>
@@ -25583,7 +25817,7 @@
         <v>2.27</v>
       </c>
       <c r="L178" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="M178" t="n">
         <v>1.05</v>
@@ -25606,7 +25840,7 @@
       <c r="S178" t="inlineStr"/>
       <c r="T178" t="inlineStr"/>
       <c r="U178" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="V178" t="n">
         <v>1.36</v>
@@ -25624,10 +25858,10 @@
         <v>1.8</v>
       </c>
       <c r="AA178" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AB178" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AC178" t="n">
         <v>8.25</v>
@@ -25657,19 +25891,19 @@
         <v>700</v>
       </c>
       <c r="AL178" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AM178" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN178" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO178" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AP178" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AQ178" t="n">
         <v>60</v>
@@ -25991,28 +26225,28 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="H181" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I181" t="n">
-        <v>4.55</v>
+        <v>5.2</v>
       </c>
       <c r="J181" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="K181" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L181" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="M181" t="n">
         <v>1.07</v>
       </c>
       <c r="N181" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="O181" t="n">
         <v>1.32</v>
@@ -26021,81 +26255,81 @@
         <v>3.2</v>
       </c>
       <c r="Q181" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R181" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S181" t="inlineStr"/>
       <c r="T181" t="inlineStr"/>
       <c r="U181" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="V181" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W181" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X181" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="Y181" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="Z181" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="AA181" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB181" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AC181" t="n">
         <v>8.5</v>
       </c>
-      <c r="AC181" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AD181" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AE181" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF181" t="n">
         <v>30</v>
       </c>
       <c r="AG181" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH181" t="n">
         <v>7.5</v>
       </c>
-      <c r="AH181" t="n">
-        <v>7</v>
-      </c>
       <c r="AI181" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AJ181" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AK181" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AL181" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AM181" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AN181" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AO181" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AP181" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AQ181" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AR181" t="inlineStr"/>
       <c r="AS181" t="inlineStr"/>
@@ -26576,7 +26810,7 @@
         <v>1.07</v>
       </c>
       <c r="N185" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O185" t="n">
         <v>1.36</v>
@@ -26711,7 +26945,7 @@
         <v>2.05</v>
       </c>
       <c r="L186" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="M186" t="n">
         <v>1.06</v>
@@ -26846,7 +27080,7 @@
         <v>3.4</v>
       </c>
       <c r="J187" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K187" t="n">
         <v>2.05</v>
@@ -26981,13 +27215,13 @@
         <v>2</v>
       </c>
       <c r="H188" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I188" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="J188" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K188" t="n">
         <v>2.1</v>
@@ -26999,7 +27233,7 @@
         <v>1.06</v>
       </c>
       <c r="N188" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O188" t="n">
         <v>1.3</v>
@@ -27008,33 +27242,33 @@
         <v>3.4</v>
       </c>
       <c r="Q188" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R188" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S188" t="inlineStr"/>
       <c r="T188" t="inlineStr"/>
       <c r="U188" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V188" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W188" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X188" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y188" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z188" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA188" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB188" t="n">
         <v>9.5</v>
@@ -27067,7 +27301,7 @@
         <v>251</v>
       </c>
       <c r="AL188" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM188" t="n">
         <v>19</v>
@@ -27119,22 +27353,22 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H189" t="n">
         <v>3.1</v>
       </c>
       <c r="I189" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J189" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K189" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L189" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="M189" t="n">
         <v>1.11</v>
@@ -27169,10 +27403,10 @@
         <v>2.25</v>
       </c>
       <c r="Y189" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z189" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA189" t="n">
         <v>8.5</v>
@@ -27187,10 +27421,10 @@
         <v>41</v>
       </c>
       <c r="AE189" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF189" t="n">
         <v>41</v>
-      </c>
-      <c r="AF189" t="n">
-        <v>51</v>
       </c>
       <c r="AG189" t="n">
         <v>6.5</v>
@@ -27302,10 +27536,10 @@
       <c r="S190" t="inlineStr"/>
       <c r="T190" t="inlineStr"/>
       <c r="U190" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V190" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W190" t="n">
         <v>1.44</v>
@@ -28396,22 +28630,22 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H198" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I198" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="J198" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="K198" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L198" t="n">
-        <v>3.85</v>
+        <v>4.05</v>
       </c>
       <c r="M198" t="n">
         <v>1.04</v>
@@ -28420,51 +28654,51 @@
         <v>8.25</v>
       </c>
       <c r="O198" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P198" t="n">
         <v>3.8</v>
       </c>
       <c r="Q198" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R198" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S198" t="inlineStr"/>
       <c r="T198" t="inlineStr"/>
       <c r="U198" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="V198" t="n">
         <v>1.44</v>
       </c>
       <c r="W198" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="X198" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="Y198" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Z198" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="AA198" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB198" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AC198" t="n">
         <v>8.25</v>
       </c>
       <c r="AD198" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AE198" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF198" t="n">
         <v>22</v>
@@ -28473,10 +28707,10 @@
         <v>8.25</v>
       </c>
       <c r="AH198" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AI198" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ198" t="n">
         <v>50</v>
@@ -28485,22 +28719,22 @@
         <v>300</v>
       </c>
       <c r="AL198" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN198" t="n">
         <v>12.5</v>
       </c>
-      <c r="AM198" t="n">
-        <v>20</v>
-      </c>
-      <c r="AN198" t="n">
-        <v>11.75</v>
-      </c>
       <c r="AO198" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AP198" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AQ198" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AR198" t="inlineStr"/>
       <c r="AS198" t="inlineStr"/>
@@ -28540,7 +28774,7 @@
         <v>2.8</v>
       </c>
       <c r="H199" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="I199" t="n">
         <v>2.85</v>
@@ -28549,16 +28783,16 @@
         <v>3.3</v>
       </c>
       <c r="K199" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="L199" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="M199" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N199" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="O199" t="n">
         <v>1.37</v>
@@ -28587,13 +28821,13 @@
         <v>2.67</v>
       </c>
       <c r="Y199" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Z199" t="n">
         <v>2.02</v>
       </c>
       <c r="AA199" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB199" t="n">
         <v>14.5</v>
@@ -28608,16 +28842,16 @@
         <v>25</v>
       </c>
       <c r="AF199" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG199" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AH199" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AI199" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AJ199" t="n">
         <v>55</v>
@@ -28641,7 +28875,7 @@
         <v>25</v>
       </c>
       <c r="AQ199" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AR199" t="inlineStr"/>
       <c r="AS199" t="inlineStr"/>
@@ -28708,18 +28942,18 @@
         <v>3.75</v>
       </c>
       <c r="Q200" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R200" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S200" t="inlineStr"/>
       <c r="T200" t="inlineStr"/>
       <c r="U200" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V200" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W200" t="n">
         <v>1.36</v>
@@ -28963,16 +29197,16 @@
         <v>1.8</v>
       </c>
       <c r="H202" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I202" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J202" t="n">
         <v>2.4</v>
       </c>
       <c r="K202" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L202" t="n">
         <v>4</v>
@@ -28990,10 +29224,10 @@
         <v>5</v>
       </c>
       <c r="Q202" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R202" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S202" t="n">
         <v>1.98</v>
@@ -29008,10 +29242,10 @@
         <v>1.53</v>
       </c>
       <c r="W202" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X202" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y202" t="n">
         <v>1.53</v>
@@ -29041,7 +29275,7 @@
         <v>15</v>
       </c>
       <c r="AH202" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI202" t="n">
         <v>12</v>
@@ -29053,13 +29287,13 @@
         <v>126</v>
       </c>
       <c r="AL202" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM202" t="n">
         <v>23</v>
       </c>
       <c r="AN202" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO202" t="n">
         <v>41</v>
@@ -29176,16 +29410,16 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="H204" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I204" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J204" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K204" t="n">
         <v>2.1</v>
@@ -29194,10 +29428,10 @@
         <v>5.5</v>
       </c>
       <c r="M204" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N204" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O204" t="n">
         <v>1.33</v>
@@ -29206,10 +29440,10 @@
         <v>3.25</v>
       </c>
       <c r="Q204" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R204" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S204" t="inlineStr"/>
       <c r="T204" t="inlineStr"/>
@@ -29220,10 +29454,10 @@
         <v>1.25</v>
       </c>
       <c r="W204" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X204" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y204" t="n">
         <v>2</v>
@@ -29235,13 +29469,13 @@
         <v>6</v>
       </c>
       <c r="AB204" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC204" t="n">
         <v>8.5</v>
       </c>
       <c r="AD204" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE204" t="n">
         <v>15</v>
@@ -29250,7 +29484,7 @@
         <v>29</v>
       </c>
       <c r="AG204" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH204" t="n">
         <v>7</v>
@@ -29265,10 +29499,10 @@
         <v>900</v>
       </c>
       <c r="AL204" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM204" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN204" t="n">
         <v>17</v>
@@ -29280,7 +29514,7 @@
         <v>41</v>
       </c>
       <c r="AQ204" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR204" t="inlineStr"/>
       <c r="AS204" t="inlineStr"/>
@@ -29361,7 +29595,7 @@
         <v>1.14</v>
       </c>
       <c r="W205" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="X205" t="n">
         <v>2.2</v>
@@ -29506,7 +29740,7 @@
         <v>1.29</v>
       </c>
       <c r="W206" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X206" t="n">
         <v>2.75</v>
@@ -29647,10 +29881,10 @@
         <v>1.17</v>
       </c>
       <c r="W207" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X207" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Y207" t="n">
         <v>2.1</v>
@@ -29747,43 +29981,113 @@
           <t>Dep. Tachira</t>
         </is>
       </c>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="inlineStr"/>
-      <c r="N208" t="inlineStr"/>
-      <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr"/>
-      <c r="Q208" t="inlineStr"/>
-      <c r="R208" t="inlineStr"/>
+      <c r="G208" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H208" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J208" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K208" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L208" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M208" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N208" t="n">
+        <v>6</v>
+      </c>
+      <c r="O208" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P208" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R208" t="n">
+        <v>1.52</v>
+      </c>
       <c r="S208" t="inlineStr"/>
       <c r="T208" t="inlineStr"/>
-      <c r="U208" t="inlineStr"/>
-      <c r="V208" t="inlineStr"/>
-      <c r="W208" t="inlineStr"/>
-      <c r="X208" t="inlineStr"/>
-      <c r="Y208" t="inlineStr"/>
-      <c r="Z208" t="inlineStr"/>
-      <c r="AA208" t="inlineStr"/>
-      <c r="AB208" t="inlineStr"/>
-      <c r="AC208" t="inlineStr"/>
-      <c r="AD208" t="inlineStr"/>
-      <c r="AE208" t="inlineStr"/>
-      <c r="AF208" t="inlineStr"/>
-      <c r="AG208" t="inlineStr"/>
-      <c r="AH208" t="inlineStr"/>
-      <c r="AI208" t="inlineStr"/>
-      <c r="AJ208" t="inlineStr"/>
-      <c r="AK208" t="inlineStr"/>
-      <c r="AL208" t="inlineStr"/>
-      <c r="AM208" t="inlineStr"/>
-      <c r="AN208" t="inlineStr"/>
-      <c r="AO208" t="inlineStr"/>
-      <c r="AP208" t="inlineStr"/>
-      <c r="AQ208" t="inlineStr"/>
+      <c r="U208" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V208" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X208" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>37</v>
+      </c>
       <c r="AR208" t="inlineStr"/>
       <c r="AS208" t="inlineStr"/>
     </row>
@@ -29818,43 +30122,109 @@
           <t>Yaracuyanos</t>
         </is>
       </c>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="G209" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H209" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="I209" t="n">
+        <v>10</v>
+      </c>
+      <c r="J209" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K209" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L209" t="n">
+        <v>8.5</v>
+      </c>
       <c r="M209" t="inlineStr"/>
       <c r="N209" t="inlineStr"/>
-      <c r="O209" t="inlineStr"/>
-      <c r="P209" t="inlineStr"/>
-      <c r="Q209" t="inlineStr"/>
-      <c r="R209" t="inlineStr"/>
+      <c r="O209" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P209" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R209" t="n">
+        <v>1.65</v>
+      </c>
       <c r="S209" t="inlineStr"/>
       <c r="T209" t="inlineStr"/>
-      <c r="U209" t="inlineStr"/>
-      <c r="V209" t="inlineStr"/>
-      <c r="W209" t="inlineStr"/>
-      <c r="X209" t="inlineStr"/>
-      <c r="Y209" t="inlineStr"/>
-      <c r="Z209" t="inlineStr"/>
-      <c r="AA209" t="inlineStr"/>
-      <c r="AB209" t="inlineStr"/>
-      <c r="AC209" t="inlineStr"/>
-      <c r="AD209" t="inlineStr"/>
-      <c r="AE209" t="inlineStr"/>
-      <c r="AF209" t="inlineStr"/>
-      <c r="AG209" t="inlineStr"/>
-      <c r="AH209" t="inlineStr"/>
-      <c r="AI209" t="inlineStr"/>
-      <c r="AJ209" t="inlineStr"/>
-      <c r="AK209" t="inlineStr"/>
-      <c r="AL209" t="inlineStr"/>
-      <c r="AM209" t="inlineStr"/>
-      <c r="AN209" t="inlineStr"/>
-      <c r="AO209" t="inlineStr"/>
-      <c r="AP209" t="inlineStr"/>
-      <c r="AQ209" t="inlineStr"/>
+      <c r="U209" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V209" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X209" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>200</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>350</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>175</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>150</v>
+      </c>
       <c r="AR209" t="inlineStr"/>
       <c r="AS209" t="inlineStr"/>
     </row>
@@ -29889,43 +30259,109 @@
           <t>Caracas</t>
         </is>
       </c>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="G210" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="H210" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I210" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J210" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K210" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="L210" t="n">
+        <v>3.7</v>
+      </c>
       <c r="M210" t="inlineStr"/>
       <c r="N210" t="inlineStr"/>
-      <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
-      <c r="Q210" t="inlineStr"/>
-      <c r="R210" t="inlineStr"/>
+      <c r="O210" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P210" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="R210" t="n">
+        <v>1.53</v>
+      </c>
       <c r="S210" t="inlineStr"/>
       <c r="T210" t="inlineStr"/>
-      <c r="U210" t="inlineStr"/>
-      <c r="V210" t="inlineStr"/>
-      <c r="W210" t="inlineStr"/>
-      <c r="X210" t="inlineStr"/>
-      <c r="Y210" t="inlineStr"/>
-      <c r="Z210" t="inlineStr"/>
-      <c r="AA210" t="inlineStr"/>
-      <c r="AB210" t="inlineStr"/>
-      <c r="AC210" t="inlineStr"/>
-      <c r="AD210" t="inlineStr"/>
-      <c r="AE210" t="inlineStr"/>
-      <c r="AF210" t="inlineStr"/>
-      <c r="AG210" t="inlineStr"/>
-      <c r="AH210" t="inlineStr"/>
-      <c r="AI210" t="inlineStr"/>
-      <c r="AJ210" t="inlineStr"/>
-      <c r="AK210" t="inlineStr"/>
-      <c r="AL210" t="inlineStr"/>
-      <c r="AM210" t="inlineStr"/>
-      <c r="AN210" t="inlineStr"/>
-      <c r="AO210" t="inlineStr"/>
-      <c r="AP210" t="inlineStr"/>
-      <c r="AQ210" t="inlineStr"/>
+      <c r="U210" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="V210" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X210" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>40</v>
+      </c>
       <c r="AR210" t="inlineStr"/>
       <c r="AS210" t="inlineStr"/>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-02-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-15.xlsx
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
         <v>7</v>
@@ -861,28 +861,28 @@
         <v>15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R3" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S3" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="T3" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
         <v>1.29</v>
@@ -891,13 +891,13 @@
         <v>3.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB3" t="n">
         <v>8.5</v>
@@ -918,7 +918,7 @@
         <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI3" t="n">
         <v>19</v>
@@ -930,7 +930,7 @@
         <v>251</v>
       </c>
       <c r="AL3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM3" t="n">
         <v>41</v>
@@ -988,7 +988,7 @@
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J4" t="n">
         <v>2.88</v>
@@ -1012,10 +1012,10 @@
         <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R4" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -1041,7 +1041,7 @@
         <v>8.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="n">
         <v>10</v>
@@ -1068,7 +1068,7 @@
         <v>51</v>
       </c>
       <c r="AK4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL4" t="n">
         <v>11</v>
@@ -1123,19 +1123,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H5" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J5" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L5" t="n">
         <v>3.6</v>
@@ -1144,42 +1144,42 @@
         <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O5" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="R5" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="V5" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="W5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
         <v>15</v>
@@ -1194,13 +1194,13 @@
         <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AH5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
         <v>13</v>
@@ -1209,13 +1209,13 @@
         <v>34</v>
       </c>
       <c r="AK5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN5" t="n">
         <v>13</v>
@@ -1224,10 +1224,10 @@
         <v>41</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
@@ -1282,10 +1282,10 @@
         <v>1.95</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O6" t="n">
         <v>1.14</v>
@@ -1409,7 +1409,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H7" t="n">
         <v>3.6</v>
@@ -1554,13 +1554,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
         <v>2.5</v>
@@ -1613,7 +1613,7 @@
         <v>6.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC8" t="n">
         <v>9.5</v>
@@ -1643,7 +1643,7 @@
         <v>501</v>
       </c>
       <c r="AL8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM8" t="n">
         <v>26</v>
@@ -1655,7 +1655,7 @@
         <v>51</v>
       </c>
       <c r="AP8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ8" t="n">
         <v>51</v>
@@ -1719,16 +1719,16 @@
         <v>21</v>
       </c>
       <c r="O9" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R9" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="S9" t="n">
         <v>1.82</v>
@@ -1743,10 +1743,10 @@
         <v>1.73</v>
       </c>
       <c r="W9" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Y9" t="n">
         <v>1.91</v>
@@ -1843,7 +1843,7 @@
         <v>1.53</v>
       </c>
       <c r="H10" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I10" t="n">
         <v>6</v>
@@ -1870,10 +1870,10 @@
         <v>4.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R10" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S10" t="n">
         <v>2.07</v>
@@ -1930,7 +1930,7 @@
         <v>41</v>
       </c>
       <c r="AK10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL10" t="n">
         <v>19</v>
@@ -1939,7 +1939,7 @@
         <v>34</v>
       </c>
       <c r="AN10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO10" t="n">
         <v>67</v>
@@ -2130,10 +2130,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H12" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I12" t="n">
         <v>1.67</v>
@@ -2166,10 +2166,10 @@
         <v>2.3</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="T12" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U12" t="n">
         <v>2.38</v>
@@ -2220,13 +2220,13 @@
         <v>41</v>
       </c>
       <c r="AK12" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL12" t="n">
         <v>9.5</v>
       </c>
       <c r="AM12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AN12" t="n">
         <v>8.5</v>
@@ -2275,34 +2275,34 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
         <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L13" t="n">
         <v>3.6</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q13" t="n">
         <v>2.2</v>
@@ -2319,25 +2319,25 @@
         <v>1.25</v>
       </c>
       <c r="W13" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X13" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AA13" t="n">
         <v>7.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD13" t="n">
         <v>23</v>
@@ -2361,13 +2361,13 @@
         <v>51</v>
       </c>
       <c r="AK13" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN13" t="n">
         <v>11</v>
@@ -2376,7 +2376,7 @@
         <v>29</v>
       </c>
       <c r="AP13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ13" t="n">
         <v>34</v>
@@ -2416,58 +2416,58 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="H14" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="J14" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="K14" t="n">
         <v>2.5</v>
       </c>
       <c r="L14" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O14" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P14" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R14" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S14" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="T14" t="n">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="U14" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W14" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X14" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y14" t="n">
         <v>1.53</v>
@@ -2476,7 +2476,7 @@
         <v>2.38</v>
       </c>
       <c r="AA14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB14" t="n">
         <v>10</v>
@@ -2485,7 +2485,7 @@
         <v>8.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
         <v>12</v>
@@ -2494,10 +2494,10 @@
         <v>19</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI14" t="n">
         <v>13</v>
@@ -2509,19 +2509,19 @@
         <v>126</v>
       </c>
       <c r="AL14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ14" t="n">
         <v>29</v>
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
         <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
         <v>2.3</v>
       </c>
       <c r="L16" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
@@ -2798,7 +2798,7 @@
         <v>10</v>
       </c>
       <c r="AM16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN16" t="n">
         <v>9</v>
@@ -2847,22 +2847,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H17" t="n">
         <v>4.75</v>
       </c>
       <c r="I17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K17" t="n">
         <v>2.5</v>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -2871,28 +2871,28 @@
         <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P17" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R17" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S17" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="T17" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="U17" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V17" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W17" t="n">
         <v>1.3</v>
@@ -2916,7 +2916,7 @@
         <v>8.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE17" t="n">
         <v>11</v>
@@ -2931,28 +2931,28 @@
         <v>9</v>
       </c>
       <c r="AI17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
         <v>51</v>
       </c>
       <c r="AK17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL17" t="n">
         <v>19</v>
       </c>
       <c r="AM17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN17" t="n">
         <v>21</v>
       </c>
       <c r="AO17" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ17" t="n">
         <v>41</v>
@@ -2998,13 +2998,13 @@
         <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J18" t="n">
         <v>3.25</v>
       </c>
       <c r="K18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L18" t="n">
         <v>3.4</v>
@@ -3016,10 +3016,10 @@
         <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P18" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q18" t="n">
         <v>2.1</v>
@@ -3030,10 +3030,10 @@
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W18" t="n">
         <v>1.44</v>
@@ -3048,7 +3048,7 @@
         <v>1.95</v>
       </c>
       <c r="AA18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB18" t="n">
         <v>12</v>
@@ -3063,7 +3063,7 @@
         <v>21</v>
       </c>
       <c r="AF18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG18" t="n">
         <v>9</v>
@@ -3072,7 +3072,7 @@
         <v>6</v>
       </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ18" t="n">
         <v>51</v>
@@ -3081,7 +3081,7 @@
         <v>251</v>
       </c>
       <c r="AL18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM18" t="n">
         <v>13</v>
@@ -3133,22 +3133,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="H19" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I19" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="J19" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K19" t="n">
         <v>2.6</v>
       </c>
       <c r="L19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
@@ -3169,10 +3169,10 @@
         <v>2.38</v>
       </c>
       <c r="S19" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="T19" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="U19" t="n">
         <v>2.38</v>
@@ -3187,22 +3187,22 @@
         <v>3.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AA19" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC19" t="n">
         <v>8.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE19" t="n">
         <v>11</v>
@@ -3214,28 +3214,28 @@
         <v>15</v>
       </c>
       <c r="AH19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ19" t="n">
         <v>51</v>
       </c>
       <c r="AK19" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM19" t="n">
         <v>41</v>
       </c>
       <c r="AN19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AP19" t="n">
         <v>51</v>
@@ -3308,10 +3308,10 @@
         <v>6.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R20" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -3437,34 +3437,34 @@
         <v>2.1</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O21" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P21" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R21" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="T21" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="U21" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V21" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W21" t="n">
         <v>1.3</v>
@@ -3582,10 +3582,10 @@
         <v>3.75</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
         <v>1.44</v>
@@ -3602,10 +3602,10 @@
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V22" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W22" t="n">
         <v>1.53</v>
@@ -3671,10 +3671,10 @@
         <v>41</v>
       </c>
       <c r="AR22" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="23">
@@ -3709,16 +3709,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H23" t="n">
         <v>2.9</v>
       </c>
       <c r="I23" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K23" t="n">
         <v>1.83</v>
@@ -3727,10 +3727,10 @@
         <v>3.4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N23" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O23" t="n">
         <v>1.62</v>
@@ -3759,10 +3759,10 @@
         <v>2.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA23" t="n">
         <v>7</v>
@@ -3774,7 +3774,7 @@
         <v>13</v>
       </c>
       <c r="AD23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE23" t="n">
         <v>34</v>
@@ -3798,7 +3798,7 @@
         <v>501</v>
       </c>
       <c r="AL23" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AM23" t="n">
         <v>10</v>
@@ -3854,28 +3854,28 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="H24" t="n">
         <v>4.2</v>
       </c>
       <c r="I24" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K24" t="n">
         <v>2.5</v>
       </c>
       <c r="L24" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O24" t="n">
         <v>1.17</v>
@@ -3890,10 +3890,10 @@
         <v>2.38</v>
       </c>
       <c r="S24" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T24" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="U24" t="n">
         <v>2.38</v>
@@ -3908,10 +3908,10 @@
         <v>3.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z24" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA24" t="n">
         <v>19</v>
@@ -3920,10 +3920,10 @@
         <v>34</v>
       </c>
       <c r="AC24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD24" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AE24" t="n">
         <v>41</v>
@@ -3935,7 +3935,7 @@
         <v>17</v>
       </c>
       <c r="AH24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI24" t="n">
         <v>15</v>
@@ -3950,7 +3950,7 @@
         <v>9</v>
       </c>
       <c r="AM24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN24" t="n">
         <v>8.5</v>
@@ -3959,7 +3959,7 @@
         <v>12</v>
       </c>
       <c r="AP24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ24" t="n">
         <v>21</v>
@@ -4029,10 +4029,10 @@
         <v>4</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="R25" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -4140,19 +4140,19 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H26" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I26" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J26" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K26" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L26" t="n">
         <v>5.5</v>
@@ -4164,24 +4164,24 @@
         <v>13</v>
       </c>
       <c r="O26" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P26" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R26" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W26" t="n">
         <v>1.33</v>
@@ -4205,7 +4205,7 @@
         <v>8.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
         <v>12</v>
@@ -4217,7 +4217,7 @@
         <v>13</v>
       </c>
       <c r="AH26" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="n">
         <v>17</v>
@@ -4281,13 +4281,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="H27" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J27" t="n">
         <v>6</v>
@@ -4305,16 +4305,16 @@
         <v>7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P27" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R27" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S27" t="n">
         <v>4.1</v>
@@ -4329,10 +4329,10 @@
         <v>1.17</v>
       </c>
       <c r="W27" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X27" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y27" t="n">
         <v>2.25</v>
@@ -4341,7 +4341,7 @@
         <v>1.57</v>
       </c>
       <c r="AA27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB27" t="n">
         <v>23</v>
@@ -4353,7 +4353,7 @@
         <v>51</v>
       </c>
       <c r="AE27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AF27" t="n">
         <v>51</v>
@@ -4365,7 +4365,7 @@
         <v>7</v>
       </c>
       <c r="AI27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
         <v>81</v>
@@ -4392,10 +4392,10 @@
         <v>41</v>
       </c>
       <c r="AR27" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="28">
@@ -4430,13 +4430,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H28" t="n">
         <v>3.4</v>
       </c>
       <c r="I28" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
         <v>2.38</v>
@@ -4445,7 +4445,7 @@
         <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M28" t="n">
         <v>1.08</v>
@@ -4460,16 +4460,16 @@
         <v>2.63</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R28" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S28" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T28" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="U28" t="n">
         <v>4.5</v>
@@ -4484,13 +4484,13 @@
         <v>2.38</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA28" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB28" t="n">
         <v>6.5</v>
@@ -4764,7 +4764,7 @@
         <v>1.4</v>
       </c>
       <c r="S30" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="T30" t="n">
         <v>1.18</v>
@@ -4913,10 +4913,10 @@
         <v>1.67</v>
       </c>
       <c r="S31" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T31" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="U31" t="n">
         <v>4</v>
@@ -5044,10 +5044,10 @@
         <v>4.33</v>
       </c>
       <c r="M32" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="N32" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="O32" t="n">
         <v>1.83</v>
@@ -5064,16 +5064,16 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V32" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W32" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X32" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="Y32" t="n">
         <v>2.75</v>
@@ -5167,13 +5167,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H33" t="n">
         <v>2.8</v>
       </c>
       <c r="I33" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J33" t="n">
         <v>4.33</v>
@@ -5197,24 +5197,24 @@
         <v>2.1</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R33" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V33" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W33" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X33" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Y33" t="n">
         <v>2.5</v>
@@ -5229,7 +5229,7 @@
         <v>15</v>
       </c>
       <c r="AC33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD33" t="n">
         <v>41</v>
@@ -5247,7 +5247,7 @@
         <v>6</v>
       </c>
       <c r="AI33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ33" t="n">
         <v>101</v>
@@ -5268,10 +5268,10 @@
         <v>23</v>
       </c>
       <c r="AP33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
@@ -5320,42 +5320,42 @@
         <v>2.6</v>
       </c>
       <c r="K34" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L34" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N34" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="O34" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P34" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R34" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V34" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="W34" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X34" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="Y34" t="n">
         <v>3</v>
@@ -5364,7 +5364,7 @@
         <v>1.36</v>
       </c>
       <c r="AA34" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AB34" t="n">
         <v>6</v>
@@ -5397,7 +5397,7 @@
         <v>101</v>
       </c>
       <c r="AL34" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM34" t="n">
         <v>29</v>
@@ -5412,7 +5412,7 @@
         <v>67</v>
       </c>
       <c r="AQ34" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr"/>
@@ -5467,16 +5467,16 @@
         <v>6</v>
       </c>
       <c r="M35" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N35" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P35" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q35" t="n">
         <v>3.4</v>
@@ -5493,10 +5493,10 @@
         <v>1.1</v>
       </c>
       <c r="W35" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="X35" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Y35" t="n">
         <v>2.63</v>
@@ -5605,7 +5605,7 @@
         <v>1.8</v>
       </c>
       <c r="L36" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M36" t="n">
         <v>1.17</v>
@@ -5614,10 +5614,10 @@
         <v>4.75</v>
       </c>
       <c r="O36" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P36" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Q36" t="n">
         <v>3.5</v>
@@ -5634,10 +5634,10 @@
         <v>1.08</v>
       </c>
       <c r="W36" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X36" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="Y36" t="n">
         <v>2.75</v>
@@ -5670,10 +5670,10 @@
         <v>6.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ36" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AK36" t="n">
         <v>101</v>
@@ -5682,10 +5682,10 @@
         <v>7.5</v>
       </c>
       <c r="AM36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN36" t="n">
         <v>19</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>17</v>
       </c>
       <c r="AO36" t="n">
         <v>51</v>
@@ -5765,10 +5765,10 @@
         <v>5.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R37" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S37" t="n">
         <v>1.83</v>
@@ -5777,10 +5777,10 @@
         <v>2.03</v>
       </c>
       <c r="U37" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V37" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W37" t="n">
         <v>1.25</v>
@@ -5795,7 +5795,7 @@
         <v>1.95</v>
       </c>
       <c r="AA37" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB37" t="n">
         <v>7.5</v>
@@ -5804,16 +5804,16 @@
         <v>9</v>
       </c>
       <c r="AD37" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF37" t="n">
         <v>23</v>
       </c>
       <c r="AG37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH37" t="n">
         <v>11</v>
@@ -5825,7 +5825,7 @@
         <v>51</v>
       </c>
       <c r="AK37" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL37" t="n">
         <v>23</v>
@@ -5843,7 +5843,7 @@
         <v>51</v>
       </c>
       <c r="AQ37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr"/>
@@ -5880,10 +5880,10 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H38" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I38" t="n">
         <v>2.63</v>
@@ -5892,7 +5892,7 @@
         <v>3.1</v>
       </c>
       <c r="K38" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L38" t="n">
         <v>3.1</v>
@@ -5904,24 +5904,24 @@
         <v>13</v>
       </c>
       <c r="O38" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P38" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R38" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V38" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W38" t="n">
         <v>1.33</v>
@@ -5930,10 +5930,10 @@
         <v>3.25</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z38" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA38" t="n">
         <v>11</v>
@@ -6036,13 +6036,13 @@
         <v>2.75</v>
       </c>
       <c r="L39" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M39" t="n">
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O39" t="n">
         <v>1.1</v>
@@ -6092,7 +6092,7 @@
         <v>11</v>
       </c>
       <c r="AF39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG39" t="n">
         <v>26</v>
@@ -6104,7 +6104,7 @@
         <v>13</v>
       </c>
       <c r="AJ39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK39" t="n">
         <v>81</v>
@@ -6186,10 +6186,10 @@
         <v>7</v>
       </c>
       <c r="O40" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P40" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q40" t="n">
         <v>2.5</v>
@@ -6269,10 +6269,10 @@
         <v>51</v>
       </c>
       <c r="AR40" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="41">
@@ -6470,10 +6470,10 @@
         <v>3</v>
       </c>
       <c r="M42" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O42" t="n">
         <v>1.29</v>
@@ -6875,19 +6875,19 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H45" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I45" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J45" t="n">
         <v>2.2</v>
       </c>
       <c r="K45" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L45" t="n">
         <v>5</v>
@@ -6949,13 +6949,13 @@
         <v>23</v>
       </c>
       <c r="AG45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH45" t="n">
         <v>8</v>
       </c>
       <c r="AI45" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ45" t="n">
         <v>51</v>
@@ -7046,16 +7046,16 @@
         <v>4.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R46" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S46" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T46" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U46" t="n">
         <v>2.5</v>
@@ -7302,16 +7302,16 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H48" t="n">
         <v>3.4</v>
       </c>
       <c r="I48" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J48" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K48" t="n">
         <v>2.2</v>
@@ -7400,7 +7400,7 @@
         <v>9.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP48" t="n">
         <v>17</v>
@@ -7481,10 +7481,10 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V49" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W49" t="n">
         <v>1.36</v>
@@ -7602,10 +7602,10 @@
         <v>2.4</v>
       </c>
       <c r="M50" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N50" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O50" t="n">
         <v>1.5</v>
@@ -7691,10 +7691,10 @@
         <v>41</v>
       </c>
       <c r="AR50" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="51">
@@ -7750,7 +7750,7 @@
         <v>1.07</v>
       </c>
       <c r="N51" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O51" t="n">
         <v>1.33</v>
@@ -7885,13 +7885,13 @@
         <v>2.3</v>
       </c>
       <c r="L52" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="M52" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N52" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O52" t="n">
         <v>1.29</v>
@@ -7926,13 +7926,13 @@
         <v>1.53</v>
       </c>
       <c r="AA52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB52" t="n">
         <v>41</v>
       </c>
       <c r="AC52" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD52" t="n">
         <v>126</v>
@@ -7947,13 +7947,13 @@
         <v>9.5</v>
       </c>
       <c r="AH52" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI52" t="n">
         <v>26</v>
       </c>
       <c r="AJ52" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK52" t="n">
         <v>101</v>
@@ -8011,13 +8011,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H53" t="n">
         <v>3.3</v>
       </c>
       <c r="I53" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J53" t="n">
         <v>3.1</v>
@@ -8083,7 +8083,7 @@
         <v>23</v>
       </c>
       <c r="AE53" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF53" t="n">
         <v>29</v>
@@ -8163,13 +8163,13 @@
         <v>1.65</v>
       </c>
       <c r="H54" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I54" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J54" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K54" t="n">
         <v>2.3</v>
@@ -8181,7 +8181,7 @@
         <v>1.04</v>
       </c>
       <c r="N54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O54" t="n">
         <v>1.22</v>
@@ -8196,10 +8196,10 @@
         <v>2</v>
       </c>
       <c r="S54" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="T54" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U54" t="n">
         <v>2.75</v>
@@ -8229,7 +8229,7 @@
         <v>8.5</v>
       </c>
       <c r="AD54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE54" t="n">
         <v>13</v>
@@ -8259,7 +8259,7 @@
         <v>26</v>
       </c>
       <c r="AN54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO54" t="n">
         <v>51</v>
@@ -8271,10 +8271,10 @@
         <v>41</v>
       </c>
       <c r="AR54" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="AS54" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="55">
@@ -8458,22 +8458,22 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="H56" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I56" t="n">
-        <v>5.75</v>
+        <v>8</v>
       </c>
       <c r="J56" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="K56" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M56" t="n">
         <v>1.08</v>
@@ -8482,10 +8482,10 @@
         <v>8</v>
       </c>
       <c r="O56" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P56" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q56" t="n">
         <v>2.25</v>
@@ -8494,10 +8494,10 @@
         <v>1.62</v>
       </c>
       <c r="S56" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T56" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U56" t="n">
         <v>4</v>
@@ -8512,61 +8512,61 @@
         <v>2.5</v>
       </c>
       <c r="Y56" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z56" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA56" t="n">
         <v>5.5</v>
       </c>
       <c r="AB56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC56" t="n">
         <v>9</v>
       </c>
       <c r="AD56" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF56" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG56" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH56" t="n">
         <v>7</v>
       </c>
-      <c r="AH56" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AI56" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ56" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK56" t="n">
         <v>101</v>
       </c>
       <c r="AL56" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AM56" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AN56" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AO56" t="n">
+        <v>81</v>
+      </c>
+      <c r="AP56" t="n">
         <v>67</v>
       </c>
-      <c r="AP56" t="n">
-        <v>51</v>
-      </c>
       <c r="AQ56" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR56" t="n">
         <v>1.78</v>
@@ -8756,48 +8756,48 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H58" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J58" t="n">
         <v>4.75</v>
       </c>
       <c r="K58" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L58" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M58" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N58" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O58" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P58" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="R58" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V58" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W58" t="n">
         <v>1.57</v>
@@ -8812,10 +8812,10 @@
         <v>1.62</v>
       </c>
       <c r="AA58" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB58" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC58" t="n">
         <v>15</v>
@@ -8830,7 +8830,7 @@
         <v>51</v>
       </c>
       <c r="AG58" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH58" t="n">
         <v>6.5</v>
@@ -8848,13 +8848,13 @@
         <v>5.5</v>
       </c>
       <c r="AM58" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AN58" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO58" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP58" t="n">
         <v>21</v>
@@ -8863,10 +8863,10 @@
         <v>41</v>
       </c>
       <c r="AR58" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AS58" t="n">
         <v>1.88</v>
-      </c>
-      <c r="AS58" t="n">
-        <v>1.98</v>
       </c>
     </row>
     <row r="59">
@@ -8931,16 +8931,16 @@
         <v>4.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R59" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="S59" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T59" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U59" t="n">
         <v>2.5</v>
@@ -9049,13 +9049,13 @@
         <v>1.7</v>
       </c>
       <c r="H60" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I60" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="J60" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="K60" t="n">
         <v>2.15</v>
@@ -9067,24 +9067,24 @@
         <v>1.06</v>
       </c>
       <c r="N60" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O60" t="n">
         <v>1.29</v>
       </c>
       <c r="P60" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q60" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R60" t="n">
         <v>1.88</v>
-      </c>
-      <c r="R60" t="n">
-        <v>1.87</v>
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="V60" t="n">
         <v>1.34</v>
@@ -9096,13 +9096,13 @@
         <v>2.75</v>
       </c>
       <c r="Y60" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Z60" t="n">
         <v>1.88</v>
       </c>
       <c r="AA60" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AB60" t="n">
         <v>8.25</v>
@@ -9120,10 +9120,10 @@
         <v>29</v>
       </c>
       <c r="AG60" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AH60" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AI60" t="n">
         <v>17</v>
@@ -9493,24 +9493,24 @@
         <v>13</v>
       </c>
       <c r="O63" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P63" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="R63" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V63" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W63" t="n">
         <v>1.36</v>
@@ -9640,10 +9640,10 @@
         <v>3</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R64" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
@@ -9751,28 +9751,28 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H65" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I65" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="J65" t="n">
         <v>5.5</v>
       </c>
       <c r="K65" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L65" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M65" t="n">
         <v>1.03</v>
       </c>
       <c r="N65" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O65" t="n">
         <v>1.18</v>
@@ -9781,16 +9781,16 @@
         <v>4.5</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R65" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S65" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T65" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U65" t="n">
         <v>2.5</v>
@@ -9805,10 +9805,10 @@
         <v>3.4</v>
       </c>
       <c r="Y65" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Z65" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AA65" t="n">
         <v>17</v>
@@ -9832,13 +9832,13 @@
         <v>15</v>
       </c>
       <c r="AH65" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI65" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ65" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK65" t="n">
         <v>201</v>
@@ -9853,7 +9853,7 @@
         <v>8.5</v>
       </c>
       <c r="AO65" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP65" t="n">
         <v>12</v>
@@ -10357,10 +10357,10 @@
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V69" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W69" t="n">
         <v>1.44</v>
@@ -10601,13 +10601,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H71" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I71" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J71" t="n">
         <v>4.5</v>
@@ -10619,10 +10619,10 @@
         <v>3.1</v>
       </c>
       <c r="M71" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N71" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O71" t="n">
         <v>1.57</v>
@@ -10651,19 +10651,19 @@
         <v>2.2</v>
       </c>
       <c r="Y71" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Z71" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AA71" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB71" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC71" t="n">
         <v>15</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>13</v>
       </c>
       <c r="AD71" t="n">
         <v>41</v>
@@ -10675,10 +10675,10 @@
         <v>51</v>
       </c>
       <c r="AG71" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH71" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI71" t="n">
         <v>21</v>
@@ -10691,7 +10691,7 @@
         <v>5.5</v>
       </c>
       <c r="AM71" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AN71" t="n">
         <v>10</v>
@@ -11026,28 +11026,28 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="H74" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I74" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J74" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K74" t="n">
         <v>2.05</v>
       </c>
       <c r="L74" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M74" t="n">
         <v>1.07</v>
       </c>
       <c r="N74" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O74" t="n">
         <v>1.4</v>
@@ -11064,10 +11064,10 @@
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V74" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W74" t="n">
         <v>1.5</v>
@@ -11082,19 +11082,19 @@
         <v>1.8</v>
       </c>
       <c r="AA74" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB74" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC74" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD74" t="n">
         <v>41</v>
       </c>
       <c r="AE74" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF74" t="n">
         <v>41</v>
@@ -11118,13 +11118,13 @@
         <v>6.5</v>
       </c>
       <c r="AM74" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AN74" t="n">
         <v>9</v>
       </c>
       <c r="AO74" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP74" t="n">
         <v>19</v>
@@ -11167,13 +11167,13 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H75" t="n">
         <v>4</v>
       </c>
       <c r="I75" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J75" t="n">
         <v>2.1</v>
@@ -11185,10 +11185,10 @@
         <v>5</v>
       </c>
       <c r="M75" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N75" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O75" t="n">
         <v>1.2</v>
@@ -11197,13 +11197,17 @@
         <v>4.5</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R75" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
+        <v>2.2</v>
+      </c>
+      <c r="S75" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1.8</v>
+      </c>
       <c r="U75" t="n">
         <v>2.63</v>
       </c>
@@ -11308,10 +11312,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H76" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I76" t="n">
         <v>2.88</v>
@@ -11326,22 +11330,22 @@
         <v>3.75</v>
       </c>
       <c r="M76" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N76" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O76" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P76" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R76" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
@@ -11358,10 +11362,10 @@
         <v>2.38</v>
       </c>
       <c r="Y76" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z76" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AA76" t="n">
         <v>6.5</v>
@@ -11373,7 +11377,7 @@
         <v>10</v>
       </c>
       <c r="AD76" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE76" t="n">
         <v>23</v>
@@ -11382,22 +11386,22 @@
         <v>41</v>
       </c>
       <c r="AG76" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH76" t="n">
         <v>6</v>
       </c>
       <c r="AI76" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ76" t="n">
         <v>67</v>
       </c>
       <c r="AK76" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AL76" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM76" t="n">
         <v>13</v>
@@ -11415,10 +11419,10 @@
         <v>41</v>
       </c>
       <c r="AR76" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AS76" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="77">
@@ -11453,13 +11457,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H77" t="n">
         <v>3.4</v>
       </c>
       <c r="I77" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J77" t="n">
         <v>3.1</v>
@@ -11468,13 +11472,13 @@
         <v>2.1</v>
       </c>
       <c r="L77" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M77" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N77" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O77" t="n">
         <v>1.3</v>
@@ -11521,7 +11525,7 @@
         <v>23</v>
       </c>
       <c r="AE77" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF77" t="n">
         <v>29</v>
@@ -11533,7 +11537,7 @@
         <v>6.5</v>
       </c>
       <c r="AI77" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ77" t="n">
         <v>41</v>
@@ -11542,19 +11546,19 @@
         <v>201</v>
       </c>
       <c r="AL77" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM77" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN77" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO77" t="n">
         <v>29</v>
       </c>
       <c r="AP77" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ77" t="n">
         <v>29</v>
@@ -11594,10 +11598,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H78" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I78" t="n">
         <v>2.88</v>
@@ -11612,10 +11616,10 @@
         <v>3.5</v>
       </c>
       <c r="M78" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N78" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O78" t="n">
         <v>1.33</v>
@@ -11656,7 +11660,7 @@
         <v>12</v>
       </c>
       <c r="AC78" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD78" t="n">
         <v>23</v>
@@ -11668,10 +11672,10 @@
         <v>29</v>
       </c>
       <c r="AG78" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH78" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI78" t="n">
         <v>15</v>
@@ -11683,7 +11687,7 @@
         <v>251</v>
       </c>
       <c r="AL78" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM78" t="n">
         <v>13</v>
@@ -11759,24 +11763,24 @@
         <v>10</v>
       </c>
       <c r="O79" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P79" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q79" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R79" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V79" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W79" t="n">
         <v>1.4</v>
@@ -11876,13 +11880,13 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H80" t="n">
         <v>3.6</v>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J80" t="n">
         <v>4.5</v>
@@ -11894,30 +11898,30 @@
         <v>2.75</v>
       </c>
       <c r="M80" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N80" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O80" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P80" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R80" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V80" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W80" t="n">
         <v>1.5</v>
@@ -11932,7 +11936,7 @@
         <v>1.75</v>
       </c>
       <c r="AA80" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB80" t="n">
         <v>17</v>
@@ -11965,7 +11969,7 @@
         <v>451</v>
       </c>
       <c r="AL80" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AM80" t="n">
         <v>8.5</v>
@@ -12017,40 +12021,40 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H81" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I81" t="n">
         <v>2.9</v>
       </c>
       <c r="J81" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K81" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L81" t="n">
         <v>3.5</v>
       </c>
       <c r="M81" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N81" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O81" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P81" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R81" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
@@ -12073,7 +12077,7 @@
         <v>2.05</v>
       </c>
       <c r="AA81" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB81" t="n">
         <v>12</v>
@@ -12091,7 +12095,7 @@
         <v>26</v>
       </c>
       <c r="AG81" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH81" t="n">
         <v>6.5</v>
@@ -12158,13 +12162,13 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H82" t="n">
         <v>4</v>
       </c>
       <c r="I82" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J82" t="n">
         <v>2.25</v>
@@ -12176,22 +12180,22 @@
         <v>6</v>
       </c>
       <c r="M82" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N82" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O82" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P82" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R82" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
@@ -12223,7 +12227,7 @@
         <v>8.5</v>
       </c>
       <c r="AD82" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE82" t="n">
         <v>15</v>
@@ -12232,7 +12236,7 @@
         <v>34</v>
       </c>
       <c r="AG82" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH82" t="n">
         <v>8</v>
@@ -12250,7 +12254,7 @@
         <v>11</v>
       </c>
       <c r="AM82" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN82" t="n">
         <v>17</v>
@@ -12323,16 +12327,16 @@
         <v>11</v>
       </c>
       <c r="O83" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P83" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q83" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R83" t="n">
         <v>1.95</v>
-      </c>
-      <c r="R83" t="n">
-        <v>1.9</v>
       </c>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
@@ -12440,13 +12444,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H84" t="n">
         <v>3.4</v>
       </c>
       <c r="I84" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J84" t="n">
         <v>3.1</v>
@@ -12478,10 +12482,10 @@
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V84" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W84" t="n">
         <v>1.44</v>
@@ -12508,7 +12512,7 @@
         <v>23</v>
       </c>
       <c r="AE84" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF84" t="n">
         <v>29</v>
@@ -12529,10 +12533,10 @@
         <v>251</v>
       </c>
       <c r="AL84" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM84" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN84" t="n">
         <v>11</v>
@@ -12581,22 +12585,22 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H85" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I85" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="J85" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K85" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L85" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M85" t="n">
         <v>1.04</v>
@@ -12649,7 +12653,7 @@
         <v>41</v>
       </c>
       <c r="AE85" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF85" t="n">
         <v>34</v>
@@ -12670,7 +12674,7 @@
         <v>201</v>
       </c>
       <c r="AL85" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM85" t="n">
         <v>9</v>
@@ -12740,10 +12744,10 @@
         <v>5</v>
       </c>
       <c r="M86" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N86" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O86" t="n">
         <v>1.4</v>
@@ -13014,7 +13018,7 @@
         <v>3.4</v>
       </c>
       <c r="I88" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J88" t="n">
         <v>4.33</v>
@@ -13032,24 +13036,24 @@
         <v>11</v>
       </c>
       <c r="O88" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P88" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q88" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R88" t="n">
         <v>1.88</v>
-      </c>
-      <c r="R88" t="n">
-        <v>1.98</v>
       </c>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="V88" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="W88" t="n">
         <v>1.4</v>
@@ -13058,7 +13062,7 @@
         <v>2.75</v>
       </c>
       <c r="Y88" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Z88" t="n">
         <v>2</v>
@@ -13082,16 +13086,16 @@
         <v>41</v>
       </c>
       <c r="AG88" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH88" t="n">
         <v>6.5</v>
       </c>
       <c r="AI88" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ88" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK88" t="n">
         <v>201</v>
@@ -13100,7 +13104,7 @@
         <v>7.5</v>
       </c>
       <c r="AM88" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AN88" t="n">
         <v>8.5</v>
@@ -13149,13 +13153,13 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H89" t="n">
         <v>3.7</v>
       </c>
       <c r="I89" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J89" t="n">
         <v>2.5</v>
@@ -13199,16 +13203,16 @@
         <v>2.75</v>
       </c>
       <c r="Y89" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Z89" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="AA89" t="n">
         <v>7.5</v>
       </c>
       <c r="AB89" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC89" t="n">
         <v>8.5</v>
@@ -13238,7 +13242,7 @@
         <v>251</v>
       </c>
       <c r="AL89" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM89" t="n">
         <v>21</v>
@@ -13253,7 +13257,7 @@
         <v>34</v>
       </c>
       <c r="AQ89" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR89" t="inlineStr"/>
       <c r="AS89" t="inlineStr"/>
@@ -13314,16 +13318,16 @@
         <v>8</v>
       </c>
       <c r="O90" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P90" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q90" t="n">
         <v>2.4</v>
       </c>
       <c r="R90" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
@@ -13343,7 +13347,7 @@
         <v>2.2</v>
       </c>
       <c r="Z90" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="AA90" t="n">
         <v>8</v>
@@ -13397,10 +13401,10 @@
         <v>41</v>
       </c>
       <c r="AR90" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -13468,7 +13472,7 @@
         <v>2.25</v>
       </c>
       <c r="R91" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
@@ -13576,28 +13580,28 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H92" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I92" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J92" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K92" t="n">
         <v>2.05</v>
       </c>
       <c r="L92" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M92" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N92" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O92" t="n">
         <v>1.36</v>
@@ -13606,24 +13610,24 @@
         <v>3</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R92" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V92" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W92" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X92" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y92" t="n">
         <v>1.83</v>
@@ -13662,7 +13666,7 @@
         <v>51</v>
       </c>
       <c r="AK92" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL92" t="n">
         <v>7.5</v>
@@ -13735,16 +13739,16 @@
         <v>2.88</v>
       </c>
       <c r="M93" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N93" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O93" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P93" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q93" t="n">
         <v>1.7</v>
@@ -13894,10 +13898,10 @@
         <v>2.4</v>
       </c>
       <c r="S94" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T94" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U94" t="n">
         <v>2.25</v>
@@ -13912,19 +13916,19 @@
         <v>3.5</v>
       </c>
       <c r="Y94" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z94" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AA94" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB94" t="n">
         <v>11</v>
       </c>
       <c r="AC94" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD94" t="n">
         <v>17</v>
@@ -13933,7 +13937,7 @@
         <v>13</v>
       </c>
       <c r="AF94" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG94" t="n">
         <v>17</v>
@@ -13948,7 +13952,7 @@
         <v>34</v>
       </c>
       <c r="AK94" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL94" t="n">
         <v>15</v>
@@ -13966,7 +13970,7 @@
         <v>26</v>
       </c>
       <c r="AQ94" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR94" t="inlineStr"/>
       <c r="AS94" t="inlineStr"/>
@@ -14313,10 +14317,10 @@
         <v>15</v>
       </c>
       <c r="O97" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P97" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q97" t="n">
         <v>1.7</v>
@@ -14327,10 +14331,10 @@
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V97" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W97" t="n">
         <v>1.33</v>
@@ -14430,7 +14434,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H98" t="n">
         <v>3.6</v>
@@ -14439,10 +14443,10 @@
         <v>2.05</v>
       </c>
       <c r="J98" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K98" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L98" t="n">
         <v>2.63</v>
@@ -14466,10 +14470,10 @@
         <v>2.25</v>
       </c>
       <c r="S98" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T98" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U98" t="n">
         <v>2.5</v>
@@ -14478,16 +14482,16 @@
         <v>1.5</v>
       </c>
       <c r="W98" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X98" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y98" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z98" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA98" t="n">
         <v>13</v>
@@ -14505,7 +14509,7 @@
         <v>23</v>
       </c>
       <c r="AF98" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG98" t="n">
         <v>15</v>
@@ -14517,16 +14521,16 @@
         <v>12</v>
       </c>
       <c r="AJ98" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK98" t="n">
         <v>126</v>
       </c>
       <c r="AL98" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM98" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN98" t="n">
         <v>9</v>
@@ -15143,16 +15147,16 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H103" t="n">
         <v>3.2</v>
       </c>
       <c r="I103" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J103" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K103" t="n">
         <v>2</v>
@@ -15179,10 +15183,10 @@
         <v>1.65</v>
       </c>
       <c r="S103" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T103" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="U103" t="n">
         <v>4</v>
@@ -15209,7 +15213,7 @@
         <v>11</v>
       </c>
       <c r="AC103" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD103" t="n">
         <v>23</v>
@@ -15245,7 +15249,7 @@
         <v>11</v>
       </c>
       <c r="AO103" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP103" t="n">
         <v>26</v>
@@ -15254,10 +15258,10 @@
         <v>41</v>
       </c>
       <c r="AR103" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="104">
@@ -15328,10 +15332,10 @@
         <v>1.98</v>
       </c>
       <c r="S104" t="n">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="T104" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U104" t="n">
         <v>3.25</v>
@@ -15403,10 +15407,10 @@
         <v>126</v>
       </c>
       <c r="AR104" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="105">
@@ -15459,10 +15463,10 @@
         <v>3</v>
       </c>
       <c r="M105" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N105" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O105" t="n">
         <v>1.3</v>
@@ -15744,7 +15748,7 @@
         <v>1.04</v>
       </c>
       <c r="N107" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O107" t="n">
         <v>1.25</v>
@@ -15864,13 +15868,13 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H108" t="n">
         <v>3.5</v>
       </c>
       <c r="I108" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J108" t="n">
         <v>3</v>
@@ -15882,22 +15886,22 @@
         <v>3.4</v>
       </c>
       <c r="M108" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N108" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O108" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P108" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R108" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S108" t="inlineStr"/>
       <c r="T108" t="inlineStr"/>
@@ -15914,10 +15918,10 @@
         <v>3.25</v>
       </c>
       <c r="Y108" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z108" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA108" t="n">
         <v>10</v>
@@ -15932,7 +15936,7 @@
         <v>23</v>
       </c>
       <c r="AE108" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF108" t="n">
         <v>23</v>
@@ -15944,13 +15948,13 @@
         <v>7</v>
       </c>
       <c r="AI108" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ108" t="n">
         <v>41</v>
       </c>
       <c r="AK108" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL108" t="n">
         <v>11</v>
@@ -16005,16 +16009,16 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H109" t="n">
         <v>3.4</v>
       </c>
       <c r="I109" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J109" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K109" t="n">
         <v>2.2</v>
@@ -16035,10 +16039,10 @@
         <v>3.75</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R109" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr"/>
@@ -16097,7 +16101,7 @@
         <v>8.5</v>
       </c>
       <c r="AM109" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN109" t="n">
         <v>9</v>
@@ -16146,103 +16150,103 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H110" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I110" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J110" t="n">
         <v>3.45</v>
       </c>
-      <c r="I110" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="J110" t="n">
-        <v>3.65</v>
-      </c>
       <c r="K110" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="L110" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="P110" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="R110" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="V110" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W110" t="inlineStr"/>
       <c r="X110" t="inlineStr"/>
       <c r="Y110" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Z110" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="AA110" t="n">
         <v>11.5</v>
       </c>
       <c r="AB110" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AC110" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AD110" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AE110" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF110" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG110" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH110" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AI110" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ110" t="n">
         <v>50</v>
       </c>
       <c r="AK110" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AL110" t="n">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="AM110" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AN110" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AO110" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP110" t="n">
         <v>15.5</v>
       </c>
       <c r="AQ110" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR110" t="inlineStr"/>
       <c r="AS110" t="inlineStr"/>
@@ -16416,22 +16420,22 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H112" t="n">
         <v>3.2</v>
       </c>
       <c r="I112" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J112" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K112" t="n">
         <v>2.1</v>
       </c>
       <c r="L112" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M112" t="n">
         <v>1.06</v>
@@ -16440,24 +16444,24 @@
         <v>10</v>
       </c>
       <c r="O112" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P112" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q112" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R112" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V112" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W112" t="n">
         <v>1.4</v>
@@ -16472,7 +16476,7 @@
         <v>2</v>
       </c>
       <c r="AA112" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB112" t="n">
         <v>12</v>
@@ -16484,7 +16488,7 @@
         <v>23</v>
       </c>
       <c r="AE112" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF112" t="n">
         <v>29</v>
@@ -16496,16 +16500,16 @@
         <v>6.5</v>
       </c>
       <c r="AI112" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ112" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK112" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL112" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM112" t="n">
         <v>15</v>
@@ -16998,10 +17002,10 @@
         <v>4.33</v>
       </c>
       <c r="M116" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N116" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O116" t="n">
         <v>1.36</v>
@@ -17018,10 +17022,10 @@
       <c r="S116" t="inlineStr"/>
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V116" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W116" t="n">
         <v>1.5</v>
@@ -17262,28 +17266,28 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="H118" t="n">
         <v>2.88</v>
       </c>
       <c r="I118" t="n">
+        <v>3</v>
+      </c>
+      <c r="J118" t="n">
         <v>3.25</v>
-      </c>
-      <c r="J118" t="n">
-        <v>3.2</v>
       </c>
       <c r="K118" t="n">
         <v>2</v>
       </c>
       <c r="L118" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M118" t="n">
         <v>1.08</v>
       </c>
       <c r="N118" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O118" t="n">
         <v>1.4</v>
@@ -17292,10 +17296,10 @@
         <v>2.75</v>
       </c>
       <c r="Q118" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R118" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S118" t="inlineStr"/>
       <c r="T118" t="inlineStr"/>
@@ -17312,31 +17316,31 @@
         <v>2.5</v>
       </c>
       <c r="Y118" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Z118" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AA118" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB118" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC118" t="n">
         <v>10</v>
       </c>
       <c r="AD118" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE118" t="n">
         <v>23</v>
-      </c>
-      <c r="AE118" t="n">
-        <v>21</v>
       </c>
       <c r="AF118" t="n">
         <v>34</v>
       </c>
       <c r="AG118" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH118" t="n">
         <v>5.5</v>
@@ -17348,22 +17352,22 @@
         <v>51</v>
       </c>
       <c r="AK118" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL118" t="n">
         <v>8.5</v>
       </c>
       <c r="AM118" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN118" t="n">
         <v>12</v>
       </c>
       <c r="AO118" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP118" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ118" t="n">
         <v>41</v>
@@ -17403,28 +17407,28 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H119" t="n">
         <v>3</v>
       </c>
       <c r="I119" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J119" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K119" t="n">
         <v>1.95</v>
       </c>
       <c r="L119" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M119" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N119" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O119" t="n">
         <v>1.44</v>
@@ -17486,16 +17490,16 @@
         <v>17</v>
       </c>
       <c r="AJ119" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK119" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AL119" t="n">
         <v>6.5</v>
       </c>
       <c r="AM119" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN119" t="n">
         <v>10</v>
@@ -17504,10 +17508,10 @@
         <v>23</v>
       </c>
       <c r="AP119" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ119" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR119" t="n">
         <v>1.8</v>
@@ -17693,13 +17697,13 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H121" t="n">
         <v>2.9</v>
       </c>
       <c r="I121" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J121" t="n">
         <v>3.4</v>
@@ -17708,33 +17712,33 @@
         <v>1.95</v>
       </c>
       <c r="L121" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M121" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N121" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O121" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P121" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q121" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R121" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S121" t="inlineStr"/>
       <c r="T121" t="inlineStr"/>
       <c r="U121" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V121" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W121" t="n">
         <v>1.53</v>
@@ -17743,10 +17747,10 @@
         <v>2.38</v>
       </c>
       <c r="Y121" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Z121" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AA121" t="n">
         <v>7</v>
@@ -17788,7 +17792,7 @@
         <v>13</v>
       </c>
       <c r="AN121" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO121" t="n">
         <v>29</v>
@@ -17800,10 +17804,10 @@
         <v>41</v>
       </c>
       <c r="AR121" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="122">
@@ -18138,30 +18142,30 @@
         <v>3</v>
       </c>
       <c r="M124" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N124" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O124" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P124" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q124" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R124" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S124" t="inlineStr"/>
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V124" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W124" t="n">
         <v>1.44</v>
@@ -18970,28 +18974,28 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H130" t="n">
         <v>3.4</v>
       </c>
       <c r="I130" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J130" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K130" t="n">
         <v>2.1</v>
       </c>
       <c r="L130" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M130" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N130" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O130" t="n">
         <v>1.3</v>
@@ -19026,13 +19030,13 @@
         <v>1.91</v>
       </c>
       <c r="AA130" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB130" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC130" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD130" t="n">
         <v>41</v>
@@ -19074,7 +19078,7 @@
         <v>17</v>
       </c>
       <c r="AQ130" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR130" t="inlineStr"/>
       <c r="AS130" t="inlineStr"/>
@@ -19129,10 +19133,10 @@
         <v>2.88</v>
       </c>
       <c r="M131" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N131" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O131" t="n">
         <v>1.25</v>
@@ -19141,10 +19145,10 @@
         <v>3.75</v>
       </c>
       <c r="Q131" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R131" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S131" t="inlineStr"/>
       <c r="T131" t="inlineStr"/>
@@ -19270,10 +19274,10 @@
         <v>4.75</v>
       </c>
       <c r="M132" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N132" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O132" t="n">
         <v>1.29</v>
@@ -19282,18 +19286,18 @@
         <v>3.5</v>
       </c>
       <c r="Q132" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R132" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S132" t="inlineStr"/>
       <c r="T132" t="inlineStr"/>
       <c r="U132" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V132" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W132" t="n">
         <v>1.4</v>
@@ -19393,22 +19397,22 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H133" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I133" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J133" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K133" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L133" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M133" t="n">
         <v>1.08</v>
@@ -19455,7 +19459,7 @@
         <v>10</v>
       </c>
       <c r="AC133" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD133" t="n">
         <v>21</v>
@@ -19558,24 +19562,24 @@
         <v>13</v>
       </c>
       <c r="O134" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P134" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q134" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R134" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S134" t="inlineStr"/>
       <c r="T134" t="inlineStr"/>
       <c r="U134" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V134" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W134" t="n">
         <v>1.36</v>
@@ -19961,7 +19965,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H137" t="n">
         <v>4.5</v>
@@ -20032,7 +20036,7 @@
         <v>12</v>
       </c>
       <c r="AF137" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG137" t="n">
         <v>15</v>
@@ -20050,7 +20054,7 @@
         <v>201</v>
       </c>
       <c r="AL137" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM137" t="n">
         <v>29</v>
@@ -20123,7 +20127,7 @@
         <v>1.03</v>
       </c>
       <c r="N138" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O138" t="n">
         <v>1.17</v>
@@ -20138,10 +20142,10 @@
         <v>2.35</v>
       </c>
       <c r="S138" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T138" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="U138" t="n">
         <v>2.38</v>
@@ -20247,7 +20251,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H139" t="n">
         <v>3.9</v>
@@ -20268,7 +20272,7 @@
         <v>1.04</v>
       </c>
       <c r="N139" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O139" t="n">
         <v>1.25</v>
@@ -20303,10 +20307,10 @@
         <v>1.95</v>
       </c>
       <c r="AA139" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB139" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC139" t="n">
         <v>8.5</v>
@@ -20318,16 +20322,16 @@
         <v>13</v>
       </c>
       <c r="AF139" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG139" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH139" t="n">
         <v>7.5</v>
       </c>
       <c r="AI139" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ139" t="n">
         <v>51</v>
@@ -20339,7 +20343,7 @@
         <v>13</v>
       </c>
       <c r="AM139" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN139" t="n">
         <v>15</v>
@@ -20348,7 +20352,7 @@
         <v>51</v>
       </c>
       <c r="AP139" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ139" t="n">
         <v>41</v>
@@ -20825,10 +20829,10 @@
         <v>4.33</v>
       </c>
       <c r="M143" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N143" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O143" t="n">
         <v>1.5</v>
@@ -20952,16 +20956,16 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H144" t="n">
         <v>2.8</v>
       </c>
       <c r="I144" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J144" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K144" t="n">
         <v>1.95</v>
@@ -21014,10 +21018,10 @@
         <v>11</v>
       </c>
       <c r="AC144" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD144" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE144" t="n">
         <v>23</v>
@@ -21035,22 +21039,22 @@
         <v>17</v>
       </c>
       <c r="AJ144" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK144" t="n">
         <v>251</v>
       </c>
       <c r="AL144" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM144" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN144" t="n">
         <v>12</v>
       </c>
       <c r="AO144" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP144" t="n">
         <v>29</v>
@@ -21097,54 +21101,54 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H145" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I145" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J145" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="K145" t="n">
         <v>2.2</v>
       </c>
       <c r="L145" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M145" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N145" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O145" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P145" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q145" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="R145" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="S145" t="inlineStr"/>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V145" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W145" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X145" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y145" t="n">
         <v>2.25</v>
@@ -21156,25 +21160,25 @@
         <v>5.5</v>
       </c>
       <c r="AB145" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AC145" t="n">
         <v>9</v>
       </c>
       <c r="AD145" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE145" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF145" t="n">
         <v>34</v>
       </c>
       <c r="AG145" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH145" t="n">
         <v>9</v>
-      </c>
-      <c r="AH145" t="n">
-        <v>8.5</v>
       </c>
       <c r="AI145" t="n">
         <v>23</v>
@@ -21186,16 +21190,16 @@
         <v>101</v>
       </c>
       <c r="AL145" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM145" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN145" t="n">
         <v>19</v>
       </c>
       <c r="AO145" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP145" t="n">
         <v>51</v>
@@ -21248,13 +21252,13 @@
         <v>3.75</v>
       </c>
       <c r="I146" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="J146" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K146" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L146" t="n">
         <v>2.88</v>
@@ -21278,10 +21282,10 @@
         <v>2.4</v>
       </c>
       <c r="S146" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="T146" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="U146" t="n">
         <v>2.25</v>
@@ -21317,7 +21321,7 @@
         <v>19</v>
       </c>
       <c r="AF146" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG146" t="n">
         <v>17</v>
@@ -21326,7 +21330,7 @@
         <v>7.5</v>
       </c>
       <c r="AI146" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ146" t="n">
         <v>34</v>
@@ -21341,7 +21345,7 @@
         <v>15</v>
       </c>
       <c r="AN146" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO146" t="n">
         <v>23</v>
@@ -21556,16 +21560,16 @@
         <v>11</v>
       </c>
       <c r="O148" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P148" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q148" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R148" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S148" t="inlineStr"/>
       <c r="T148" t="inlineStr"/>
@@ -21822,22 +21826,22 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H150" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I150" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="J150" t="n">
         <v>5.5</v>
       </c>
       <c r="K150" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L150" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M150" t="n">
         <v>1.08</v>
@@ -21891,7 +21895,7 @@
         <v>15</v>
       </c>
       <c r="AD150" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE150" t="n">
         <v>41</v>
@@ -21927,7 +21931,7 @@
         <v>15</v>
       </c>
       <c r="AP150" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ150" t="n">
         <v>41</v>
@@ -21989,10 +21993,10 @@
         <v>12</v>
       </c>
       <c r="M151" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N151" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O151" t="n">
         <v>1.22</v>
@@ -22001,10 +22005,10 @@
         <v>4</v>
       </c>
       <c r="Q151" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R151" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S151" t="n">
         <v>2.03</v>
@@ -22013,10 +22017,10 @@
         <v>1.83</v>
       </c>
       <c r="U151" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V151" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W151" t="n">
         <v>1.33</v>
@@ -22423,19 +22427,19 @@
         <v>1.03</v>
       </c>
       <c r="N154" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O154" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P154" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q154" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R154" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S154" t="n">
         <v>2.03</v>
@@ -22577,10 +22581,10 @@
         <v>3.25</v>
       </c>
       <c r="Q155" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R155" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S155" t="inlineStr"/>
       <c r="T155" t="inlineStr"/>
@@ -23004,10 +23008,10 @@
         <v>2.5</v>
       </c>
       <c r="Q158" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R158" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S158" t="inlineStr"/>
       <c r="T158" t="inlineStr"/>
@@ -23081,10 +23085,10 @@
         <v>41</v>
       </c>
       <c r="AR158" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="159">
@@ -23100,7 +23104,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -23260,40 +23264,40 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H160" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I160" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="J160" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K160" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L160" t="n">
         <v>2.3</v>
       </c>
       <c r="M160" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N160" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O160" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P160" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q160" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R160" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S160" t="inlineStr"/>
       <c r="T160" t="inlineStr"/>
@@ -23310,10 +23314,10 @@
         <v>2.5</v>
       </c>
       <c r="Y160" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z160" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA160" t="n">
         <v>11</v>
@@ -23322,25 +23326,25 @@
         <v>26</v>
       </c>
       <c r="AC160" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD160" t="n">
         <v>67</v>
       </c>
       <c r="AE160" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AF160" t="n">
         <v>51</v>
       </c>
       <c r="AG160" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH160" t="n">
         <v>7.5</v>
       </c>
       <c r="AI160" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ160" t="n">
         <v>81</v>
@@ -23349,7 +23353,7 @@
         <v>501</v>
       </c>
       <c r="AL160" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AM160" t="n">
         <v>6.5</v>
@@ -23361,10 +23365,10 @@
         <v>12</v>
       </c>
       <c r="AP160" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ160" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR160" t="inlineStr"/>
       <c r="AS160" t="inlineStr"/>
@@ -23437,10 +23441,10 @@
         <v>2.35</v>
       </c>
       <c r="S161" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T161" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U161" t="n">
         <v>2.38</v>
@@ -23546,13 +23550,13 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H162" t="n">
         <v>3.1</v>
       </c>
       <c r="I162" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J162" t="n">
         <v>2.88</v>
@@ -23561,7 +23565,7 @@
         <v>2</v>
       </c>
       <c r="L162" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M162" t="n">
         <v>1.08</v>
@@ -23570,10 +23574,10 @@
         <v>8</v>
       </c>
       <c r="O162" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P162" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q162" t="n">
         <v>2.25</v>
@@ -23611,7 +23615,7 @@
         <v>9.5</v>
       </c>
       <c r="AD162" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE162" t="n">
         <v>19</v>
@@ -23635,7 +23639,7 @@
         <v>351</v>
       </c>
       <c r="AL162" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM162" t="n">
         <v>17</v>
@@ -23647,7 +23651,7 @@
         <v>41</v>
       </c>
       <c r="AP162" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ162" t="n">
         <v>41</v>
@@ -23705,10 +23709,10 @@
         <v>4</v>
       </c>
       <c r="M163" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N163" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O163" t="n">
         <v>1.36</v>
@@ -23846,30 +23850,30 @@
         <v>5</v>
       </c>
       <c r="M164" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N164" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O164" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P164" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q164" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R164" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S164" t="inlineStr"/>
       <c r="T164" t="inlineStr"/>
       <c r="U164" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V164" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W164" t="n">
         <v>1.5</v>
@@ -24128,10 +24132,10 @@
         <v>3</v>
       </c>
       <c r="M166" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N166" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O166" t="n">
         <v>1.33</v>
@@ -24196,7 +24200,7 @@
         <v>51</v>
       </c>
       <c r="AK166" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AL166" t="n">
         <v>7.5</v>
@@ -24392,13 +24396,13 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="H168" t="n">
         <v>7</v>
       </c>
       <c r="I168" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J168" t="n">
         <v>1.53</v>
@@ -24413,13 +24417,13 @@
         <v>1.02</v>
       </c>
       <c r="N168" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O168" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P168" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q168" t="n">
         <v>1.4</v>
@@ -24448,13 +24452,13 @@
         <v>1.75</v>
       </c>
       <c r="AA168" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AB168" t="n">
         <v>7</v>
       </c>
       <c r="AC168" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD168" t="n">
         <v>7.5</v>
@@ -24466,7 +24470,7 @@
         <v>29</v>
       </c>
       <c r="AG168" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH168" t="n">
         <v>13</v>
@@ -24481,16 +24485,16 @@
         <v>351</v>
       </c>
       <c r="AL168" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM168" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN168" t="n">
         <v>34</v>
       </c>
       <c r="AO168" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AP168" t="n">
         <v>81</v>
@@ -24702,16 +24706,16 @@
         <v>11</v>
       </c>
       <c r="O170" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P170" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q170" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R170" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S170" t="inlineStr"/>
       <c r="T170" t="inlineStr"/>
@@ -25328,7 +25332,7 @@
         <v>41</v>
       </c>
       <c r="AK174" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AL174" t="n">
         <v>12</v>
@@ -25610,7 +25614,7 @@
         <v>51</v>
       </c>
       <c r="AK176" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AL176" t="n">
         <v>9</v>
@@ -25806,22 +25810,22 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H178" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I178" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="J178" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="K178" t="n">
         <v>2.22</v>
       </c>
       <c r="L178" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="M178" t="n">
         <v>1.05</v>
@@ -25830,30 +25834,30 @@
         <v>7.6</v>
       </c>
       <c r="O178" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P178" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q178" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R178" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="S178" t="inlineStr"/>
       <c r="T178" t="inlineStr"/>
       <c r="U178" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="V178" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="W178" t="n">
         <v>1.38</v>
       </c>
       <c r="X178" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Y178" t="n">
         <v>1.88</v>
@@ -25862,31 +25866,31 @@
         <v>1.83</v>
       </c>
       <c r="AA178" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AB178" t="n">
         <v>7.2</v>
       </c>
       <c r="AC178" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD178" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE178" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF178" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG178" t="n">
         <v>7.6</v>
       </c>
       <c r="AH178" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AI178" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AJ178" t="n">
         <v>80</v>
@@ -25898,19 +25902,19 @@
         <v>14</v>
       </c>
       <c r="AM178" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AN178" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO178" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AP178" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AQ178" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR178" t="inlineStr"/>
       <c r="AS178" t="inlineStr"/>
@@ -25947,10 +25951,10 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="H179" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="I179" t="n">
         <v>1.14</v>
@@ -25959,48 +25963,48 @@
         <v>12.5</v>
       </c>
       <c r="K179" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="L179" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M179" t="n">
         <v>1.03</v>
       </c>
       <c r="N179" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="O179" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P179" t="n">
-        <v>4.7</v>
+        <v>4.55</v>
       </c>
       <c r="Q179" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R179" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="S179" t="inlineStr"/>
       <c r="T179" t="inlineStr"/>
       <c r="U179" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="V179" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="W179" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="X179" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="Y179" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="Z179" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AA179" t="n">
         <v>40</v>
@@ -26009,22 +26013,22 @@
         <v>175</v>
       </c>
       <c r="AC179" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD179" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE179" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AF179" t="n">
         <v>250</v>
       </c>
       <c r="AG179" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH179" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI179" t="n">
         <v>40</v>
@@ -26036,16 +26040,16 @@
         <v>101</v>
       </c>
       <c r="AL179" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AM179" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AN179" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AO179" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AP179" t="n">
         <v>11.25</v>
@@ -26088,96 +26092,96 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H180" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I180" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="J180" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="K180" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L180" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M180" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N180" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="O180" t="n">
         <v>1.3</v>
       </c>
       <c r="P180" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q180" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R180" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S180" t="inlineStr"/>
       <c r="T180" t="inlineStr"/>
       <c r="U180" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="V180" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W180" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X180" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="Y180" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="Z180" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AA180" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB180" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="AC180" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD180" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE180" t="n">
         <v>14</v>
       </c>
       <c r="AF180" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG180" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AH180" t="n">
         <v>7.5</v>
       </c>
-      <c r="AH180" t="n">
-        <v>7.3</v>
-      </c>
       <c r="AI180" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AJ180" t="n">
         <v>90</v>
       </c>
       <c r="AK180" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AL180" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AM180" t="n">
         <v>45</v>
@@ -26186,7 +26190,7 @@
         <v>20</v>
       </c>
       <c r="AO180" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AP180" t="n">
         <v>75</v>
@@ -26370,87 +26374,87 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="H182" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="I182" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="J182" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="K182" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="L182" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="M182" t="n">
         <v>1.03</v>
       </c>
       <c r="N182" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="O182" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P182" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="Q182" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="R182" t="n">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
       <c r="S182" t="inlineStr"/>
       <c r="T182" t="inlineStr"/>
       <c r="U182" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="V182" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="W182" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X182" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Y182" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Z182" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="AA182" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AB182" t="n">
         <v>7.7</v>
       </c>
       <c r="AC182" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD182" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AE182" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AF182" t="n">
         <v>26</v>
       </c>
       <c r="AG182" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH182" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AI182" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ182" t="n">
         <v>90</v>
@@ -26459,22 +26463,22 @@
         <v>600</v>
       </c>
       <c r="AL182" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AM182" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AN182" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO182" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AP182" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AQ182" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AR182" t="inlineStr"/>
       <c r="AS182" t="inlineStr"/>
@@ -26670,16 +26674,16 @@
         <v>4.5</v>
       </c>
       <c r="M184" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N184" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O184" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P184" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q184" t="n">
         <v>2.1</v>
@@ -26823,10 +26827,10 @@
         <v>3.25</v>
       </c>
       <c r="Q185" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R185" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S185" t="inlineStr"/>
       <c r="T185" t="inlineStr"/>
@@ -26955,7 +26959,7 @@
         <v>1.07</v>
       </c>
       <c r="N186" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O186" t="n">
         <v>1.36</v>
@@ -26964,18 +26968,18 @@
         <v>3</v>
       </c>
       <c r="Q186" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R186" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S186" t="inlineStr"/>
       <c r="T186" t="inlineStr"/>
       <c r="U186" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V186" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W186" t="n">
         <v>1.44</v>
@@ -27096,7 +27100,7 @@
         <v>1.06</v>
       </c>
       <c r="N187" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O187" t="n">
         <v>1.3</v>
@@ -27105,18 +27109,18 @@
         <v>3.4</v>
       </c>
       <c r="Q187" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R187" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S187" t="inlineStr"/>
       <c r="T187" t="inlineStr"/>
       <c r="U187" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V187" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W187" t="n">
         <v>1.4</v>
@@ -27278,7 +27282,7 @@
         <v>17</v>
       </c>
       <c r="AC188" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD188" t="n">
         <v>41</v>
@@ -27290,7 +27294,7 @@
         <v>41</v>
       </c>
       <c r="AG188" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH188" t="n">
         <v>6</v>
@@ -27361,13 +27365,13 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H189" t="n">
         <v>3.5</v>
       </c>
       <c r="I189" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J189" t="n">
         <v>2.75</v>
@@ -27376,13 +27380,13 @@
         <v>2.1</v>
       </c>
       <c r="L189" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M189" t="n">
         <v>1.06</v>
       </c>
       <c r="N189" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O189" t="n">
         <v>1.3</v>
@@ -27447,13 +27451,13 @@
         <v>51</v>
       </c>
       <c r="AK189" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL189" t="n">
         <v>10</v>
       </c>
       <c r="AM189" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN189" t="n">
         <v>13</v>
@@ -28640,7 +28644,7 @@
         <v>2.72</v>
       </c>
       <c r="I198" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="J198" t="n">
         <v>3.3</v>
@@ -28655,7 +28659,7 @@
         <v>1.09</v>
       </c>
       <c r="N198" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="O198" t="n">
         <v>1.37</v>
@@ -28687,10 +28691,10 @@
         <v>1.72</v>
       </c>
       <c r="Z198" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="AA198" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AB198" t="n">
         <v>14.5</v>
@@ -28708,7 +28712,7 @@
         <v>32</v>
       </c>
       <c r="AG198" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AH198" t="n">
         <v>5.3</v>
@@ -28726,7 +28730,7 @@
         <v>8.25</v>
       </c>
       <c r="AM198" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AN198" t="n">
         <v>9.75</v>
@@ -28738,7 +28742,7 @@
         <v>25</v>
       </c>
       <c r="AQ198" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AR198" t="inlineStr"/>
       <c r="AS198" t="inlineStr"/>
@@ -28775,16 +28779,16 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H199" t="n">
         <v>3.5</v>
       </c>
       <c r="I199" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J199" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K199" t="n">
         <v>2.2</v>
@@ -28805,18 +28809,18 @@
         <v>3.75</v>
       </c>
       <c r="Q199" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R199" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S199" t="inlineStr"/>
       <c r="T199" t="inlineStr"/>
       <c r="U199" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V199" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W199" t="n">
         <v>1.36</v>
@@ -28825,13 +28829,13 @@
         <v>3</v>
       </c>
       <c r="Y199" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z199" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA199" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB199" t="n">
         <v>10</v>
@@ -28846,7 +28850,7 @@
         <v>17</v>
       </c>
       <c r="AF199" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG199" t="n">
         <v>11</v>
@@ -28978,10 +28982,10 @@
         <v>8</v>
       </c>
       <c r="AC200" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD200" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE200" t="n">
         <v>15</v>
@@ -29057,19 +29061,19 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H201" t="n">
         <v>3.75</v>
       </c>
       <c r="I201" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J201" t="n">
         <v>2.4</v>
       </c>
       <c r="K201" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L201" t="n">
         <v>4</v>
@@ -29081,10 +29085,10 @@
         <v>15</v>
       </c>
       <c r="O201" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P201" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q201" t="n">
         <v>1.6</v>
@@ -29105,10 +29109,10 @@
         <v>1.5</v>
       </c>
       <c r="W201" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X201" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y201" t="n">
         <v>1.53</v>
@@ -29144,7 +29148,7 @@
         <v>12</v>
       </c>
       <c r="AJ201" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK201" t="n">
         <v>126</v>
@@ -29153,7 +29157,7 @@
         <v>15</v>
       </c>
       <c r="AM201" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN201" t="n">
         <v>13</v>
@@ -29162,7 +29166,7 @@
         <v>41</v>
       </c>
       <c r="AP201" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ201" t="n">
         <v>29</v>
@@ -29432,10 +29436,10 @@
         <v>4</v>
       </c>
       <c r="M204" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N204" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O204" t="n">
         <v>1.53</v>
@@ -29521,10 +29525,10 @@
         <v>41</v>
       </c>
       <c r="AR204" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="205">
@@ -29577,30 +29581,30 @@
         <v>9</v>
       </c>
       <c r="M205" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N205" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O205" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P205" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q205" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="R205" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S205" t="inlineStr"/>
       <c r="T205" t="inlineStr"/>
       <c r="U205" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V205" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W205" t="n">
         <v>1.4</v>
@@ -29700,7 +29704,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H206" t="n">
         <v>3.1</v>
@@ -29709,13 +29713,13 @@
         <v>2.9</v>
       </c>
       <c r="J206" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K206" t="n">
         <v>1.95</v>
       </c>
       <c r="L206" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M206" t="n">
         <v>1.1</v>
@@ -29777,7 +29781,7 @@
         <v>7</v>
       </c>
       <c r="AH206" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI206" t="n">
         <v>19</v>
@@ -29845,22 +29849,22 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H207" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I207" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="J207" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K207" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="L207" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M207" t="n">
         <v>1.11</v>
@@ -29875,7 +29879,7 @@
         <v>2.47</v>
       </c>
       <c r="Q207" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R207" t="n">
         <v>1.52</v>
@@ -29883,7 +29887,7 @@
       <c r="S207" t="inlineStr"/>
       <c r="T207" t="inlineStr"/>
       <c r="U207" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="V207" t="n">
         <v>1.19</v>
@@ -29892,64 +29896,64 @@
         <v>1.47</v>
       </c>
       <c r="X207" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="Y207" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Z207" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="AA207" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB207" t="n">
         <v>24</v>
       </c>
       <c r="AC207" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AD207" t="n">
         <v>80</v>
       </c>
       <c r="AE207" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AF207" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AG207" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AH207" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AI207" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ207" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AK207" t="n">
         <v>101</v>
       </c>
       <c r="AL207" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AM207" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AN207" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AO207" t="n">
         <v>15</v>
       </c>
       <c r="AP207" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ207" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AR207" t="inlineStr"/>
       <c r="AS207" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-15.xlsx
@@ -837,28 +837,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H3" t="n">
         <v>4.75</v>
       </c>
       <c r="I3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K3" t="n">
         <v>2.6</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O3" t="n">
         <v>1.17</v>
@@ -867,22 +867,22 @@
         <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S3" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="T3" t="n">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="U3" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
         <v>1.25</v>
@@ -891,10 +891,10 @@
         <v>3.75</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA3" t="n">
         <v>10</v>
@@ -903,10 +903,10 @@
         <v>9</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
         <v>12</v>
@@ -921,7 +921,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>51</v>
@@ -942,7 +942,7 @@
         <v>81</v>
       </c>
       <c r="AP3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
@@ -982,63 +982,63 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
         <v>3.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="R4" t="n">
-        <v>1.73</v>
+        <v>1.92</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="V4" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="W4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB4" t="n">
         <v>11</v>
@@ -1050,40 +1050,40 @@
         <v>21</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ4" t="n">
         <v>51</v>
       </c>
       <c r="AK4" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AL4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
         <v>41</v>
       </c>
       <c r="AP4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ4" t="n">
         <v>41</v>
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J5" t="n">
         <v>2.5</v>
@@ -1138,7 +1138,7 @@
         <v>2.6</v>
       </c>
       <c r="L5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
@@ -1147,30 +1147,30 @@
         <v>21</v>
       </c>
       <c r="O5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R5" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V5" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W5" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Y5" t="n">
         <v>1.36</v>
@@ -1179,16 +1179,16 @@
         <v>3</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
@@ -1197,16 +1197,16 @@
         <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH5" t="n">
         <v>9.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK5" t="n">
         <v>81</v>
@@ -1218,7 +1218,7 @@
         <v>26</v>
       </c>
       <c r="AN5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO5" t="n">
         <v>41</v>
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="H6" t="n">
         <v>4.5</v>
@@ -1276,28 +1276,28 @@
         <v>5.5</v>
       </c>
       <c r="K6" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L6" t="n">
         <v>1.95</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O6" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="S6" t="n">
         <v>1.83</v>
@@ -1306,10 +1306,10 @@
         <v>2.07</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="V6" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
         <v>1.25</v>
@@ -1318,10 +1318,10 @@
         <v>3.75</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA6" t="n">
         <v>23</v>
@@ -1342,13 +1342,13 @@
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
         <v>41</v>
@@ -1357,13 +1357,13 @@
         <v>151</v>
       </c>
       <c r="AL6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO6" t="n">
         <v>13</v>
@@ -1409,13 +1409,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H7" t="n">
         <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J7" t="n">
         <v>2.88</v>
@@ -1424,7 +1424,7 @@
         <v>2.38</v>
       </c>
       <c r="L7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1445,10 +1445,10 @@
         <v>2.38</v>
       </c>
       <c r="S7" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T7" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="U7" t="n">
         <v>2.38</v>
@@ -1487,16 +1487,16 @@
         <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
         <v>12</v>
       </c>
       <c r="AJ7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK7" t="n">
         <v>126</v>
@@ -1514,7 +1514,7 @@
         <v>34</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
         <v>26</v>
@@ -1554,22 +1554,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L8" t="n">
         <v>4.75</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>1.1</v>
@@ -1578,16 +1578,16 @@
         <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="R8" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -1613,13 +1613,13 @@
         <v>6</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC8" t="n">
         <v>10</v>
       </c>
       <c r="AD8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="n">
         <v>21</v>
@@ -1631,7 +1631,7 @@
         <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI8" t="n">
         <v>21</v>
@@ -1643,13 +1643,13 @@
         <v>501</v>
       </c>
       <c r="AL8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO8" t="n">
         <v>51</v>
@@ -1661,10 +1661,10 @@
         <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="9">
@@ -1702,10 +1702,10 @@
         <v>1.22</v>
       </c>
       <c r="H9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
         <v>1.62</v>
@@ -1717,10 +1717,10 @@
         <v>8.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O9" t="n">
         <v>1.11</v>
@@ -1741,10 +1741,10 @@
         <v>2.08</v>
       </c>
       <c r="U9" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
         <v>1.2</v>
@@ -1801,13 +1801,13 @@
         <v>26</v>
       </c>
       <c r="AO9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AP9" t="n">
         <v>51</v>
       </c>
       <c r="AQ9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
@@ -1844,7 +1844,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H10" t="n">
         <v>4.2</v>
@@ -1874,22 +1874,22 @@
         <v>4.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="R10" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S10" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="T10" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="U10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W10" t="n">
         <v>1.3</v>
@@ -1907,7 +1907,7 @@
         <v>8.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC10" t="n">
         <v>8.5</v>
@@ -1934,7 +1934,7 @@
         <v>41</v>
       </c>
       <c r="AK10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL10" t="n">
         <v>17</v>
@@ -1989,13 +1989,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H11" t="n">
         <v>4.33</v>
       </c>
       <c r="I11" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J11" t="n">
         <v>5.5</v>
@@ -2025,19 +2025,19 @@
         <v>2.3</v>
       </c>
       <c r="S11" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="T11" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W11" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="X11" t="n">
         <v>3.4</v>
@@ -2091,7 +2091,7 @@
         <v>8.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP11" t="n">
         <v>12</v>
@@ -2134,13 +2134,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H12" t="n">
         <v>4.5</v>
       </c>
       <c r="I12" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -2149,13 +2149,13 @@
         <v>2.5</v>
       </c>
       <c r="L12" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O12" t="n">
         <v>1.17</v>
@@ -2164,34 +2164,34 @@
         <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R12" t="n">
-        <v>2.63</v>
+        <v>2.32</v>
       </c>
       <c r="S12" t="n">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="T12" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="U12" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="V12" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W12" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X12" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AA12" t="n">
         <v>19</v>
@@ -2206,43 +2206,43 @@
         <v>51</v>
       </c>
       <c r="AE12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF12" t="n">
         <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH12" t="n">
         <v>8.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="n">
         <v>41</v>
       </c>
       <c r="AK12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM12" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AN12" t="n">
         <v>8.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
@@ -2279,22 +2279,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="n">
         <v>3.2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.1</v>
       </c>
       <c r="K13" t="n">
         <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M13" t="n">
         <v>1.08</v>
@@ -2309,10 +2309,10 @@
         <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R13" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -2329,16 +2329,16 @@
         <v>2.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AA13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
         <v>10</v>
@@ -2365,25 +2365,25 @@
         <v>51</v>
       </c>
       <c r="AK13" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL13" t="n">
         <v>8.5</v>
       </c>
       <c r="AM13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP13" t="n">
         <v>26</v>
       </c>
       <c r="AQ13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
@@ -2420,19 +2420,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I14" t="n">
         <v>5.25</v>
       </c>
       <c r="J14" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L14" t="n">
         <v>5</v>
@@ -2450,10 +2450,10 @@
         <v>5.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="R14" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="S14" t="n">
         <v>1.83</v>
@@ -2489,7 +2489,7 @@
         <v>8.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE14" t="n">
         <v>11</v>
@@ -2498,10 +2498,10 @@
         <v>19</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI14" t="n">
         <v>15</v>
@@ -2595,10 +2595,10 @@
         <v>4.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="R15" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
         <v>2.25</v>
@@ -2718,28 +2718,28 @@
         <v>3.5</v>
       </c>
       <c r="K16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L16" t="n">
         <v>2.88</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="R16" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="S16" t="n">
         <v>2.05</v>
@@ -2748,25 +2748,25 @@
         <v>1.85</v>
       </c>
       <c r="U16" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V16" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X16" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z16" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB16" t="n">
         <v>17</v>
@@ -2778,19 +2778,19 @@
         <v>34</v>
       </c>
       <c r="AE16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI16" t="n">
         <v>13</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>12</v>
       </c>
       <c r="AJ16" t="n">
         <v>41</v>
@@ -2799,7 +2799,7 @@
         <v>151</v>
       </c>
       <c r="AL16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM16" t="n">
         <v>12</v>
@@ -2851,7 +2851,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H17" t="n">
         <v>4.33</v>
@@ -2881,10 +2881,10 @@
         <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R17" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
         <v>2.07</v>
@@ -2905,10 +2905,10 @@
         <v>3.25</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA17" t="n">
         <v>7.5</v>
@@ -2929,10 +2929,10 @@
         <v>23</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>17</v>
@@ -2944,13 +2944,13 @@
         <v>251</v>
       </c>
       <c r="AL17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN17" t="n">
         <v>17</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>19</v>
       </c>
       <c r="AO17" t="n">
         <v>67</v>
@@ -2996,16 +2996,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H18" t="n">
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K18" t="n">
         <v>2</v>
@@ -3026,18 +3026,18 @@
         <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R18" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V18" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W18" t="n">
         <v>1.5</v>
@@ -3055,13 +3055,13 @@
         <v>7.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC18" t="n">
         <v>10</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>21</v>
@@ -3088,19 +3088,19 @@
         <v>8.5</v>
       </c>
       <c r="AM18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN18" t="n">
         <v>11</v>
       </c>
       <c r="AO18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP18" t="n">
         <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR18" t="n">
         <v>1.8</v>
@@ -3147,10 +3147,10 @@
         <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J19" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K19" t="n">
         <v>2.6</v>
@@ -3177,10 +3177,10 @@
         <v>2.38</v>
       </c>
       <c r="S19" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="T19" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="U19" t="n">
         <v>2.38</v>
@@ -3195,10 +3195,10 @@
         <v>3.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA19" t="n">
         <v>8</v>
@@ -3316,18 +3316,18 @@
         <v>6.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R20" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W20" t="n">
         <v>1.22</v>
@@ -3336,19 +3336,19 @@
         <v>4</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA20" t="n">
         <v>11</v>
       </c>
       <c r="AB20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC20" t="n">
         <v>9</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8.5</v>
       </c>
       <c r="AD20" t="n">
         <v>10</v>
@@ -3357,10 +3357,10 @@
         <v>10</v>
       </c>
       <c r="AF20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH20" t="n">
         <v>11</v>
@@ -3375,7 +3375,7 @@
         <v>151</v>
       </c>
       <c r="AL20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM20" t="n">
         <v>41</v>
@@ -3862,73 +3862,73 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="H24" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I24" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="J24" t="n">
         <v>5.5</v>
       </c>
       <c r="K24" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N24" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O24" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P24" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="R24" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="S24" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="T24" t="n">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="U24" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="V24" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="W24" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X24" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="Z24" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AA24" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AB24" t="n">
         <v>34</v>
       </c>
       <c r="AC24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD24" t="n">
         <v>67</v>
@@ -3940,10 +3940,10 @@
         <v>41</v>
       </c>
       <c r="AG24" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AH24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI24" t="n">
         <v>15</v>
@@ -3952,13 +3952,13 @@
         <v>41</v>
       </c>
       <c r="AK24" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM24" t="n">
         <v>9</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>8.5</v>
       </c>
       <c r="AN24" t="n">
         <v>8.5</v>
@@ -3970,7 +3970,7 @@
         <v>11</v>
       </c>
       <c r="AQ24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
@@ -4007,22 +4007,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="H25" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I25" t="n">
+        <v>8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L25" t="n">
         <v>7</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L25" t="n">
-        <v>6.5</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
@@ -4037,10 +4037,10 @@
         <v>4</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="R25" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -4057,52 +4057,52 @@
         <v>3</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA25" t="n">
         <v>7</v>
       </c>
       <c r="AB25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC25" t="n">
         <v>8.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE25" t="n">
         <v>12</v>
       </c>
       <c r="AF25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG25" t="n">
         <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI25" t="n">
         <v>19</v>
       </c>
       <c r="AJ25" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK25" t="n">
         <v>351</v>
       </c>
       <c r="AL25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO25" t="n">
         <v>81</v>
@@ -4154,7 +4154,7 @@
         <v>4.2</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J26" t="n">
         <v>2.2</v>
@@ -4169,7 +4169,7 @@
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O26" t="n">
         <v>1.25</v>
@@ -4225,7 +4225,7 @@
         <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI26" t="n">
         <v>17</v>
@@ -4240,10 +4240,10 @@
         <v>15</v>
       </c>
       <c r="AM26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO26" t="n">
         <v>51</v>
@@ -4400,10 +4400,10 @@
         <v>41</v>
       </c>
       <c r="AR27" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="28">
@@ -4438,46 +4438,46 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H28" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I28" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J28" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K28" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L28" t="n">
         <v>6.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O28" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P28" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R28" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S28" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="T28" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="U28" t="n">
         <v>4.33</v>
@@ -4492,10 +4492,10 @@
         <v>2.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA28" t="n">
         <v>5.5</v>
@@ -4507,16 +4507,16 @@
         <v>9</v>
       </c>
       <c r="AD28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF28" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG28" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH28" t="n">
         <v>7</v>
@@ -4531,13 +4531,13 @@
         <v>101</v>
       </c>
       <c r="AL28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM28" t="n">
         <v>29</v>
       </c>
       <c r="AN28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO28" t="n">
         <v>67</v>
@@ -4549,10 +4549,10 @@
         <v>51</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="29">
@@ -4605,10 +4605,10 @@
         <v>4.33</v>
       </c>
       <c r="M29" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O29" t="n">
         <v>1.5</v>
@@ -4617,16 +4617,16 @@
         <v>2.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R29" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S29" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T29" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="U29" t="n">
         <v>5</v>
@@ -4698,10 +4698,10 @@
         <v>51</v>
       </c>
       <c r="AR29" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="30">
@@ -4885,28 +4885,28 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="H31" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I31" t="n">
+        <v>3</v>
+      </c>
+      <c r="J31" t="n">
         <v>3.4</v>
       </c>
-      <c r="J31" t="n">
-        <v>3</v>
-      </c>
       <c r="K31" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M31" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O31" t="n">
         <v>1.44</v>
@@ -4921,10 +4921,10 @@
         <v>1.53</v>
       </c>
       <c r="S31" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="T31" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="U31" t="n">
         <v>4.5</v>
@@ -4939,31 +4939,31 @@
         <v>2.38</v>
       </c>
       <c r="Y31" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA31" t="n">
         <v>6.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG31" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH31" t="n">
         <v>6</v>
@@ -4978,16 +4978,16 @@
         <v>1250</v>
       </c>
       <c r="AL31" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AM31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN31" t="n">
         <v>12</v>
       </c>
       <c r="AO31" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AP31" t="n">
         <v>29</v>
@@ -4996,10 +4996,10 @@
         <v>41</v>
       </c>
       <c r="AR31" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -5034,28 +5034,28 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H32" t="n">
         <v>2.45</v>
       </c>
       <c r="I32" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J32" t="n">
         <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="L32" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="N32" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O32" t="n">
         <v>1.91</v>
@@ -5093,13 +5093,13 @@
         <v>5.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC32" t="n">
         <v>15</v>
       </c>
       <c r="AD32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE32" t="n">
         <v>41</v>
@@ -5108,7 +5108,7 @@
         <v>67</v>
       </c>
       <c r="AG32" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AH32" t="n">
         <v>6</v>
@@ -5123,16 +5123,16 @@
         <v>101</v>
       </c>
       <c r="AL32" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AM32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN32" t="n">
         <v>15</v>
       </c>
       <c r="AO32" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP32" t="n">
         <v>41</v>
@@ -5190,13 +5190,13 @@
         <v>1.8</v>
       </c>
       <c r="L33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M33" t="n">
         <v>1.17</v>
       </c>
       <c r="N33" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O33" t="n">
         <v>1.73</v>
@@ -5249,7 +5249,7 @@
         <v>51</v>
       </c>
       <c r="AG33" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AH33" t="n">
         <v>6</v>
@@ -5267,10 +5267,10 @@
         <v>5.5</v>
       </c>
       <c r="AM33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AN33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO33" t="n">
         <v>23</v>
@@ -5405,7 +5405,7 @@
         <v>101</v>
       </c>
       <c r="AL34" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM34" t="n">
         <v>29</v>
@@ -6170,13 +6170,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J40" t="n">
         <v>2.75</v>
@@ -6185,7 +6185,7 @@
         <v>1.95</v>
       </c>
       <c r="L40" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M40" t="n">
         <v>1.1</v>
@@ -6214,10 +6214,10 @@
         <v>1.17</v>
       </c>
       <c r="W40" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X40" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y40" t="n">
         <v>2.1</v>
@@ -6253,7 +6253,7 @@
         <v>19</v>
       </c>
       <c r="AJ40" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK40" t="n">
         <v>501</v>
@@ -6262,13 +6262,13 @@
         <v>9</v>
       </c>
       <c r="AM40" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN40" t="n">
         <v>15</v>
       </c>
       <c r="AO40" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP40" t="n">
         <v>41</v>
@@ -6315,10 +6315,10 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H41" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I41" t="n">
         <v>7</v>
@@ -6327,10 +6327,10 @@
         <v>1.91</v>
       </c>
       <c r="K41" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L41" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M41" t="n">
         <v>1.04</v>
@@ -6363,10 +6363,10 @@
         <v>1.4</v>
       </c>
       <c r="W41" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X41" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y41" t="n">
         <v>2.05</v>
@@ -6393,7 +6393,7 @@
         <v>29</v>
       </c>
       <c r="AG41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH41" t="n">
         <v>9.5</v>
@@ -6411,7 +6411,7 @@
         <v>17</v>
       </c>
       <c r="AM41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN41" t="n">
         <v>21</v>
@@ -6463,45 +6463,45 @@
         <v>3</v>
       </c>
       <c r="H42" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I42" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J42" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K42" t="n">
         <v>2.1</v>
       </c>
       <c r="L42" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M42" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O42" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P42" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="R42" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V42" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="W42" t="n">
         <v>1.4</v>
@@ -6510,13 +6510,13 @@
         <v>2.75</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z42" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB42" t="n">
         <v>15</v>
@@ -6525,19 +6525,19 @@
         <v>11</v>
       </c>
       <c r="AD42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE42" t="n">
         <v>23</v>
       </c>
       <c r="AF42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG42" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AH42" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI42" t="n">
         <v>13</v>
@@ -6558,13 +6558,13 @@
         <v>9.5</v>
       </c>
       <c r="AO42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP42" t="n">
         <v>19</v>
       </c>
       <c r="AQ42" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR42" t="inlineStr"/>
       <c r="AS42" t="inlineStr"/>
@@ -6601,34 +6601,34 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="H43" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="I43" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J43" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="K43" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L43" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="M43" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N43" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O43" t="n">
         <v>1.6</v>
       </c>
       <c r="P43" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="Q43" t="n">
         <v>2.7</v>
@@ -6648,40 +6648,40 @@
         <v>1.62</v>
       </c>
       <c r="X43" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="Z43" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AA43" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AB43" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AC43" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AD43" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AE43" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF43" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG43" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AH43" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AI43" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AJ43" t="n">
         <v>200</v>
@@ -6690,16 +6690,16 @@
         <v>101</v>
       </c>
       <c r="AL43" t="n">
-        <v>4.65</v>
+        <v>4.45</v>
       </c>
       <c r="AM43" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="AN43" t="n">
         <v>9.5</v>
       </c>
       <c r="AO43" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AP43" t="n">
         <v>21</v>
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H44" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I44" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J44" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K44" t="n">
         <v>2.05</v>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M44" t="n">
         <v>1.07</v>
@@ -6801,7 +6801,7 @@
         <v>7</v>
       </c>
       <c r="AB44" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC44" t="n">
         <v>9</v>
@@ -6831,10 +6831,10 @@
         <v>301</v>
       </c>
       <c r="AL44" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM44" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN44" t="n">
         <v>13</v>
@@ -6843,7 +6843,7 @@
         <v>41</v>
       </c>
       <c r="AP44" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ44" t="n">
         <v>41</v>
@@ -6895,7 +6895,7 @@
         <v>2.25</v>
       </c>
       <c r="K45" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L45" t="n">
         <v>4.75</v>
@@ -6913,10 +6913,10 @@
         <v>4</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R45" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S45" t="n">
         <v>2</v>
@@ -6937,16 +6937,16 @@
         <v>3.25</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Z45" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AA45" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB45" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>9</v>
       </c>
       <c r="AC45" t="n">
         <v>8.5</v>
@@ -6958,10 +6958,10 @@
         <v>13</v>
       </c>
       <c r="AF45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH45" t="n">
         <v>8</v>
@@ -6970,7 +6970,7 @@
         <v>15</v>
       </c>
       <c r="AJ45" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK45" t="n">
         <v>201</v>
@@ -7028,22 +7028,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H46" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I46" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J46" t="n">
         <v>4.33</v>
       </c>
       <c r="K46" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L46" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M46" t="n">
         <v>1.03</v>
@@ -7052,40 +7052,40 @@
         <v>17</v>
       </c>
       <c r="O46" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P46" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="R46" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S46" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T46" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U46" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V46" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W46" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X46" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z46" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA46" t="n">
         <v>15</v>
@@ -7106,7 +7106,7 @@
         <v>29</v>
       </c>
       <c r="AG46" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH46" t="n">
         <v>8</v>
@@ -7118,13 +7118,13 @@
         <v>41</v>
       </c>
       <c r="AK46" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL46" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM46" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AN46" t="n">
         <v>8.5</v>
@@ -7344,10 +7344,10 @@
         <v>4</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R48" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
@@ -7882,16 +7882,16 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H52" t="n">
         <v>4.75</v>
       </c>
       <c r="I52" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="J52" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="K52" t="n">
         <v>2.3</v>
@@ -7900,10 +7900,10 @@
         <v>1.83</v>
       </c>
       <c r="M52" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N52" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O52" t="n">
         <v>1.3</v>
@@ -7912,18 +7912,18 @@
         <v>3.4</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="R52" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V52" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W52" t="n">
         <v>1.4</v>
@@ -7932,22 +7932,22 @@
         <v>2.75</v>
       </c>
       <c r="Y52" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="Z52" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AA52" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB52" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC52" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD52" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE52" t="n">
         <v>81</v>
@@ -7956,7 +7956,7 @@
         <v>81</v>
       </c>
       <c r="AG52" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH52" t="n">
         <v>9.5</v>
@@ -8023,13 +8023,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H53" t="n">
         <v>3.3</v>
       </c>
       <c r="I53" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J53" t="n">
         <v>3.2</v>
@@ -8053,10 +8053,10 @@
         <v>3.4</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="R53" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="S53" t="n">
         <v>2.75</v>
@@ -8077,7 +8077,7 @@
         <v>2.75</v>
       </c>
       <c r="Y53" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Z53" t="n">
         <v>2</v>
@@ -8172,22 +8172,22 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="H54" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I54" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J54" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K54" t="n">
         <v>2.3</v>
       </c>
       <c r="L54" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M54" t="n">
         <v>1.04</v>
@@ -8226,10 +8226,10 @@
         <v>3</v>
       </c>
       <c r="Y54" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Z54" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AA54" t="n">
         <v>7.5</v>
@@ -8241,7 +8241,7 @@
         <v>8.5</v>
       </c>
       <c r="AD54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE54" t="n">
         <v>13</v>
@@ -8262,16 +8262,16 @@
         <v>51</v>
       </c>
       <c r="AK54" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL54" t="n">
         <v>15</v>
       </c>
       <c r="AM54" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO54" t="n">
         <v>51</v>
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H55" t="n">
         <v>5</v>
@@ -8330,13 +8330,13 @@
         <v>5.5</v>
       </c>
       <c r="J55" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K55" t="n">
         <v>2.4</v>
       </c>
       <c r="L55" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M55" t="n">
         <v>1.03</v>
@@ -8470,16 +8470,16 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H56" t="n">
         <v>3.4</v>
       </c>
       <c r="I56" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J56" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K56" t="n">
         <v>2.05</v>
@@ -8506,10 +8506,10 @@
         <v>1.57</v>
       </c>
       <c r="S56" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T56" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="U56" t="n">
         <v>4.33</v>
@@ -8530,7 +8530,7 @@
         <v>1.53</v>
       </c>
       <c r="AA56" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB56" t="n">
         <v>6</v>
@@ -8637,10 +8637,10 @@
         <v>4.33</v>
       </c>
       <c r="M57" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N57" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O57" t="n">
         <v>1.5</v>
@@ -8875,10 +8875,10 @@
         <v>41</v>
       </c>
       <c r="AR58" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="59">
@@ -8913,28 +8913,28 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="H59" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="I59" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="J59" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K59" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="L59" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="M59" t="n">
         <v>1.03</v>
       </c>
       <c r="N59" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O59" t="n">
         <v>1.18</v>
@@ -8943,16 +8943,16 @@
         <v>4.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R59" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S59" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T59" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U59" t="n">
         <v>2.5</v>
@@ -8961,16 +8961,16 @@
         <v>1.5</v>
       </c>
       <c r="W59" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X59" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y59" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z59" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AA59" t="n">
         <v>7.5</v>
@@ -8982,43 +8982,43 @@
         <v>9</v>
       </c>
       <c r="AD59" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE59" t="n">
         <v>11</v>
       </c>
       <c r="AF59" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG59" t="n">
         <v>15</v>
       </c>
       <c r="AH59" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI59" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ59" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK59" t="n">
         <v>351</v>
       </c>
       <c r="AL59" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM59" t="n">
         <v>41</v>
       </c>
       <c r="AN59" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO59" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AP59" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AQ59" t="n">
         <v>51</v>
@@ -9199,7 +9199,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="H61" t="n">
         <v>3.85</v>
@@ -9208,31 +9208,31 @@
         <v>1.62</v>
       </c>
       <c r="J61" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K61" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L61" t="n">
         <v>2.18</v>
       </c>
       <c r="M61" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N61" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="O61" t="n">
         <v>1.28</v>
       </c>
       <c r="P61" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R61" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
@@ -9246,13 +9246,13 @@
         <v>1.4</v>
       </c>
       <c r="X61" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Y61" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="Z61" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="AA61" t="n">
         <v>13.5</v>
@@ -9264,7 +9264,7 @@
         <v>17.5</v>
       </c>
       <c r="AD61" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AE61" t="n">
         <v>55</v>
@@ -9273,7 +9273,7 @@
         <v>55</v>
       </c>
       <c r="AG61" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AH61" t="n">
         <v>7.8</v>
@@ -9288,10 +9288,10 @@
         <v>700</v>
       </c>
       <c r="AL61" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AM61" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AN61" t="n">
         <v>8.5</v>
@@ -9484,7 +9484,7 @@
         <v>5.75</v>
       </c>
       <c r="H63" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I63" t="n">
         <v>1.6</v>
@@ -9502,7 +9502,7 @@
         <v>1.06</v>
       </c>
       <c r="N63" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O63" t="n">
         <v>1.3</v>
@@ -9511,10 +9511,10 @@
         <v>3.4</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R63" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>1.7</v>
       </c>
       <c r="H64" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I64" t="n">
         <v>5</v>
@@ -9640,10 +9640,10 @@
         <v>5.5</v>
       </c>
       <c r="M64" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N64" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O64" t="n">
         <v>1.36</v>
@@ -9708,7 +9708,7 @@
         <v>67</v>
       </c>
       <c r="AK64" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AL64" t="n">
         <v>11</v>
@@ -9926,13 +9926,13 @@
         <v>4</v>
       </c>
       <c r="M66" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N66" t="n">
         <v>9</v>
       </c>
       <c r="O66" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P66" t="n">
         <v>3.25</v>
@@ -9949,7 +9949,7 @@
         <v>3.75</v>
       </c>
       <c r="V66" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W66" t="n">
         <v>1.44</v>
@@ -10067,13 +10067,13 @@
         <v>2.2</v>
       </c>
       <c r="M67" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N67" t="n">
         <v>10</v>
       </c>
       <c r="O67" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P67" t="n">
         <v>3.4</v>
@@ -10090,7 +10090,7 @@
         <v>3.5</v>
       </c>
       <c r="V67" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W67" t="n">
         <v>1.4</v>
@@ -10190,16 +10190,16 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H68" t="n">
         <v>3.2</v>
       </c>
       <c r="I68" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J68" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K68" t="n">
         <v>2.05</v>
@@ -10208,16 +10208,16 @@
         <v>4.33</v>
       </c>
       <c r="M68" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N68" t="n">
         <v>8</v>
       </c>
       <c r="O68" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P68" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q68" t="n">
         <v>2.25</v>
@@ -10231,7 +10231,7 @@
         <v>4</v>
       </c>
       <c r="V68" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="W68" t="n">
         <v>1.5</v>
@@ -10252,10 +10252,10 @@
         <v>9</v>
       </c>
       <c r="AC68" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD68" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE68" t="n">
         <v>19</v>
@@ -10282,7 +10282,7 @@
         <v>9.5</v>
       </c>
       <c r="AM68" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN68" t="n">
         <v>13</v>
@@ -10756,45 +10756,45 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="H72" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I72" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="J72" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K72" t="n">
         <v>2.2</v>
       </c>
       <c r="L72" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M72" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N72" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O72" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P72" t="n">
         <v>3.5</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R72" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V72" t="n">
         <v>1.3</v>
@@ -10815,16 +10815,16 @@
         <v>7</v>
       </c>
       <c r="AB72" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC72" t="n">
         <v>8.5</v>
       </c>
       <c r="AD72" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE72" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF72" t="n">
         <v>26</v>
@@ -10833,31 +10833,31 @@
         <v>10</v>
       </c>
       <c r="AH72" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI72" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ72" t="n">
         <v>51</v>
       </c>
       <c r="AK72" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL72" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM72" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN72" t="n">
         <v>15</v>
       </c>
       <c r="AO72" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP72" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ72" t="n">
         <v>41</v>
@@ -10900,7 +10900,7 @@
         <v>2.38</v>
       </c>
       <c r="H73" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I73" t="n">
         <v>2.9</v>
@@ -10909,28 +10909,28 @@
         <v>3.1</v>
       </c>
       <c r="K73" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L73" t="n">
         <v>3.5</v>
       </c>
       <c r="M73" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N73" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O73" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P73" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q73" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="R73" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
@@ -10938,7 +10938,7 @@
         <v>3.4</v>
       </c>
       <c r="V73" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W73" t="n">
         <v>1.4</v>
@@ -10947,13 +10947,13 @@
         <v>2.75</v>
       </c>
       <c r="Y73" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Z73" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA73" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB73" t="n">
         <v>12</v>
@@ -10968,13 +10968,13 @@
         <v>19</v>
       </c>
       <c r="AF73" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG73" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH73" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI73" t="n">
         <v>13</v>
@@ -10986,7 +10986,7 @@
         <v>201</v>
       </c>
       <c r="AL73" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM73" t="n">
         <v>15</v>
@@ -11001,7 +11001,7 @@
         <v>23</v>
       </c>
       <c r="AQ73" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR73" t="inlineStr"/>
       <c r="AS73" t="inlineStr"/>
@@ -11038,31 +11038,31 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="H74" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I74" t="n">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="J74" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K74" t="n">
         <v>2</v>
       </c>
       <c r="L74" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="M74" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N74" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O74" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P74" t="n">
         <v>3</v>
@@ -11076,10 +11076,10 @@
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V74" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="W74" t="n">
         <v>1.5</v>
@@ -11088,58 +11088,58 @@
         <v>2.5</v>
       </c>
       <c r="Y74" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="Z74" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AA74" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG74" t="n">
         <v>8.5</v>
       </c>
-      <c r="AB74" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>8</v>
-      </c>
       <c r="AH74" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI74" t="n">
         <v>17</v>
       </c>
       <c r="AJ74" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK74" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AL74" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AM74" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AN74" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO74" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AP74" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ74" t="n">
         <v>34</v>
@@ -11179,40 +11179,40 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H75" t="n">
         <v>3.9</v>
       </c>
       <c r="I75" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J75" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K75" t="n">
         <v>2.38</v>
       </c>
       <c r="L75" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M75" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N75" t="n">
         <v>13</v>
       </c>
       <c r="O75" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="P75" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R75" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S75" t="n">
         <v>2.05</v>
@@ -11221,73 +11221,73 @@
         <v>1.8</v>
       </c>
       <c r="U75" t="n">
-        <v>2.57</v>
+        <v>2.75</v>
       </c>
       <c r="V75" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="W75" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X75" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y75" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z75" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA75" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB75" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC75" t="n">
         <v>8.5</v>
       </c>
       <c r="AD75" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE75" t="n">
         <v>12</v>
       </c>
       <c r="AF75" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG75" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH75" t="n">
         <v>7.5</v>
       </c>
       <c r="AI75" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ75" t="n">
         <v>41</v>
       </c>
       <c r="AK75" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL75" t="n">
         <v>17</v>
       </c>
       <c r="AM75" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN75" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO75" t="n">
         <v>51</v>
       </c>
       <c r="AP75" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ75" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR75" t="inlineStr"/>
       <c r="AS75" t="inlineStr"/>
@@ -11324,34 +11324,34 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="H76" t="n">
         <v>3</v>
       </c>
       <c r="I76" t="n">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="J76" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K76" t="n">
         <v>1.91</v>
       </c>
       <c r="L76" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M76" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N76" t="n">
         <v>6.5</v>
       </c>
       <c r="O76" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="P76" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q76" t="n">
         <v>2.63</v>
@@ -11365,7 +11365,7 @@
         <v>5</v>
       </c>
       <c r="V76" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="W76" t="n">
         <v>1.57</v>
@@ -11380,19 +11380,19 @@
         <v>1.67</v>
       </c>
       <c r="AA76" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB76" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC76" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD76" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE76" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF76" t="n">
         <v>41</v>
@@ -11416,16 +11416,16 @@
         <v>6.5</v>
       </c>
       <c r="AM76" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN76" t="n">
         <v>11</v>
       </c>
       <c r="AO76" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP76" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ76" t="n">
         <v>41</v>
@@ -11484,7 +11484,7 @@
         <v>2.1</v>
       </c>
       <c r="L77" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M77" t="n">
         <v>1.06</v>
@@ -11499,10 +11499,10 @@
         <v>3.4</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R77" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
@@ -11519,10 +11519,10 @@
         <v>2.63</v>
       </c>
       <c r="Y77" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Z77" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AA77" t="n">
         <v>8</v>
@@ -11558,7 +11558,7 @@
         <v>251</v>
       </c>
       <c r="AL77" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM77" t="n">
         <v>15</v>
@@ -11610,48 +11610,48 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H78" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I78" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J78" t="n">
         <v>3</v>
       </c>
-      <c r="J78" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K78" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L78" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M78" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N78" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O78" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P78" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="R78" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="V78" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="W78" t="n">
         <v>1.4</v>
@@ -11660,34 +11660,34 @@
         <v>2.75</v>
       </c>
       <c r="Y78" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="Z78" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA78" t="n">
         <v>8.5</v>
       </c>
       <c r="AB78" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC78" t="n">
         <v>9.5</v>
       </c>
       <c r="AD78" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE78" t="n">
         <v>19</v>
       </c>
       <c r="AF78" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG78" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AH78" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI78" t="n">
         <v>13</v>
@@ -11699,22 +11699,22 @@
         <v>201</v>
       </c>
       <c r="AL78" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AM78" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN78" t="n">
         <v>11</v>
       </c>
       <c r="AO78" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP78" t="n">
         <v>23</v>
       </c>
       <c r="AQ78" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR78" t="inlineStr"/>
       <c r="AS78" t="inlineStr"/>
@@ -12033,87 +12033,87 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H81" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="J81" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K81" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L81" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M81" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N81" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O81" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P81" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="R81" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V81" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W81" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X81" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y81" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z81" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA81" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB81" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC81" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD81" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE81" t="n">
         <v>19</v>
       </c>
       <c r="AF81" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG81" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH81" t="n">
         <v>6.5</v>
       </c>
       <c r="AI81" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ81" t="n">
         <v>41</v>
@@ -12122,22 +12122,22 @@
         <v>151</v>
       </c>
       <c r="AL81" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM81" t="n">
         <v>15</v>
       </c>
       <c r="AN81" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO81" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP81" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ81" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR81" t="inlineStr"/>
       <c r="AS81" t="inlineStr"/>
@@ -12174,108 +12174,108 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="H82" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="I82" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J82" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="K82" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L82" t="n">
         <v>6</v>
       </c>
       <c r="M82" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N82" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O82" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P82" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="R82" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="V82" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="W82" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="X82" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Y82" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="Z82" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="AA82" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB82" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC82" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD82" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE82" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF82" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG82" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AH82" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI82" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ82" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK82" t="n">
         <v>451</v>
       </c>
       <c r="AL82" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AM82" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN82" t="n">
         <v>17</v>
       </c>
       <c r="AO82" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP82" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ82" t="n">
         <v>51</v>
@@ -12315,108 +12315,108 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="H83" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I83" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="J83" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K83" t="n">
         <v>2.25</v>
       </c>
       <c r="L83" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M83" t="n">
         <v>1.04</v>
       </c>
       <c r="N83" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O83" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P83" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R83" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V83" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W83" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X83" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y83" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="Z83" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA83" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB83" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC83" t="n">
         <v>8.5</v>
       </c>
       <c r="AD83" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE83" t="n">
         <v>15</v>
-      </c>
-      <c r="AE83" t="n">
-        <v>13</v>
       </c>
       <c r="AF83" t="n">
         <v>23</v>
       </c>
       <c r="AG83" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH83" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI83" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ83" t="n">
         <v>41</v>
       </c>
       <c r="AK83" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL83" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM83" t="n">
         <v>21</v>
       </c>
       <c r="AN83" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO83" t="n">
         <v>41</v>
       </c>
       <c r="AP83" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ83" t="n">
         <v>34</v>
@@ -12456,22 +12456,22 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H84" t="n">
         <v>3.4</v>
       </c>
       <c r="I84" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J84" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K84" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L84" t="n">
         <v>3.25</v>
-      </c>
-      <c r="K84" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L84" t="n">
-        <v>3.4</v>
       </c>
       <c r="M84" t="n">
         <v>1.06</v>
@@ -12486,10 +12486,10 @@
         <v>3.25</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R84" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
@@ -12515,7 +12515,7 @@
         <v>8</v>
       </c>
       <c r="AB84" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC84" t="n">
         <v>10</v>
@@ -12524,7 +12524,7 @@
         <v>26</v>
       </c>
       <c r="AE84" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF84" t="n">
         <v>34</v>
@@ -12548,7 +12548,7 @@
         <v>8</v>
       </c>
       <c r="AM84" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN84" t="n">
         <v>10</v>
@@ -12627,10 +12627,10 @@
         <v>3.75</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R85" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
@@ -12738,13 +12738,13 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H86" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I86" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J86" t="n">
         <v>2.63</v>
@@ -12753,13 +12753,13 @@
         <v>2</v>
       </c>
       <c r="L86" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M86" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N86" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O86" t="n">
         <v>1.4</v>
@@ -12803,10 +12803,10 @@
         <v>9</v>
       </c>
       <c r="AD86" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE86" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF86" t="n">
         <v>34</v>
@@ -12815,7 +12815,7 @@
         <v>8</v>
       </c>
       <c r="AH86" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI86" t="n">
         <v>19</v>
@@ -12839,7 +12839,7 @@
         <v>41</v>
       </c>
       <c r="AP86" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ86" t="n">
         <v>41</v>
@@ -12883,13 +12883,13 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H87" t="n">
         <v>3.3</v>
       </c>
       <c r="I87" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J87" t="n">
         <v>3.6</v>
@@ -12901,10 +12901,10 @@
         <v>3</v>
       </c>
       <c r="M87" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N87" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O87" t="n">
         <v>1.29</v>
@@ -12913,10 +12913,10 @@
         <v>3.5</v>
       </c>
       <c r="Q87" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R87" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
@@ -12939,7 +12939,7 @@
         <v>2</v>
       </c>
       <c r="AA87" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB87" t="n">
         <v>15</v>
@@ -12948,7 +12948,7 @@
         <v>11</v>
       </c>
       <c r="AD87" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE87" t="n">
         <v>23</v>
@@ -12972,22 +12972,22 @@
         <v>201</v>
       </c>
       <c r="AL87" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM87" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN87" t="n">
         <v>9.5</v>
       </c>
       <c r="AO87" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP87" t="n">
         <v>19</v>
       </c>
       <c r="AQ87" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR87" t="inlineStr"/>
       <c r="AS87" t="inlineStr"/>
@@ -13024,10 +13024,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H88" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I88" t="n">
         <v>1.95</v>
@@ -13036,10 +13036,10 @@
         <v>4.5</v>
       </c>
       <c r="K88" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L88" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M88" t="n">
         <v>1.07</v>
@@ -13048,16 +13048,16 @@
         <v>9</v>
       </c>
       <c r="O88" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P88" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R88" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
@@ -13074,13 +13074,13 @@
         <v>2.63</v>
       </c>
       <c r="Y88" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Z88" t="n">
         <v>1.8</v>
       </c>
-      <c r="Z88" t="n">
-        <v>1.95</v>
-      </c>
       <c r="AA88" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB88" t="n">
         <v>21</v>
@@ -13098,10 +13098,10 @@
         <v>41</v>
       </c>
       <c r="AG88" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH88" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI88" t="n">
         <v>15</v>
@@ -13110,13 +13110,13 @@
         <v>51</v>
       </c>
       <c r="AK88" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AL88" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM88" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN88" t="n">
         <v>9</v>
@@ -13165,22 +13165,22 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="H89" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I89" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="J89" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K89" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L89" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M89" t="n">
         <v>1.05</v>
@@ -13195,18 +13195,18 @@
         <v>3.4</v>
       </c>
       <c r="Q89" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R89" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V89" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W89" t="n">
         <v>1.4</v>
@@ -13221,25 +13221,25 @@
         <v>1.95</v>
       </c>
       <c r="AA89" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB89" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC89" t="n">
         <v>9</v>
       </c>
-      <c r="AC89" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AD89" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE89" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF89" t="n">
         <v>26</v>
       </c>
       <c r="AG89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH89" t="n">
         <v>7</v>
@@ -13254,22 +13254,22 @@
         <v>251</v>
       </c>
       <c r="AL89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM89" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN89" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO89" t="n">
         <v>41</v>
       </c>
       <c r="AP89" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ89" t="n">
         <v>34</v>
-      </c>
-      <c r="AQ89" t="n">
-        <v>41</v>
       </c>
       <c r="AR89" t="inlineStr"/>
       <c r="AS89" t="inlineStr"/>
@@ -13330,24 +13330,24 @@
         <v>7</v>
       </c>
       <c r="O90" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P90" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R90" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V90" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W90" t="n">
         <v>1.57</v>
@@ -13413,10 +13413,10 @@
         <v>41</v>
       </c>
       <c r="AR90" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="91">
@@ -13613,7 +13613,7 @@
         <v>1.08</v>
       </c>
       <c r="N92" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O92" t="n">
         <v>1.4</v>
@@ -13622,10 +13622,10 @@
         <v>2.75</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R92" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
@@ -14204,16 +14204,16 @@
         <v>2.35</v>
       </c>
       <c r="S96" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T96" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U96" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V96" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W96" t="n">
         <v>1.29</v>
@@ -15167,28 +15167,28 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H103" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I103" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J103" t="n">
         <v>3</v>
-      </c>
-      <c r="J103" t="n">
-        <v>3.2</v>
       </c>
       <c r="K103" t="n">
         <v>2</v>
       </c>
       <c r="L103" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M103" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N103" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O103" t="n">
         <v>1.4</v>
@@ -15197,10 +15197,10 @@
         <v>2.75</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R103" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S103" t="n">
         <v>3.4</v>
@@ -15227,16 +15227,16 @@
         <v>1.8</v>
       </c>
       <c r="AA103" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB103" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AC103" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD103" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE103" t="n">
         <v>21</v>
@@ -15257,10 +15257,10 @@
         <v>51</v>
       </c>
       <c r="AK103" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AL103" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM103" t="n">
         <v>15</v>
@@ -15269,7 +15269,7 @@
         <v>12</v>
       </c>
       <c r="AO103" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP103" t="n">
         <v>29</v>
@@ -15278,7 +15278,7 @@
         <v>41</v>
       </c>
       <c r="AR103" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="AS103" t="n">
         <v>2.17</v>
@@ -15631,7 +15631,7 @@
         <v>1.06</v>
       </c>
       <c r="N106" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O106" t="n">
         <v>1.33</v>
@@ -15640,18 +15640,18 @@
         <v>3.25</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R106" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S106" t="inlineStr"/>
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V106" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W106" t="n">
         <v>1.44</v>
@@ -15684,13 +15684,13 @@
         <v>29</v>
       </c>
       <c r="AG106" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH106" t="n">
         <v>6.5</v>
       </c>
       <c r="AI106" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ106" t="n">
         <v>51</v>
@@ -15699,7 +15699,7 @@
         <v>301</v>
       </c>
       <c r="AL106" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM106" t="n">
         <v>19</v>
@@ -15754,19 +15754,19 @@
         <v>3.2</v>
       </c>
       <c r="H107" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I107" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J107" t="n">
         <v>3.75</v>
       </c>
       <c r="K107" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L107" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M107" t="n">
         <v>1.04</v>
@@ -15781,10 +15781,10 @@
         <v>4</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R107" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S107" t="inlineStr"/>
       <c r="T107" t="inlineStr"/>
@@ -15810,7 +15810,7 @@
         <v>12</v>
       </c>
       <c r="AB107" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC107" t="n">
         <v>12</v>
@@ -15825,10 +15825,10 @@
         <v>29</v>
       </c>
       <c r="AG107" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH107" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI107" t="n">
         <v>13</v>
@@ -16444,13 +16444,13 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H112" t="n">
         <v>3.2</v>
       </c>
       <c r="I112" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J112" t="n">
         <v>3.1</v>
@@ -16459,25 +16459,25 @@
         <v>2.1</v>
       </c>
       <c r="L112" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M112" t="n">
         <v>1.06</v>
       </c>
       <c r="N112" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O112" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P112" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q112" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R112" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
@@ -16488,22 +16488,22 @@
         <v>1.29</v>
       </c>
       <c r="W112" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X112" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y112" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z112" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA112" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB112" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC112" t="n">
         <v>9.5</v>
@@ -16518,7 +16518,7 @@
         <v>29</v>
       </c>
       <c r="AG112" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH112" t="n">
         <v>6.5</v>
@@ -16760,10 +16760,10 @@
         <v>3.75</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R114" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr"/>
@@ -16774,10 +16774,10 @@
         <v>1.33</v>
       </c>
       <c r="W114" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X114" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y114" t="n">
         <v>1.73</v>
@@ -16813,13 +16813,13 @@
         <v>15</v>
       </c>
       <c r="AJ114" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK114" t="n">
         <v>201</v>
       </c>
       <c r="AL114" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM114" t="n">
         <v>9.5</v>
@@ -16871,22 +16871,22 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H115" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I115" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J115" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K115" t="n">
         <v>2</v>
       </c>
       <c r="L115" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M115" t="n">
         <v>1.07</v>
@@ -16960,7 +16960,7 @@
         <v>351</v>
       </c>
       <c r="AL115" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM115" t="n">
         <v>11</v>
@@ -17012,28 +17012,28 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H116" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I116" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="J116" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K116" t="n">
         <v>2.05</v>
       </c>
       <c r="L116" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M116" t="n">
         <v>1.07</v>
       </c>
       <c r="N116" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O116" t="n">
         <v>1.36</v>
@@ -17050,70 +17050,70 @@
       <c r="S116" t="inlineStr"/>
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V116" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W116" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X116" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y116" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z116" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA116" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB116" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC116" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD116" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE116" t="n">
         <v>19</v>
       </c>
       <c r="AF116" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG116" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH116" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI116" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ116" t="n">
         <v>51</v>
       </c>
       <c r="AK116" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL116" t="n">
         <v>9.5</v>
       </c>
       <c r="AM116" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN116" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO116" t="n">
         <v>41</v>
       </c>
       <c r="AP116" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ116" t="n">
         <v>41</v>
@@ -17874,13 +17874,13 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="H122" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I122" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J122" t="n">
         <v>4.33</v>
@@ -17889,66 +17889,66 @@
         <v>2.05</v>
       </c>
       <c r="L122" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M122" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N122" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O122" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P122" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q122" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R122" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S122" t="inlineStr"/>
       <c r="T122" t="inlineStr"/>
       <c r="U122" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V122" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W122" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X122" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y122" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z122" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA122" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB122" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC122" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD122" t="n">
         <v>41</v>
       </c>
       <c r="AE122" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF122" t="n">
         <v>41</v>
       </c>
       <c r="AG122" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH122" t="n">
         <v>6</v>
@@ -17960,25 +17960,25 @@
         <v>51</v>
       </c>
       <c r="AK122" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL122" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM122" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AN122" t="n">
         <v>9</v>
       </c>
       <c r="AO122" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP122" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ122" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR122" t="inlineStr"/>
       <c r="AS122" t="inlineStr"/>
@@ -21004,28 +21004,28 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="H144" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I144" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="J144" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K144" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L144" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M144" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N144" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O144" t="n">
         <v>1.44</v>
@@ -21034,42 +21034,42 @@
         <v>2.63</v>
       </c>
       <c r="Q144" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R144" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S144" t="inlineStr"/>
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V144" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W144" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X144" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y144" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z144" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AA144" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB144" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC144" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD144" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE144" t="n">
         <v>23</v>
@@ -21081,7 +21081,7 @@
         <v>6.5</v>
       </c>
       <c r="AH144" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI144" t="n">
         <v>17</v>
@@ -21093,28 +21093,28 @@
         <v>251</v>
       </c>
       <c r="AL144" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM144" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN144" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO144" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP144" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ144" t="n">
         <v>41</v>
       </c>
       <c r="AR144" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="145">
@@ -21294,16 +21294,16 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H146" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I146" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J146" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K146" t="n">
         <v>2.4</v>
@@ -21312,46 +21312,46 @@
         <v>2.88</v>
       </c>
       <c r="M146" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N146" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O146" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P146" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q146" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R146" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S146" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="T146" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="U146" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V146" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W146" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X146" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y146" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Z146" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AA146" t="n">
         <v>13</v>
@@ -21369,10 +21369,10 @@
         <v>19</v>
       </c>
       <c r="AF146" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG146" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH146" t="n">
         <v>7.5</v>
@@ -21381,19 +21381,19 @@
         <v>11</v>
       </c>
       <c r="AJ146" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK146" t="n">
         <v>101</v>
       </c>
       <c r="AL146" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM146" t="n">
         <v>15</v>
       </c>
       <c r="AN146" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO146" t="n">
         <v>23</v>
@@ -21457,10 +21457,10 @@
         <v>3.4</v>
       </c>
       <c r="M147" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N147" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O147" t="n">
         <v>1.44</v>
@@ -21725,22 +21725,22 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H149" t="n">
         <v>3.5</v>
       </c>
       <c r="I149" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J149" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K149" t="n">
         <v>2.1</v>
       </c>
       <c r="L149" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M149" t="n">
         <v>1.07</v>
@@ -21755,10 +21755,10 @@
         <v>3</v>
       </c>
       <c r="Q149" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R149" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S149" t="n">
         <v>3.2</v>
@@ -21785,7 +21785,7 @@
         <v>1.67</v>
       </c>
       <c r="AA149" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB149" t="n">
         <v>7</v>
@@ -21794,7 +21794,7 @@
         <v>9</v>
       </c>
       <c r="AD149" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE149" t="n">
         <v>15</v>
@@ -21818,19 +21818,19 @@
         <v>351</v>
       </c>
       <c r="AL149" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM149" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN149" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO149" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP149" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ149" t="n">
         <v>51</v>
@@ -21839,7 +21839,7 @@
         <v>1.63</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.29</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="150">
@@ -22023,22 +22023,22 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H151" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I151" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="J151" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K151" t="n">
         <v>1.95</v>
       </c>
       <c r="L151" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M151" t="n">
         <v>1.1</v>
@@ -22053,10 +22053,10 @@
         <v>2.5</v>
       </c>
       <c r="Q151" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R151" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S151" t="n">
         <v>4.3</v>
@@ -22065,10 +22065,10 @@
         <v>1.23</v>
       </c>
       <c r="U151" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V151" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W151" t="n">
         <v>1.57</v>
@@ -22077,28 +22077,28 @@
         <v>2.25</v>
       </c>
       <c r="Y151" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z151" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA151" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB151" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC151" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD151" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AE151" t="n">
         <v>51</v>
       </c>
       <c r="AF151" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG151" t="n">
         <v>6.5</v>
@@ -22119,25 +22119,25 @@
         <v>5</v>
       </c>
       <c r="AM151" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AN151" t="n">
         <v>9.5</v>
       </c>
       <c r="AO151" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP151" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ151" t="n">
         <v>41</v>
       </c>
       <c r="AR151" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="152">
@@ -22172,22 +22172,22 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="H152" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="I152" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J152" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="K152" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="L152" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M152" t="n">
         <v>1.05</v>
@@ -22196,16 +22196,16 @@
         <v>11</v>
       </c>
       <c r="O152" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P152" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q152" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R152" t="n">
         <v>1.98</v>
-      </c>
-      <c r="R152" t="n">
-        <v>1.88</v>
       </c>
       <c r="S152" t="n">
         <v>2.03</v>
@@ -22214,34 +22214,34 @@
         <v>1.83</v>
       </c>
       <c r="U152" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V152" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W152" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X152" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z152" t="n">
         <v>1.4</v>
-      </c>
-      <c r="X152" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y152" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z152" t="n">
-        <v>1.5</v>
       </c>
       <c r="AA152" t="n">
         <v>6</v>
       </c>
       <c r="AB152" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AC152" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AD152" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE152" t="n">
         <v>13</v>
@@ -22250,43 +22250,43 @@
         <v>41</v>
       </c>
       <c r="AG152" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH152" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI152" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AJ152" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AK152" t="n">
         <v>900</v>
       </c>
       <c r="AL152" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AM152" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN152" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO152" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AP152" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AQ152" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AR152" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="153">
@@ -22518,7 +22518,7 @@
         <v>2</v>
       </c>
       <c r="AA154" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB154" t="n">
         <v>9.5</v>
@@ -22603,13 +22603,13 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H155" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I155" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J155" t="n">
         <v>1.8</v>
@@ -22618,7 +22618,7 @@
         <v>2.6</v>
       </c>
       <c r="L155" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M155" t="n">
         <v>1.03</v>
@@ -22657,19 +22657,19 @@
         <v>3.4</v>
       </c>
       <c r="Y155" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z155" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA155" t="n">
         <v>7.5</v>
       </c>
       <c r="AB155" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC155" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD155" t="n">
         <v>8.5</v>
@@ -22681,19 +22681,19 @@
         <v>26</v>
       </c>
       <c r="AG155" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH155" t="n">
         <v>11</v>
       </c>
       <c r="AI155" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ155" t="n">
         <v>67</v>
       </c>
       <c r="AK155" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AL155" t="n">
         <v>19</v>
@@ -22705,7 +22705,7 @@
         <v>21</v>
       </c>
       <c r="AO155" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AP155" t="n">
         <v>51</v>
@@ -22889,19 +22889,19 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H157" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I157" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J157" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K157" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L157" t="n">
         <v>7.5</v>
@@ -22910,7 +22910,7 @@
         <v>1.03</v>
       </c>
       <c r="N157" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O157" t="n">
         <v>1.18</v>
@@ -22943,22 +22943,22 @@
         <v>3.4</v>
       </c>
       <c r="Y157" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="Z157" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AA157" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB157" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC157" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD157" t="n">
         <v>9</v>
-      </c>
-      <c r="AD157" t="n">
-        <v>8.5</v>
       </c>
       <c r="AE157" t="n">
         <v>11</v>
@@ -22970,16 +22970,16 @@
         <v>15</v>
       </c>
       <c r="AH157" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI157" t="n">
         <v>21</v>
       </c>
       <c r="AJ157" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK157" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL157" t="n">
         <v>21</v>
@@ -22988,10 +22988,10 @@
         <v>41</v>
       </c>
       <c r="AN157" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO157" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AP157" t="n">
         <v>51</v>
@@ -23178,7 +23178,7 @@
         <v>2.55</v>
       </c>
       <c r="H159" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I159" t="n">
         <v>3.1</v>
@@ -23190,13 +23190,13 @@
         <v>1.91</v>
       </c>
       <c r="L159" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M159" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N159" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O159" t="n">
         <v>1.5</v>
@@ -23205,24 +23205,24 @@
         <v>2.5</v>
       </c>
       <c r="Q159" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R159" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S159" t="inlineStr"/>
       <c r="T159" t="inlineStr"/>
       <c r="U159" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V159" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W159" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X159" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y159" t="n">
         <v>2.1</v>
@@ -23249,13 +23249,13 @@
         <v>41</v>
       </c>
       <c r="AG159" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH159" t="n">
         <v>5.5</v>
       </c>
       <c r="AI159" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ159" t="n">
         <v>67</v>
@@ -23264,7 +23264,7 @@
         <v>501</v>
       </c>
       <c r="AL159" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM159" t="n">
         <v>13</v>
@@ -23282,10 +23282,10 @@
         <v>41</v>
       </c>
       <c r="AR159" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="160">
@@ -23320,48 +23320,48 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H160" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I160" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J160" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K160" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L160" t="n">
         <v>4</v>
       </c>
       <c r="M160" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N160" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O160" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P160" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q160" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="R160" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="S160" t="inlineStr"/>
       <c r="T160" t="inlineStr"/>
       <c r="U160" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V160" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W160" t="n">
         <v>1.44</v>
@@ -23370,34 +23370,34 @@
         <v>2.63</v>
       </c>
       <c r="Y160" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Z160" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AA160" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB160" t="n">
         <v>10</v>
       </c>
       <c r="AC160" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD160" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE160" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF160" t="n">
         <v>29</v>
       </c>
       <c r="AG160" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH160" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI160" t="n">
         <v>15</v>
@@ -23406,13 +23406,13 @@
         <v>51</v>
       </c>
       <c r="AK160" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL160" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM160" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN160" t="n">
         <v>12</v>
@@ -23424,7 +23424,7 @@
         <v>29</v>
       </c>
       <c r="AQ160" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR160" t="inlineStr"/>
       <c r="AS160" t="inlineStr"/>
@@ -23461,22 +23461,22 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="H161" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I161" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="J161" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K161" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L161" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="M161" t="n">
         <v>1.08</v>
@@ -23511,22 +23511,22 @@
         <v>2.38</v>
       </c>
       <c r="Y161" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z161" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA161" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB161" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AC161" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD161" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE161" t="n">
         <v>41</v>
@@ -23538,7 +23538,7 @@
         <v>7</v>
       </c>
       <c r="AH161" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI161" t="n">
         <v>21</v>
@@ -23550,28 +23550,28 @@
         <v>501</v>
       </c>
       <c r="AL161" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AM161" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN161" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO161" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AP161" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ161" t="n">
         <v>41</v>
       </c>
       <c r="AR161" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AS161" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="162">
@@ -23606,16 +23606,16 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="H162" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I162" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J162" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="K162" t="n">
         <v>2.63</v>
@@ -23627,7 +23627,7 @@
         <v>1.03</v>
       </c>
       <c r="N162" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O162" t="n">
         <v>1.17</v>
@@ -23642,10 +23642,10 @@
         <v>2.35</v>
       </c>
       <c r="S162" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T162" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U162" t="n">
         <v>2.38</v>
@@ -23708,13 +23708,13 @@
         <v>29</v>
       </c>
       <c r="AO162" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AP162" t="n">
         <v>67</v>
       </c>
       <c r="AQ162" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR162" t="inlineStr"/>
       <c r="AS162" t="inlineStr"/>
@@ -24033,40 +24033,40 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H165" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I165" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J165" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K165" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L165" t="n">
         <v>5</v>
       </c>
       <c r="M165" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N165" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O165" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P165" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q165" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R165" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S165" t="inlineStr"/>
       <c r="T165" t="inlineStr"/>
@@ -24077,16 +24077,16 @@
         <v>1.2</v>
       </c>
       <c r="W165" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X165" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y165" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z165" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AA165" t="n">
         <v>6</v>
@@ -24107,13 +24107,13 @@
         <v>34</v>
       </c>
       <c r="AG165" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH165" t="n">
         <v>6.5</v>
       </c>
       <c r="AI165" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ165" t="n">
         <v>67</v>
@@ -24122,7 +24122,7 @@
         <v>301</v>
       </c>
       <c r="AL165" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM165" t="n">
         <v>21</v>
@@ -24137,10 +24137,14 @@
         <v>41</v>
       </c>
       <c r="AQ165" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR165" t="inlineStr"/>
-      <c r="AS165" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -24315,13 +24319,13 @@
         </is>
       </c>
       <c r="G167" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H167" t="n">
         <v>3.2</v>
       </c>
-      <c r="H167" t="n">
-        <v>3.25</v>
-      </c>
       <c r="I167" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J167" t="n">
         <v>3.75</v>
@@ -24345,7 +24349,7 @@
         <v>3</v>
       </c>
       <c r="Q167" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R167" t="n">
         <v>1.67</v>
@@ -24365,10 +24369,10 @@
         <v>2.63</v>
       </c>
       <c r="Y167" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z167" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA167" t="n">
         <v>9</v>
@@ -24383,7 +24387,7 @@
         <v>34</v>
       </c>
       <c r="AE167" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF167" t="n">
         <v>41</v>
@@ -24395,7 +24399,7 @@
         <v>6.5</v>
       </c>
       <c r="AI167" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ167" t="n">
         <v>51</v>
@@ -24410,7 +24414,7 @@
         <v>10</v>
       </c>
       <c r="AN167" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO167" t="n">
         <v>21</v>
@@ -24456,22 +24460,22 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="H168" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I168" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="J168" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K168" t="n">
         <v>2.75</v>
       </c>
       <c r="L168" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="M168" t="n">
         <v>1.01</v>
@@ -24480,13 +24484,13 @@
         <v>13</v>
       </c>
       <c r="O168" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P168" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q168" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R168" t="n">
         <v>3</v>
@@ -24494,10 +24498,10 @@
       <c r="S168" t="inlineStr"/>
       <c r="T168" t="inlineStr"/>
       <c r="U168" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V168" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W168" t="n">
         <v>1.22</v>
@@ -24506,10 +24510,10 @@
         <v>4</v>
       </c>
       <c r="Y168" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="Z168" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AA168" t="n">
         <v>23</v>
@@ -24518,43 +24522,43 @@
         <v>41</v>
       </c>
       <c r="AC168" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD168" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AE168" t="n">
         <v>41</v>
       </c>
       <c r="AF168" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG168" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH168" t="n">
         <v>13</v>
       </c>
       <c r="AI168" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ168" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK168" t="n">
         <v>151</v>
       </c>
       <c r="AL168" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM168" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN168" t="n">
         <v>9.5</v>
       </c>
       <c r="AO168" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP168" t="n">
         <v>11</v>
@@ -24627,7 +24631,7 @@
         <v>6</v>
       </c>
       <c r="Q169" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="R169" t="n">
         <v>3</v>
@@ -24738,22 +24742,22 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="H170" t="n">
         <v>3.5</v>
       </c>
       <c r="I170" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J170" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K170" t="n">
         <v>2.2</v>
       </c>
       <c r="L170" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M170" t="n">
         <v>1.04</v>
@@ -24798,22 +24802,22 @@
         <v>2.1</v>
       </c>
       <c r="AA170" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB170" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC170" t="n">
         <v>10</v>
       </c>
       <c r="AD170" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE170" t="n">
         <v>21</v>
       </c>
       <c r="AF170" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG170" t="n">
         <v>12</v>
@@ -24837,13 +24841,13 @@
         <v>13</v>
       </c>
       <c r="AN170" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO170" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP170" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ170" t="n">
         <v>26</v>
@@ -24901,22 +24905,22 @@
         <v>5</v>
       </c>
       <c r="M171" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N171" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O171" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P171" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q171" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="R171" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S171" t="inlineStr"/>
       <c r="T171" t="inlineStr"/>
@@ -25024,48 +25028,48 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H172" t="n">
         <v>3</v>
       </c>
       <c r="I172" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J172" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K172" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L172" t="n">
         <v>4.33</v>
       </c>
       <c r="M172" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N172" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O172" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P172" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q172" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R172" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="S172" t="inlineStr"/>
       <c r="T172" t="inlineStr"/>
       <c r="U172" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V172" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W172" t="n">
         <v>1.5</v>
@@ -25086,10 +25090,10 @@
         <v>9</v>
       </c>
       <c r="AC172" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD172" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE172" t="n">
         <v>19</v>
@@ -25098,10 +25102,10 @@
         <v>34</v>
       </c>
       <c r="AG172" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH172" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI172" t="n">
         <v>15</v>
@@ -25310,28 +25314,28 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="H174" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I174" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J174" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K174" t="n">
         <v>2.05</v>
       </c>
       <c r="L174" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M174" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N174" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O174" t="n">
         <v>1.4</v>
@@ -25369,16 +25373,16 @@
         <v>5.5</v>
       </c>
       <c r="AB174" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AC174" t="n">
         <v>9.5</v>
       </c>
       <c r="AD174" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE174" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF174" t="n">
         <v>41</v>
@@ -25390,7 +25394,7 @@
         <v>8</v>
       </c>
       <c r="AI174" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ174" t="n">
         <v>81</v>
@@ -25399,10 +25403,10 @@
         <v>1250</v>
       </c>
       <c r="AL174" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM174" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN174" t="n">
         <v>19</v>
@@ -25451,28 +25455,28 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="H175" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I175" t="n">
         <v>3.3</v>
       </c>
-      <c r="I175" t="n">
-        <v>3.9</v>
-      </c>
       <c r="J175" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K175" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L175" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M175" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N175" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O175" t="n">
         <v>1.3</v>
@@ -25481,24 +25485,24 @@
         <v>3.4</v>
       </c>
       <c r="Q175" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R175" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S175" t="inlineStr"/>
       <c r="T175" t="inlineStr"/>
       <c r="U175" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V175" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W175" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X175" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y175" t="n">
         <v>1.8</v>
@@ -25507,55 +25511,55 @@
         <v>1.91</v>
       </c>
       <c r="AA175" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB175" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC175" t="n">
         <v>9.5</v>
       </c>
-      <c r="AC175" t="n">
-        <v>9</v>
-      </c>
       <c r="AD175" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE175" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF175" t="n">
         <v>29</v>
       </c>
       <c r="AG175" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH175" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI175" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ175" t="n">
         <v>51</v>
       </c>
       <c r="AK175" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AL175" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM175" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN175" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO175" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP175" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ175" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR175" t="inlineStr"/>
       <c r="AS175" t="inlineStr"/>
@@ -25592,22 +25596,22 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H176" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I176" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="J176" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K176" t="n">
         <v>2.25</v>
       </c>
       <c r="L176" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M176" t="n">
         <v>1.04</v>
@@ -25616,16 +25620,16 @@
         <v>9</v>
       </c>
       <c r="O176" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P176" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q176" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="R176" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="S176" t="inlineStr"/>
       <c r="T176" t="inlineStr"/>
@@ -25651,13 +25655,13 @@
         <v>9.5</v>
       </c>
       <c r="AB176" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC176" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD176" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE176" t="n">
         <v>15</v>
@@ -25681,10 +25685,10 @@
         <v>126</v>
       </c>
       <c r="AL176" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM176" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN176" t="n">
         <v>13</v>
@@ -25693,10 +25697,10 @@
         <v>41</v>
       </c>
       <c r="AP176" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ176" t="n">
         <v>29</v>
-      </c>
-      <c r="AQ176" t="n">
-        <v>34</v>
       </c>
       <c r="AR176" t="inlineStr"/>
       <c r="AS176" t="inlineStr"/>
@@ -25733,28 +25737,28 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H177" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I177" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J177" t="n">
         <v>2.5</v>
       </c>
       <c r="K177" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L177" t="n">
         <v>4.5</v>
       </c>
       <c r="M177" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N177" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O177" t="n">
         <v>1.36</v>
@@ -25763,24 +25767,24 @@
         <v>3</v>
       </c>
       <c r="Q177" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R177" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S177" t="inlineStr"/>
       <c r="T177" t="inlineStr"/>
       <c r="U177" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V177" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W177" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X177" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y177" t="n">
         <v>2</v>
@@ -25792,7 +25796,7 @@
         <v>6.5</v>
       </c>
       <c r="AB177" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC177" t="n">
         <v>9</v>
@@ -25807,13 +25811,13 @@
         <v>34</v>
       </c>
       <c r="AG177" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH177" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI177" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ177" t="n">
         <v>51</v>
@@ -25825,7 +25829,7 @@
         <v>10</v>
       </c>
       <c r="AM177" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN177" t="n">
         <v>15</v>
@@ -26438,19 +26442,19 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H182" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I182" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J182" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="K182" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L182" t="n">
         <v>5</v>
@@ -26482,16 +26486,16 @@
         <v>1.36</v>
       </c>
       <c r="W182" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X182" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="Y182" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Z182" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="AA182" t="n">
         <v>6.6</v>
@@ -26503,37 +26507,37 @@
         <v>8.5</v>
       </c>
       <c r="AD182" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE182" t="n">
         <v>14</v>
       </c>
-      <c r="AE182" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AF182" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG182" t="n">
         <v>8</v>
       </c>
       <c r="AH182" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AI182" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AJ182" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK182" t="n">
         <v>600</v>
       </c>
       <c r="AL182" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AM182" t="n">
         <v>35</v>
       </c>
       <c r="AN182" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AO182" t="n">
         <v>110</v>
@@ -26579,22 +26583,22 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="H183" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="I183" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J183" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="K183" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="L183" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="M183" t="n">
         <v>1.02</v>
@@ -26606,27 +26610,27 @@
         <v>1.11</v>
       </c>
       <c r="P183" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="Q183" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="R183" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="S183" t="inlineStr"/>
       <c r="T183" t="inlineStr"/>
       <c r="U183" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V183" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="W183" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X183" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y183" t="n">
         <v>2.05</v>
@@ -26638,28 +26642,28 @@
         <v>8.5</v>
       </c>
       <c r="AB183" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AC183" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AD183" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AE183" t="n">
         <v>11.25</v>
       </c>
       <c r="AF183" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG183" t="n">
         <v>11.5</v>
       </c>
       <c r="AH183" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI183" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ183" t="n">
         <v>150</v>
@@ -26668,7 +26672,7 @@
         <v>1000</v>
       </c>
       <c r="AL183" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM183" t="n">
         <v>150</v>
@@ -26680,7 +26684,7 @@
         <v>600</v>
       </c>
       <c r="AP183" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AQ183" t="n">
         <v>150</v>
@@ -27429,34 +27433,34 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="H189" t="n">
         <v>3</v>
       </c>
       <c r="I189" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J189" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K189" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L189" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M189" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N189" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O189" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P189" t="n">
         <v>2.5</v>
-      </c>
-      <c r="J189" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K189" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L189" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M189" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N189" t="n">
-        <v>7</v>
-      </c>
-      <c r="O189" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P189" t="n">
-        <v>2.63</v>
       </c>
       <c r="Q189" t="n">
         <v>2.5</v>
@@ -27482,34 +27486,34 @@
         <v>2.1</v>
       </c>
       <c r="Z189" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AA189" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB189" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC189" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD189" t="n">
         <v>29</v>
       </c>
       <c r="AE189" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF189" t="n">
         <v>41</v>
       </c>
       <c r="AG189" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH189" t="n">
         <v>6</v>
       </c>
       <c r="AI189" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ189" t="n">
         <v>67</v>
@@ -27518,28 +27522,28 @@
         <v>1000</v>
       </c>
       <c r="AL189" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM189" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN189" t="n">
         <v>11</v>
       </c>
       <c r="AO189" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP189" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ189" t="n">
         <v>41</v>
       </c>
       <c r="AR189" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="190">
@@ -27574,99 +27578,99 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H190" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I190" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J190" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K190" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L190" t="n">
         <v>4.33</v>
       </c>
       <c r="M190" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N190" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O190" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="P190" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="Q190" t="n">
-        <v>2.08</v>
+        <v>2.35</v>
       </c>
       <c r="R190" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="S190" t="inlineStr"/>
       <c r="T190" t="inlineStr"/>
       <c r="U190" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="V190" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="W190" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X190" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="Y190" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Z190" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA190" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB190" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC190" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD190" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE190" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF190" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG190" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH190" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI190" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>351</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM190" t="n">
         <v>15</v>
-      </c>
-      <c r="AJ190" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK190" t="n">
-        <v>301</v>
-      </c>
-      <c r="AL190" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM190" t="n">
-        <v>19</v>
       </c>
       <c r="AN190" t="n">
         <v>13</v>
@@ -27675,13 +27679,17 @@
         <v>41</v>
       </c>
       <c r="AP190" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ190" t="n">
         <v>41</v>
       </c>
-      <c r="AR190" t="inlineStr"/>
-      <c r="AS190" t="inlineStr"/>
+      <c r="AR190" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -27727,7 +27735,7 @@
         <v>3</v>
       </c>
       <c r="K191" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L191" t="n">
         <v>4.33</v>
@@ -27748,7 +27756,7 @@
         <v>2.4</v>
       </c>
       <c r="R191" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S191" t="inlineStr"/>
       <c r="T191" t="inlineStr"/>
@@ -27860,16 +27868,16 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H192" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I192" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J192" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K192" t="n">
         <v>2.3</v>
@@ -27890,13 +27898,17 @@
         <v>4.33</v>
       </c>
       <c r="Q192" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R192" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S192" t="inlineStr"/>
-      <c r="T192" t="inlineStr"/>
+        <v>2.15</v>
+      </c>
+      <c r="S192" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T192" t="n">
+        <v>1.8</v>
+      </c>
       <c r="U192" t="n">
         <v>2.63</v>
       </c>
@@ -27904,16 +27916,16 @@
         <v>1.44</v>
       </c>
       <c r="W192" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X192" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y192" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z192" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA192" t="n">
         <v>9.5</v>
@@ -27922,7 +27934,7 @@
         <v>11</v>
       </c>
       <c r="AC192" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD192" t="n">
         <v>17</v>
@@ -27934,10 +27946,10 @@
         <v>21</v>
       </c>
       <c r="AG192" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH192" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI192" t="n">
         <v>13</v>
@@ -27955,7 +27967,7 @@
         <v>21</v>
       </c>
       <c r="AN192" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO192" t="n">
         <v>41</v>
@@ -28001,22 +28013,22 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="H193" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I193" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J193" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K193" t="n">
         <v>2.1</v>
       </c>
       <c r="L193" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M193" t="n">
         <v>1.05</v>
@@ -28051,22 +28063,22 @@
         <v>2.75</v>
       </c>
       <c r="Y193" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Z193" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA193" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB193" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC193" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD193" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE193" t="n">
         <v>19</v>
@@ -28075,22 +28087,22 @@
         <v>29</v>
       </c>
       <c r="AG193" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH193" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI193" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ193" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK193" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL193" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM193" t="n">
         <v>15</v>
@@ -28102,7 +28114,7 @@
         <v>29</v>
       </c>
       <c r="AP193" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ193" t="n">
         <v>29</v>
@@ -28142,22 +28154,22 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="H194" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I194" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="J194" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K194" t="n">
         <v>2.5</v>
       </c>
       <c r="L194" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="M194" t="n">
         <v>1.03</v>
@@ -28202,13 +28214,13 @@
         <v>2.2</v>
       </c>
       <c r="AA194" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB194" t="n">
         <v>34</v>
       </c>
       <c r="AC194" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD194" t="n">
         <v>51</v>
@@ -28226,7 +28238,7 @@
         <v>8.5</v>
       </c>
       <c r="AI194" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ194" t="n">
         <v>41</v>
@@ -28247,7 +28259,7 @@
         <v>12</v>
       </c>
       <c r="AP194" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ194" t="n">
         <v>21</v>
@@ -28287,48 +28299,48 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I195" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="J195" t="n">
         <v>3.3</v>
       </c>
       <c r="K195" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L195" t="n">
         <v>3.1</v>
       </c>
       <c r="M195" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N195" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="O195" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="P195" t="n">
-        <v>2.87</v>
+        <v>3.15</v>
       </c>
       <c r="Q195" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="R195" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="S195" t="inlineStr"/>
       <c r="T195" t="inlineStr"/>
       <c r="U195" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="V195" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="W195" t="n">
         <v>1.4</v>
@@ -28337,61 +28349,61 @@
         <v>2.72</v>
       </c>
       <c r="Y195" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="Z195" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="AA195" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL195" t="n">
         <v>8.75</v>
       </c>
-      <c r="AB195" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC195" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD195" t="n">
-        <v>35</v>
-      </c>
-      <c r="AE195" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF195" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG195" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AH195" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AI195" t="n">
+      <c r="AM195" t="n">
         <v>13.5</v>
       </c>
-      <c r="AJ195" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK195" t="n">
-        <v>500</v>
-      </c>
-      <c r="AL195" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AM195" t="n">
-        <v>12</v>
-      </c>
       <c r="AN195" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AO195" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ195" t="n">
         <v>28</v>
-      </c>
-      <c r="AP195" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ195" t="n">
-        <v>32</v>
       </c>
       <c r="AR195" t="inlineStr"/>
       <c r="AS195" t="inlineStr"/>
@@ -28428,111 +28440,111 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="H196" t="n">
         <v>3.55</v>
       </c>
       <c r="I196" t="n">
-        <v>4.3</v>
+        <v>4.85</v>
       </c>
       <c r="J196" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="K196" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L196" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="M196" t="n">
         <v>1.06</v>
       </c>
       <c r="N196" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="O196" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P196" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="Q196" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R196" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="S196" t="inlineStr"/>
       <c r="T196" t="inlineStr"/>
       <c r="U196" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="V196" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="W196" t="n">
         <v>1.4</v>
       </c>
       <c r="X196" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Y196" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Z196" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AA196" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AB196" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AC196" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AD196" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AI196" t="n">
         <v>14.5</v>
       </c>
-      <c r="AE196" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF196" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG196" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AH196" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AI196" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ196" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK196" t="n">
         <v>500</v>
       </c>
       <c r="AL196" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM196" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AN196" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AO196" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AP196" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AQ196" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR196" t="inlineStr"/>
       <c r="AS196" t="inlineStr"/>
@@ -29274,16 +29286,16 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="H202" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I202" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J202" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K202" t="n">
         <v>2.4</v>
@@ -29304,22 +29316,22 @@
         <v>5</v>
       </c>
       <c r="Q202" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R202" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S202" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T202" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U202" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V202" t="n">
         <v>1.57</v>
-      </c>
-      <c r="R202" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S202" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="T202" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U202" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V202" t="n">
-        <v>1.53</v>
       </c>
       <c r="W202" t="n">
         <v>1.29</v>
@@ -29349,7 +29361,7 @@
         <v>13</v>
       </c>
       <c r="AF202" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG202" t="n">
         <v>17</v>
@@ -29370,7 +29382,7 @@
         <v>15</v>
       </c>
       <c r="AM202" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN202" t="n">
         <v>13</v>
@@ -29490,28 +29502,28 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H204" t="n">
         <v>3.5</v>
       </c>
       <c r="I204" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J204" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K204" t="n">
         <v>2.1</v>
       </c>
       <c r="L204" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M204" t="n">
         <v>1.07</v>
       </c>
       <c r="N204" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O204" t="n">
         <v>1.36</v>
@@ -29520,7 +29532,7 @@
         <v>3</v>
       </c>
       <c r="Q204" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R204" t="n">
         <v>1.67</v>
@@ -29549,28 +29561,28 @@
         <v>6</v>
       </c>
       <c r="AB204" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC204" t="n">
         <v>9</v>
       </c>
       <c r="AD204" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE204" t="n">
         <v>15</v>
       </c>
       <c r="AF204" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG204" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH204" t="n">
         <v>7</v>
       </c>
       <c r="AI204" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ204" t="n">
         <v>67</v>
@@ -29579,13 +29591,13 @@
         <v>900</v>
       </c>
       <c r="AL204" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM204" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN204" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO204" t="n">
         <v>51</v>
@@ -29594,7 +29606,7 @@
         <v>41</v>
       </c>
       <c r="AQ204" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR204" t="inlineStr"/>
       <c r="AS204" t="inlineStr"/>
@@ -29643,7 +29655,7 @@
         <v>3.1</v>
       </c>
       <c r="K205" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L205" t="n">
         <v>4.33</v>
@@ -29664,7 +29676,7 @@
         <v>2.5</v>
       </c>
       <c r="R205" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S205" t="inlineStr"/>
       <c r="T205" t="inlineStr"/>
@@ -29785,7 +29797,7 @@
         <v>10</v>
       </c>
       <c r="J206" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K206" t="n">
         <v>2.3</v>
@@ -29929,7 +29941,7 @@
         <v>3.25</v>
       </c>
       <c r="K207" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L207" t="n">
         <v>4</v>
@@ -29950,7 +29962,7 @@
         <v>2.5</v>
       </c>
       <c r="R207" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S207" t="inlineStr"/>
       <c r="T207" t="inlineStr"/>
@@ -30203,10 +30215,10 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="H209" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I209" t="n">
         <v>9.5</v>
@@ -30215,47 +30227,47 @@
         <v>1.88</v>
       </c>
       <c r="K209" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L209" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="M209" t="inlineStr"/>
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="P209" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="Q209" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="R209" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S209" t="inlineStr"/>
       <c r="T209" t="inlineStr"/>
       <c r="U209" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="V209" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="W209" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X209" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="Y209" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="Z209" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="AA209" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="AB209" t="n">
         <v>5.1</v>
@@ -30264,22 +30276,22 @@
         <v>9.25</v>
       </c>
       <c r="AD209" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AE209" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF209" t="n">
         <v>50</v>
       </c>
       <c r="AG209" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH209" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AI209" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ209" t="n">
         <v>250</v>
@@ -30288,22 +30300,22 @@
         <v>101</v>
       </c>
       <c r="AL209" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AM209" t="n">
         <v>65</v>
       </c>
       <c r="AN209" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AO209" t="n">
         <v>350</v>
       </c>
       <c r="AP209" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AQ209" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AR209" t="inlineStr"/>
       <c r="AS209" t="inlineStr"/>
@@ -30352,50 +30364,50 @@
         <v>3</v>
       </c>
       <c r="K210" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="L210" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="M210" t="inlineStr"/>
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P210" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q210" t="n">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="R210" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S210" t="inlineStr"/>
       <c r="T210" t="inlineStr"/>
       <c r="U210" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="V210" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W210" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X210" t="n">
         <v>2.6</v>
       </c>
       <c r="Y210" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Z210" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="AA210" t="n">
         <v>6.2</v>
       </c>
       <c r="AB210" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC210" t="n">
         <v>7.6</v>
@@ -30407,16 +30419,16 @@
         <v>17</v>
       </c>
       <c r="AF210" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG210" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AH210" t="n">
         <v>5.4</v>
       </c>
       <c r="AI210" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ210" t="n">
         <v>60</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-15.xlsx
@@ -1554,13 +1554,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H8" t="n">
         <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
         <v>2.75</v>
@@ -1569,13 +1569,13 @@
         <v>1.95</v>
       </c>
       <c r="L8" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.5</v>
@@ -1584,24 +1584,24 @@
         <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="R8" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X8" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y8" t="n">
         <v>2.1</v>
@@ -1628,7 +1628,7 @@
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH8" t="n">
         <v>6.5</v>
@@ -1649,7 +1649,7 @@
         <v>23</v>
       </c>
       <c r="AN8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO8" t="n">
         <v>51</v>
@@ -1661,10 +1661,10 @@
         <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="9">
@@ -1844,19 +1844,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="H10" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L10" t="n">
         <v>5.5</v>
@@ -1874,16 +1874,16 @@
         <v>4.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R10" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S10" t="n">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="T10" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="U10" t="n">
         <v>2.5</v>
@@ -1892,10 +1892,10 @@
         <v>1.53</v>
       </c>
       <c r="W10" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y10" t="n">
         <v>1.7</v>
@@ -1904,19 +1904,19 @@
         <v>2.05</v>
       </c>
       <c r="AA10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC10" t="n">
         <v>8.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF10" t="n">
         <v>21</v>
@@ -1925,7 +1925,7 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI10" t="n">
         <v>15</v>
@@ -1937,16 +1937,16 @@
         <v>151</v>
       </c>
       <c r="AL10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP10" t="n">
         <v>41</v>
@@ -2037,7 +2037,7 @@
         <v>1.53</v>
       </c>
       <c r="W11" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="X11" t="n">
         <v>3.4</v>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
         <v>3.5</v>
@@ -2736,10 +2736,10 @@
         <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="R16" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="S16" t="n">
         <v>2.05</v>
@@ -2996,22 +2996,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H18" t="n">
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="J18" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
         <v>2</v>
       </c>
       <c r="L18" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
@@ -3046,22 +3046,22 @@
         <v>2.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>21</v>
@@ -3070,7 +3070,7 @@
         <v>34</v>
       </c>
       <c r="AG18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH18" t="n">
         <v>6</v>
@@ -3082,7 +3082,7 @@
         <v>51</v>
       </c>
       <c r="AK18" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL18" t="n">
         <v>8.5</v>
@@ -3091,13 +3091,13 @@
         <v>15</v>
       </c>
       <c r="AN18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO18" t="n">
         <v>34</v>
       </c>
       <c r="AP18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ18" t="n">
         <v>41</v>
@@ -3141,13 +3141,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H19" t="n">
         <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J19" t="n">
         <v>1.8</v>
@@ -3156,7 +3156,7 @@
         <v>2.6</v>
       </c>
       <c r="L19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
@@ -3165,28 +3165,28 @@
         <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P19" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R19" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S19" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="T19" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="U19" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V19" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W19" t="n">
         <v>1.29</v>
@@ -3195,13 +3195,13 @@
         <v>3.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB19" t="n">
         <v>7</v>
@@ -3231,7 +3231,7 @@
         <v>51</v>
       </c>
       <c r="AK19" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL19" t="n">
         <v>23</v>
@@ -3240,7 +3240,7 @@
         <v>41</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO19" t="n">
         <v>101</v>
@@ -3427,16 +3427,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H21" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I21" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K21" t="n">
         <v>2.4</v>
@@ -3457,10 +3457,10 @@
         <v>4.33</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R21" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S21" t="n">
         <v>2.05</v>
@@ -3481,28 +3481,28 @@
         <v>3.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AA21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD21" t="n">
         <v>51</v>
       </c>
       <c r="AE21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG21" t="n">
         <v>15</v>
@@ -3511,19 +3511,19 @@
         <v>8.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK21" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AN21" t="n">
         <v>8.5</v>
@@ -3535,7 +3535,7 @@
         <v>12</v>
       </c>
       <c r="AQ21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
@@ -3572,48 +3572,48 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="H22" t="n">
         <v>2.88</v>
       </c>
       <c r="I22" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K22" t="n">
         <v>1.83</v>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M22" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P22" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R22" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V22" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W22" t="n">
         <v>1.62</v>
@@ -3628,7 +3628,7 @@
         <v>1.62</v>
       </c>
       <c r="AA22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB22" t="n">
         <v>11</v>
@@ -3637,10 +3637,10 @@
         <v>11</v>
       </c>
       <c r="AD22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF22" t="n">
         <v>41</v>
@@ -3661,28 +3661,28 @@
         <v>501</v>
       </c>
       <c r="AL22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN22" t="n">
         <v>12</v>
       </c>
       <c r="AO22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ22" t="n">
         <v>41</v>
       </c>
       <c r="AR22" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="23">
@@ -4025,10 +4025,10 @@
         <v>7</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O25" t="n">
         <v>1.25</v>
@@ -4148,28 +4148,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="H26" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="I26" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K26" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L26" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O26" t="n">
         <v>1.25</v>
@@ -4178,10 +4178,10 @@
         <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="R26" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>8.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
         <v>13</v>
@@ -4222,13 +4222,13 @@
         <v>23</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
         <v>51</v>
@@ -4240,7 +4240,7 @@
         <v>15</v>
       </c>
       <c r="AM26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN26" t="n">
         <v>17</v>
@@ -4289,22 +4289,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="H27" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I27" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="J27" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="K27" t="n">
         <v>1.91</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M27" t="n">
         <v>1.11</v>
@@ -4343,19 +4343,19 @@
         <v>2.2</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD27" t="n">
         <v>41</v>
@@ -4385,13 +4385,13 @@
         <v>5.5</v>
       </c>
       <c r="AM27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP27" t="n">
         <v>21</v>
@@ -4400,10 +4400,10 @@
         <v>41</v>
       </c>
       <c r="AR27" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="28">
@@ -4438,85 +4438,85 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="H28" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I28" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="J28" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="K28" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M28" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O28" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P28" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="R28" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S28" t="n">
         <v>3.45</v>
       </c>
       <c r="T28" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="U28" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W28" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X28" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC28" t="n">
         <v>9</v>
       </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG28" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH28" t="n">
         <v>7</v>
@@ -4528,16 +4528,16 @@
         <v>81</v>
       </c>
       <c r="AK28" t="n">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="AL28" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO28" t="n">
         <v>67</v>
@@ -4549,10 +4549,10 @@
         <v>51</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="29">
@@ -4605,10 +4605,10 @@
         <v>4.33</v>
       </c>
       <c r="M29" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N29" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O29" t="n">
         <v>1.5</v>
@@ -4617,10 +4617,10 @@
         <v>2.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R29" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S29" t="n">
         <v>4.2</v>
@@ -4698,10 +4698,10 @@
         <v>51</v>
       </c>
       <c r="AR29" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="30">
@@ -4760,10 +4760,10 @@
         <v>5.5</v>
       </c>
       <c r="O30" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P30" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q30" t="n">
         <v>3.1</v>
@@ -4888,13 +4888,13 @@
         <v>2.55</v>
       </c>
       <c r="H31" t="n">
+        <v>3</v>
+      </c>
+      <c r="I31" t="n">
         <v>3.1</v>
       </c>
-      <c r="I31" t="n">
-        <v>3</v>
-      </c>
       <c r="J31" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K31" t="n">
         <v>1.95</v>
@@ -4939,10 +4939,10 @@
         <v>2.38</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA31" t="n">
         <v>6.5</v>
@@ -4954,7 +4954,7 @@
         <v>10</v>
       </c>
       <c r="AD31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
         <v>23</v>
@@ -4975,7 +4975,7 @@
         <v>67</v>
       </c>
       <c r="AK31" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
         <v>7.5</v>
@@ -4987,7 +4987,7 @@
         <v>12</v>
       </c>
       <c r="AO31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP31" t="n">
         <v>29</v>
@@ -5037,13 +5037,13 @@
         <v>3.1</v>
       </c>
       <c r="H32" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="I32" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K32" t="n">
         <v>1.67</v>
@@ -5078,22 +5078,22 @@
         <v>1.06</v>
       </c>
       <c r="W32" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="X32" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AA32" t="n">
         <v>5.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC32" t="n">
         <v>15</v>
@@ -5114,7 +5114,7 @@
         <v>6</v>
       </c>
       <c r="AI32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ32" t="n">
         <v>151</v>
@@ -5178,16 +5178,16 @@
         <v>3.4</v>
       </c>
       <c r="H33" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I33" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J33" t="n">
         <v>4.33</v>
       </c>
       <c r="K33" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="L33" t="n">
         <v>3.5</v>
@@ -5205,30 +5205,30 @@
         <v>2</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R33" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V33" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="W33" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X33" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="Y33" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA33" t="n">
         <v>6.5</v>
@@ -5258,13 +5258,13 @@
         <v>23</v>
       </c>
       <c r="AJ33" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AK33" t="n">
         <v>101</v>
       </c>
       <c r="AL33" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AM33" t="n">
         <v>10</v>
@@ -5273,7 +5273,7 @@
         <v>12</v>
       </c>
       <c r="AO33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP33" t="n">
         <v>29</v>
@@ -5405,7 +5405,7 @@
         <v>101</v>
       </c>
       <c r="AL34" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM34" t="n">
         <v>29</v>
@@ -5460,25 +5460,25 @@
         <v>1.95</v>
       </c>
       <c r="H35" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J35" t="n">
         <v>2.88</v>
       </c>
-      <c r="I35" t="n">
-        <v>5</v>
-      </c>
-      <c r="J35" t="n">
-        <v>2.75</v>
-      </c>
       <c r="K35" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L35" t="n">
         <v>6</v>
       </c>
       <c r="M35" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N35" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O35" t="n">
         <v>1.73</v>
@@ -5487,33 +5487,33 @@
         <v>2</v>
       </c>
       <c r="Q35" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R35" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V35" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="W35" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X35" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AA35" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AB35" t="n">
         <v>7</v>
@@ -5531,28 +5531,28 @@
         <v>51</v>
       </c>
       <c r="AG35" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AH35" t="n">
         <v>6</v>
       </c>
       <c r="AI35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ35" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AK35" t="n">
         <v>101</v>
       </c>
       <c r="AL35" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM35" t="n">
         <v>23</v>
       </c>
       <c r="AN35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO35" t="n">
         <v>51</v>
@@ -5561,7 +5561,7 @@
         <v>51</v>
       </c>
       <c r="AQ35" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
@@ -5672,10 +5672,10 @@
         <v>51</v>
       </c>
       <c r="AG36" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI36" t="n">
         <v>29</v>
@@ -5687,7 +5687,7 @@
         <v>101</v>
       </c>
       <c r="AL36" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM36" t="n">
         <v>21</v>
@@ -6883,40 +6883,40 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H45" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I45" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J45" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K45" t="n">
         <v>2.25</v>
       </c>
-      <c r="K45" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L45" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O45" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P45" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="R45" t="n">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="S45" t="n">
         <v>2</v>
@@ -6925,73 +6925,73 @@
         <v>1.85</v>
       </c>
       <c r="U45" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V45" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="W45" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X45" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="Z45" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA45" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB45" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AC45" t="n">
         <v>8.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE45" t="n">
         <v>13</v>
       </c>
       <c r="AF45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH45" t="n">
         <v>8</v>
       </c>
       <c r="AI45" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ45" t="n">
         <v>51</v>
       </c>
       <c r="AK45" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AL45" t="n">
         <v>13</v>
       </c>
       <c r="AM45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO45" t="n">
         <v>51</v>
       </c>
       <c r="AP45" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ45" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR45" t="inlineStr"/>
       <c r="AS45" t="inlineStr"/>
@@ -7028,22 +7028,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="H46" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I46" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="J46" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="K46" t="n">
         <v>2.4</v>
       </c>
       <c r="L46" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M46" t="n">
         <v>1.03</v>
@@ -7052,88 +7052,88 @@
         <v>17</v>
       </c>
       <c r="O46" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P46" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="R46" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S46" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T46" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U46" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V46" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W46" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X46" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="Z46" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AA46" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC46" t="n">
         <v>15</v>
       </c>
-      <c r="AB46" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>13</v>
-      </c>
       <c r="AD46" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE46" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF46" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG46" t="n">
         <v>17</v>
       </c>
       <c r="AH46" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ46" t="n">
         <v>41</v>
       </c>
       <c r="AK46" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN46" t="n">
         <v>8.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP46" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ46" t="n">
         <v>21</v>
@@ -7314,16 +7314,16 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H48" t="n">
         <v>3.4</v>
       </c>
       <c r="I48" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J48" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K48" t="n">
         <v>2.25</v>
@@ -7358,10 +7358,10 @@
         <v>1.4</v>
       </c>
       <c r="W48" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X48" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y48" t="n">
         <v>1.62</v>
@@ -7382,7 +7382,7 @@
         <v>26</v>
       </c>
       <c r="AE48" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF48" t="n">
         <v>26</v>
@@ -7391,10 +7391,10 @@
         <v>13</v>
       </c>
       <c r="AH48" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ48" t="n">
         <v>41</v>
@@ -7412,7 +7412,7 @@
         <v>10</v>
       </c>
       <c r="AO48" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP48" t="n">
         <v>19</v>
@@ -7455,16 +7455,16 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I49" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J49" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K49" t="n">
         <v>2.2</v>
@@ -7505,13 +7505,13 @@
         <v>3</v>
       </c>
       <c r="Y49" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z49" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA49" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB49" t="n">
         <v>10</v>
@@ -7556,7 +7556,7 @@
         <v>41</v>
       </c>
       <c r="AP49" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ49" t="n">
         <v>34</v>
@@ -8327,7 +8327,7 @@
         <v>5</v>
       </c>
       <c r="I55" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J55" t="n">
         <v>2</v>
@@ -8384,7 +8384,7 @@
         <v>7.5</v>
       </c>
       <c r="AB55" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC55" t="n">
         <v>8.5</v>
@@ -8488,10 +8488,10 @@
         <v>7</v>
       </c>
       <c r="M56" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N56" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O56" t="n">
         <v>1.4</v>
@@ -8500,10 +8500,10 @@
         <v>2.75</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R56" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S56" t="n">
         <v>3.6</v>
@@ -8655,16 +8655,16 @@
         <v>1.48</v>
       </c>
       <c r="S57" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T57" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="U57" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V57" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W57" t="n">
         <v>1.57</v>
@@ -8730,10 +8730,10 @@
         <v>41</v>
       </c>
       <c r="AR57" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="58">
@@ -9763,22 +9763,22 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="H65" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I65" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="J65" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="K65" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L65" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="M65" t="n">
         <v>1.03</v>
@@ -9787,16 +9787,16 @@
         <v>15</v>
       </c>
       <c r="O65" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P65" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R65" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S65" t="n">
         <v>2.05</v>
@@ -9805,10 +9805,10 @@
         <v>1.8</v>
       </c>
       <c r="U65" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V65" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W65" t="n">
         <v>1.3</v>
@@ -9817,22 +9817,22 @@
         <v>3.4</v>
       </c>
       <c r="Y65" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z65" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA65" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB65" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC65" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD65" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AE65" t="n">
         <v>41</v>
@@ -9844,34 +9844,34 @@
         <v>15</v>
       </c>
       <c r="AH65" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI65" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ65" t="n">
         <v>51</v>
       </c>
       <c r="AK65" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL65" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM65" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AN65" t="n">
         <v>8.5</v>
       </c>
       <c r="AO65" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP65" t="n">
         <v>11</v>
       </c>
-      <c r="AP65" t="n">
-        <v>12</v>
-      </c>
       <c r="AQ65" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR65" t="inlineStr"/>
       <c r="AS65" t="inlineStr"/>
@@ -9908,28 +9908,28 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="H66" t="n">
         <v>3.1</v>
       </c>
       <c r="I66" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J66" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="K66" t="n">
         <v>2.05</v>
       </c>
       <c r="L66" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M66" t="n">
         <v>1.07</v>
       </c>
       <c r="N66" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O66" t="n">
         <v>1.33</v>
@@ -9964,10 +9964,10 @@
         <v>1.83</v>
       </c>
       <c r="AA66" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB66" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC66" t="n">
         <v>9.5</v>
@@ -9976,13 +9976,13 @@
         <v>21</v>
       </c>
       <c r="AE66" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF66" t="n">
         <v>29</v>
       </c>
       <c r="AG66" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH66" t="n">
         <v>6</v>
@@ -9994,25 +9994,25 @@
         <v>51</v>
       </c>
       <c r="AK66" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL66" t="n">
         <v>9.5</v>
       </c>
       <c r="AM66" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN66" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO66" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP66" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ66" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR66" t="inlineStr"/>
       <c r="AS66" t="inlineStr"/>
@@ -10049,48 +10049,48 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="H67" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I67" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="J67" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K67" t="n">
         <v>2.2</v>
       </c>
       <c r="L67" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M67" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N67" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O67" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P67" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q67" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R67" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V67" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W67" t="n">
         <v>1.4</v>
@@ -10108,16 +10108,16 @@
         <v>15</v>
       </c>
       <c r="AB67" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC67" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD67" t="n">
         <v>67</v>
       </c>
       <c r="AE67" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AF67" t="n">
         <v>51</v>
@@ -10126,19 +10126,19 @@
         <v>9.5</v>
       </c>
       <c r="AH67" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI67" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ67" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK67" t="n">
         <v>351</v>
       </c>
       <c r="AL67" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AM67" t="n">
         <v>7</v>
@@ -10190,16 +10190,16 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H68" t="n">
         <v>3.2</v>
       </c>
       <c r="I68" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J68" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K68" t="n">
         <v>2.05</v>
@@ -10214,24 +10214,24 @@
         <v>8</v>
       </c>
       <c r="O68" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P68" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R68" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V68" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W68" t="n">
         <v>1.5</v>
@@ -10252,10 +10252,10 @@
         <v>9</v>
       </c>
       <c r="AC68" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD68" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE68" t="n">
         <v>19</v>
@@ -10282,7 +10282,7 @@
         <v>9.5</v>
       </c>
       <c r="AM68" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN68" t="n">
         <v>13</v>
@@ -13592,22 +13592,22 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H92" t="n">
         <v>3</v>
       </c>
       <c r="I92" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="J92" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K92" t="n">
         <v>2</v>
       </c>
       <c r="L92" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M92" t="n">
         <v>1.08</v>
@@ -13616,24 +13616,24 @@
         <v>8</v>
       </c>
       <c r="O92" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P92" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R92" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V92" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W92" t="n">
         <v>1.5</v>
@@ -13642,25 +13642,25 @@
         <v>2.5</v>
       </c>
       <c r="Y92" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z92" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA92" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB92" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC92" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD92" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE92" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF92" t="n">
         <v>41</v>
@@ -13678,22 +13678,22 @@
         <v>51</v>
       </c>
       <c r="AK92" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL92" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM92" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN92" t="n">
         <v>10</v>
       </c>
       <c r="AO92" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP92" t="n">
         <v>23</v>
-      </c>
-      <c r="AP92" t="n">
-        <v>21</v>
       </c>
       <c r="AQ92" t="n">
         <v>34</v>
@@ -14168,22 +14168,22 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H96" t="n">
         <v>3.6</v>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J96" t="n">
         <v>2.75</v>
       </c>
       <c r="K96" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L96" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M96" t="n">
         <v>1.03</v>
@@ -14192,22 +14192,22 @@
         <v>17</v>
       </c>
       <c r="O96" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P96" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R96" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S96" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T96" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U96" t="n">
         <v>2.25</v>
@@ -14222,13 +14222,13 @@
         <v>3.5</v>
       </c>
       <c r="Y96" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Z96" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AA96" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB96" t="n">
         <v>13</v>
@@ -14237,7 +14237,7 @@
         <v>9.5</v>
       </c>
       <c r="AD96" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE96" t="n">
         <v>15</v>
@@ -14252,7 +14252,7 @@
         <v>7.5</v>
       </c>
       <c r="AI96" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ96" t="n">
         <v>34</v>
@@ -14261,16 +14261,16 @@
         <v>101</v>
       </c>
       <c r="AL96" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM96" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN96" t="n">
         <v>11</v>
       </c>
       <c r="AO96" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP96" t="n">
         <v>21</v>
@@ -15319,10 +15319,10 @@
         <v>1.25</v>
       </c>
       <c r="H104" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I104" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J104" t="n">
         <v>1.73</v>
@@ -15331,13 +15331,13 @@
         <v>2.5</v>
       </c>
       <c r="L104" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M104" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N104" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O104" t="n">
         <v>1.25</v>
@@ -15352,10 +15352,10 @@
         <v>1.98</v>
       </c>
       <c r="S104" t="n">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="T104" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U104" t="n">
         <v>3.25</v>
@@ -15370,22 +15370,22 @@
         <v>3</v>
       </c>
       <c r="Y104" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Z104" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA104" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB104" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AC104" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD104" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE104" t="n">
         <v>13</v>
@@ -15400,10 +15400,10 @@
         <v>11</v>
       </c>
       <c r="AI104" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ104" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AK104" t="n">
         <v>501</v>
@@ -15415,7 +15415,7 @@
         <v>51</v>
       </c>
       <c r="AN104" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO104" t="n">
         <v>201</v>
@@ -15427,10 +15427,10 @@
         <v>101</v>
       </c>
       <c r="AR104" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="105">
@@ -15751,22 +15751,22 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H107" t="n">
         <v>3.7</v>
       </c>
       <c r="I107" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J107" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K107" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L107" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M107" t="n">
         <v>1.04</v>
@@ -15775,81 +15775,81 @@
         <v>13</v>
       </c>
       <c r="O107" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P107" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R107" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S107" t="inlineStr"/>
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V107" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W107" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X107" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y107" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z107" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA107" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB107" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC107" t="n">
         <v>12</v>
       </c>
       <c r="AD107" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF107" t="n">
         <v>34</v>
       </c>
-      <c r="AE107" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF107" t="n">
-        <v>29</v>
-      </c>
       <c r="AG107" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH107" t="n">
         <v>7</v>
       </c>
       <c r="AI107" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ107" t="n">
         <v>41</v>
       </c>
       <c r="AK107" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL107" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM107" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN107" t="n">
         <v>9</v>
       </c>
       <c r="AO107" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP107" t="n">
         <v>15</v>
@@ -16444,7 +16444,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H112" t="n">
         <v>3.2</v>
@@ -16468,16 +16468,16 @@
         <v>9.5</v>
       </c>
       <c r="O112" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P112" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q112" t="n">
         <v>2.05</v>
       </c>
       <c r="R112" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
@@ -16488,10 +16488,10 @@
         <v>1.29</v>
       </c>
       <c r="W112" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X112" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y112" t="n">
         <v>1.8</v>
@@ -16512,7 +16512,7 @@
         <v>23</v>
       </c>
       <c r="AE112" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF112" t="n">
         <v>29</v>
@@ -16521,7 +16521,7 @@
         <v>9.5</v>
       </c>
       <c r="AH112" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI112" t="n">
         <v>15</v>
@@ -17153,28 +17153,28 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="H117" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I117" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="J117" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="K117" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L117" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="M117" t="n">
         <v>1.04</v>
       </c>
       <c r="N117" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O117" t="n">
         <v>1.22</v>
@@ -17197,10 +17197,10 @@
         <v>1.4</v>
       </c>
       <c r="W117" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X117" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y117" t="n">
         <v>1.67</v>
@@ -17209,25 +17209,25 @@
         <v>2.1</v>
       </c>
       <c r="AA117" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB117" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AC117" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD117" t="n">
         <v>41</v>
       </c>
       <c r="AE117" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF117" t="n">
         <v>29</v>
       </c>
-      <c r="AF117" t="n">
-        <v>34</v>
-      </c>
       <c r="AG117" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH117" t="n">
         <v>7</v>
@@ -17242,19 +17242,19 @@
         <v>151</v>
       </c>
       <c r="AL117" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM117" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AN117" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO117" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP117" t="n">
         <v>15</v>
-      </c>
-      <c r="AP117" t="n">
-        <v>13</v>
       </c>
       <c r="AQ117" t="n">
         <v>23</v>
@@ -20722,22 +20722,22 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="H142" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I142" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="J142" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="K142" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L142" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr"/>
@@ -20748,7 +20748,7 @@
         <v>3</v>
       </c>
       <c r="Q142" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R142" t="n">
         <v>1.75</v>
@@ -20765,13 +20765,13 @@
         <v>1.4</v>
       </c>
       <c r="X142" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="Y142" t="n">
         <v>1.7</v>
       </c>
       <c r="Z142" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="AA142" t="n">
         <v>8</v>
@@ -20780,46 +20780,46 @@
         <v>11.5</v>
       </c>
       <c r="AC142" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD142" t="n">
         <v>24</v>
       </c>
       <c r="AE142" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AF142" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG142" t="n">
         <v>9.75</v>
       </c>
       <c r="AH142" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AI142" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ142" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK142" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AL142" t="n">
         <v>9</v>
       </c>
       <c r="AM142" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AN142" t="n">
         <v>10.25</v>
       </c>
       <c r="AO142" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AP142" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ142" t="n">
         <v>32</v>
@@ -21152,7 +21152,7 @@
         <v>1.44</v>
       </c>
       <c r="H145" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I145" t="n">
         <v>5.5</v>
@@ -21179,10 +21179,10 @@
         <v>3.25</v>
       </c>
       <c r="Q145" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R145" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S145" t="inlineStr"/>
       <c r="T145" t="inlineStr"/>
@@ -21193,16 +21193,16 @@
         <v>1.25</v>
       </c>
       <c r="W145" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X145" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y145" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z145" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA145" t="n">
         <v>5.5</v>
@@ -21226,7 +21226,7 @@
         <v>9.5</v>
       </c>
       <c r="AH145" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI145" t="n">
         <v>23</v>
@@ -21241,13 +21241,13 @@
         <v>13</v>
       </c>
       <c r="AM145" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN145" t="n">
         <v>19</v>
       </c>
       <c r="AO145" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP145" t="n">
         <v>51</v>
@@ -21546,10 +21546,10 @@
         <v>41</v>
       </c>
       <c r="AR147" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="148">
@@ -21602,10 +21602,10 @@
         <v>8</v>
       </c>
       <c r="M148" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N148" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O148" t="n">
         <v>1.29</v>
@@ -21614,18 +21614,18 @@
         <v>3.5</v>
       </c>
       <c r="Q148" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R148" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S148" t="inlineStr"/>
       <c r="T148" t="inlineStr"/>
       <c r="U148" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V148" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W148" t="n">
         <v>1.4</v>
@@ -21874,22 +21874,22 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="H150" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I150" t="n">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="J150" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="K150" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L150" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M150" t="n">
         <v>1.07</v>
@@ -21898,22 +21898,22 @@
         <v>9</v>
       </c>
       <c r="O150" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P150" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q150" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="R150" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S150" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="T150" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="U150" t="n">
         <v>3.75</v>
@@ -21928,34 +21928,34 @@
         <v>2.63</v>
       </c>
       <c r="Y150" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z150" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AA150" t="n">
         <v>6</v>
       </c>
       <c r="AB150" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC150" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD150" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE150" t="n">
         <v>15</v>
       </c>
       <c r="AF150" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG150" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH150" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI150" t="n">
         <v>19</v>
@@ -21967,16 +21967,16 @@
         <v>900</v>
       </c>
       <c r="AL150" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AM150" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AN150" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO150" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP150" t="n">
         <v>41</v>
@@ -21985,10 +21985,10 @@
         <v>51</v>
       </c>
       <c r="AR150" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="151">
@@ -22023,16 +22023,16 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H151" t="n">
         <v>3.4</v>
       </c>
       <c r="I151" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J151" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K151" t="n">
         <v>1.95</v>
@@ -22041,10 +22041,10 @@
         <v>2.4</v>
       </c>
       <c r="M151" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N151" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O151" t="n">
         <v>1.5</v>
@@ -22059,7 +22059,7 @@
         <v>1.5</v>
       </c>
       <c r="S151" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T151" t="n">
         <v>1.23</v>
@@ -22077,10 +22077,10 @@
         <v>2.25</v>
       </c>
       <c r="Y151" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Z151" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA151" t="n">
         <v>10</v>
@@ -22092,13 +22092,13 @@
         <v>19</v>
       </c>
       <c r="AD151" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AE151" t="n">
         <v>51</v>
       </c>
       <c r="AF151" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG151" t="n">
         <v>6.5</v>
@@ -22125,7 +22125,7 @@
         <v>9.5</v>
       </c>
       <c r="AO151" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP151" t="n">
         <v>17</v>
@@ -22172,28 +22172,28 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H152" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I152" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J152" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="K152" t="n">
         <v>2.5</v>
       </c>
       <c r="L152" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M152" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N152" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O152" t="n">
         <v>1.25</v>
@@ -22226,10 +22226,10 @@
         <v>3</v>
       </c>
       <c r="Y152" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Z152" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AA152" t="n">
         <v>6</v>
@@ -22238,7 +22238,7 @@
         <v>5</v>
       </c>
       <c r="AC152" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD152" t="n">
         <v>6.5</v>
@@ -22253,10 +22253,10 @@
         <v>9.5</v>
       </c>
       <c r="AH152" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI152" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ152" t="n">
         <v>126</v>
@@ -22265,22 +22265,22 @@
         <v>900</v>
       </c>
       <c r="AL152" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM152" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN152" t="n">
         <v>41</v>
       </c>
       <c r="AO152" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AP152" t="n">
         <v>126</v>
       </c>
       <c r="AQ152" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AR152" t="n">
         <v>1.43</v>
@@ -22621,46 +22621,46 @@
         <v>8</v>
       </c>
       <c r="M155" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N155" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O155" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P155" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q155" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R155" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S155" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="T155" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="U155" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V155" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W155" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X155" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y155" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Z155" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AA155" t="n">
         <v>7.5</v>
@@ -22693,7 +22693,7 @@
         <v>67</v>
       </c>
       <c r="AK155" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AL155" t="n">
         <v>19</v>
@@ -23034,22 +23034,22 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H158" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I158" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J158" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K158" t="n">
         <v>2.3</v>
       </c>
       <c r="L158" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M158" t="n">
         <v>1.04</v>
@@ -23064,10 +23064,10 @@
         <v>4</v>
       </c>
       <c r="Q158" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R158" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S158" t="inlineStr"/>
       <c r="T158" t="inlineStr"/>
@@ -23099,7 +23099,7 @@
         <v>8.5</v>
       </c>
       <c r="AD158" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE158" t="n">
         <v>13</v>
@@ -23108,10 +23108,10 @@
         <v>23</v>
       </c>
       <c r="AG158" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH158" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI158" t="n">
         <v>15</v>
@@ -23129,10 +23129,10 @@
         <v>23</v>
       </c>
       <c r="AN158" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO158" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP158" t="n">
         <v>34</v>
@@ -23511,10 +23511,10 @@
         <v>2.38</v>
       </c>
       <c r="Y161" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z161" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA161" t="n">
         <v>8.5</v>
@@ -23568,10 +23568,10 @@
         <v>41</v>
       </c>
       <c r="AR161" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -23606,19 +23606,19 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H162" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I162" t="n">
         <v>11</v>
       </c>
       <c r="J162" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K162" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L162" t="n">
         <v>8.5</v>
@@ -23630,28 +23630,28 @@
         <v>17</v>
       </c>
       <c r="O162" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P162" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q162" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R162" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S162" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T162" t="n">
+        <v>2</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V162" t="n">
         <v>1.57</v>
-      </c>
-      <c r="R162" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S162" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T162" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U162" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V162" t="n">
-        <v>1.53</v>
       </c>
       <c r="W162" t="n">
         <v>1.29</v>
@@ -23660,10 +23660,10 @@
         <v>3.5</v>
       </c>
       <c r="Y162" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Z162" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AA162" t="n">
         <v>8</v>
@@ -23693,13 +23693,13 @@
         <v>21</v>
       </c>
       <c r="AJ162" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK162" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL162" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM162" t="n">
         <v>51</v>
@@ -23708,13 +23708,13 @@
         <v>29</v>
       </c>
       <c r="AO162" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AP162" t="n">
         <v>67</v>
       </c>
       <c r="AQ162" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR162" t="inlineStr"/>
       <c r="AS162" t="inlineStr"/>
@@ -24463,10 +24463,10 @@
         <v>6.5</v>
       </c>
       <c r="H168" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I168" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="J168" t="n">
         <v>7</v>
@@ -24481,7 +24481,7 @@
         <v>1.01</v>
       </c>
       <c r="N168" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O168" t="n">
         <v>1.11</v>
@@ -24516,7 +24516,7 @@
         <v>2</v>
       </c>
       <c r="AA168" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB168" t="n">
         <v>41</v>
@@ -24528,13 +24528,13 @@
         <v>81</v>
       </c>
       <c r="AE168" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AF168" t="n">
         <v>41</v>
       </c>
       <c r="AG168" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH168" t="n">
         <v>13</v>
@@ -27578,28 +27578,28 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H190" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I190" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J190" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K190" t="n">
         <v>1.95</v>
       </c>
       <c r="L190" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M190" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N190" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O190" t="n">
         <v>1.44</v>
@@ -27608,10 +27608,10 @@
         <v>2.63</v>
       </c>
       <c r="Q190" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R190" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S190" t="inlineStr"/>
       <c r="T190" t="inlineStr"/>
@@ -27634,13 +27634,13 @@
         <v>1.73</v>
       </c>
       <c r="AA190" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB190" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC190" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD190" t="n">
         <v>21</v>
@@ -27649,16 +27649,16 @@
         <v>21</v>
       </c>
       <c r="AF190" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG190" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH190" t="n">
         <v>6</v>
       </c>
       <c r="AI190" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ190" t="n">
         <v>67</v>
@@ -27667,7 +27667,7 @@
         <v>351</v>
       </c>
       <c r="AL190" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM190" t="n">
         <v>15</v>
@@ -27676,19 +27676,19 @@
         <v>13</v>
       </c>
       <c r="AO190" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP190" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ190" t="n">
         <v>41</v>
       </c>
       <c r="AR190" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="191">
@@ -27723,28 +27723,28 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I191" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="J191" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K191" t="n">
         <v>1.95</v>
       </c>
       <c r="L191" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="M191" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N191" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O191" t="n">
         <v>1.44</v>
@@ -27773,25 +27773,25 @@
         <v>2.38</v>
       </c>
       <c r="Y191" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z191" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA191" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB191" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC191" t="n">
         <v>9.5</v>
       </c>
       <c r="AD191" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE191" t="n">
         <v>19</v>
-      </c>
-      <c r="AE191" t="n">
-        <v>21</v>
       </c>
       <c r="AF191" t="n">
         <v>41</v>
@@ -27803,7 +27803,7 @@
         <v>6</v>
       </c>
       <c r="AI191" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ191" t="n">
         <v>67</v>
@@ -27812,28 +27812,28 @@
         <v>351</v>
       </c>
       <c r="AL191" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AM191" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AN191" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO191" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP191" t="n">
         <v>41</v>
       </c>
-      <c r="AP191" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ191" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR191" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AS191" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -28154,22 +28154,22 @@
         </is>
       </c>
       <c r="G194" t="n">
+        <v>7</v>
+      </c>
+      <c r="H194" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="J194" t="n">
         <v>6</v>
-      </c>
-      <c r="H194" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="I194" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J194" t="n">
-        <v>5.5</v>
       </c>
       <c r="K194" t="n">
         <v>2.5</v>
       </c>
       <c r="L194" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="M194" t="n">
         <v>1.03</v>
@@ -28178,22 +28178,22 @@
         <v>17</v>
       </c>
       <c r="O194" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P194" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q194" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R194" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S194" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T194" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U194" t="n">
         <v>2.25</v>
@@ -28208,22 +28208,22 @@
         <v>3.5</v>
       </c>
       <c r="Y194" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="Z194" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AA194" t="n">
         <v>21</v>
       </c>
       <c r="AB194" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC194" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD194" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AE194" t="n">
         <v>41</v>
@@ -28232,7 +28232,7 @@
         <v>41</v>
       </c>
       <c r="AG194" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH194" t="n">
         <v>8.5</v>
@@ -28247,16 +28247,16 @@
         <v>151</v>
       </c>
       <c r="AL194" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AM194" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN194" t="n">
         <v>8.5</v>
       </c>
       <c r="AO194" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP194" t="n">
         <v>11</v>
@@ -29673,18 +29673,18 @@
         <v>2.5</v>
       </c>
       <c r="Q205" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R205" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S205" t="inlineStr"/>
       <c r="T205" t="inlineStr"/>
       <c r="U205" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V205" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W205" t="n">
         <v>1.57</v>
@@ -29750,10 +29750,10 @@
         <v>41</v>
       </c>
       <c r="AR205" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="206">
@@ -30074,22 +30074,22 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="H208" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I208" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="J208" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K208" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="L208" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="M208" t="n">
         <v>1.11</v>
@@ -30098,21 +30098,21 @@
         <v>6</v>
       </c>
       <c r="O208" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="P208" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="Q208" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="R208" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S208" t="inlineStr"/>
       <c r="T208" t="inlineStr"/>
       <c r="U208" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="V208" t="n">
         <v>1.18</v>
@@ -30124,37 +30124,37 @@
         <v>2.32</v>
       </c>
       <c r="Y208" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Z208" t="n">
         <v>1.65</v>
       </c>
       <c r="AA208" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB208" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC208" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD208" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AE208" t="n">
         <v>50</v>
       </c>
       <c r="AF208" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG208" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AH208" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AI208" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AJ208" t="n">
         <v>110</v>
@@ -30163,19 +30163,19 @@
         <v>101</v>
       </c>
       <c r="AL208" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AM208" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AN208" t="n">
         <v>8.75</v>
       </c>
       <c r="AO208" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AP208" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ208" t="n">
         <v>37</v>
@@ -30218,101 +30218,101 @@
         <v>1.37</v>
       </c>
       <c r="H209" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I209" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="J209" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="K209" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L209" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="M209" t="inlineStr"/>
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="P209" t="n">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
       <c r="Q209" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="R209" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S209" t="inlineStr"/>
       <c r="T209" t="inlineStr"/>
       <c r="U209" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="V209" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W209" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="X209" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="Y209" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="Z209" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="AA209" t="n">
-        <v>4.65</v>
+        <v>4.85</v>
       </c>
       <c r="AB209" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AC209" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD209" t="n">
         <v>8</v>
       </c>
       <c r="AE209" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF209" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG209" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AH209" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AI209" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ209" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AK209" t="n">
         <v>101</v>
       </c>
       <c r="AL209" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AM209" t="n">
         <v>65</v>
       </c>
       <c r="AN209" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO209" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AP209" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AQ209" t="n">
         <v>150</v>
@@ -30361,10 +30361,10 @@
         <v>2.75</v>
       </c>
       <c r="J210" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K210" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="L210" t="n">
         <v>3.5</v>
@@ -30372,24 +30372,24 @@
       <c r="M210" t="inlineStr"/>
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P210" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q210" t="n">
-        <v>2.04</v>
+        <v>2.09</v>
       </c>
       <c r="R210" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S210" t="inlineStr"/>
       <c r="T210" t="inlineStr"/>
       <c r="U210" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="V210" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W210" t="n">
         <v>1.45</v>
@@ -30398,16 +30398,16 @@
         <v>2.6</v>
       </c>
       <c r="Y210" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="Z210" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="AA210" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AB210" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC210" t="n">
         <v>7.6</v>
@@ -30419,10 +30419,10 @@
         <v>17</v>
       </c>
       <c r="AF210" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG210" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AH210" t="n">
         <v>5.4</v>
@@ -30431,13 +30431,13 @@
         <v>12</v>
       </c>
       <c r="AJ210" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK210" t="n">
         <v>101</v>
       </c>
       <c r="AL210" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AM210" t="n">
         <v>11</v>
@@ -30449,7 +30449,7 @@
         <v>27</v>
       </c>
       <c r="AP210" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ210" t="n">
         <v>30</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-15.xlsx
@@ -1989,13 +1989,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H11" t="n">
         <v>4.33</v>
       </c>
       <c r="I11" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="J11" t="n">
         <v>5.5</v>
@@ -2025,10 +2025,10 @@
         <v>2.3</v>
       </c>
       <c r="S11" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="T11" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="U11" t="n">
         <v>2.5</v>
@@ -2079,19 +2079,19 @@
         <v>41</v>
       </c>
       <c r="AK11" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL11" t="n">
         <v>8.5</v>
       </c>
       <c r="AM11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AN11" t="n">
         <v>8.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
         <v>12</v>
@@ -3584,7 +3584,7 @@
         <v>3.6</v>
       </c>
       <c r="K22" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L22" t="n">
         <v>3.75</v>
@@ -3622,16 +3622,16 @@
         <v>2.2</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA22" t="n">
         <v>6.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC22" t="n">
         <v>11</v>
@@ -3655,13 +3655,13 @@
         <v>19</v>
       </c>
       <c r="AJ22" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK22" t="n">
         <v>501</v>
       </c>
       <c r="AL22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM22" t="n">
         <v>12</v>
@@ -3679,10 +3679,10 @@
         <v>41</v>
       </c>
       <c r="AR22" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="23">
@@ -4148,7 +4148,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H26" t="n">
         <v>3.8</v>
@@ -4157,7 +4157,7 @@
         <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K26" t="n">
         <v>2.25</v>
@@ -4166,10 +4166,10 @@
         <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O26" t="n">
         <v>1.25</v>
@@ -4178,10 +4178,10 @@
         <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="R26" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -4207,7 +4207,7 @@
         <v>7.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC26" t="n">
         <v>8.5</v>
@@ -4222,7 +4222,7 @@
         <v>23</v>
       </c>
       <c r="AG26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
         <v>7</v>
@@ -4234,7 +4234,7 @@
         <v>51</v>
       </c>
       <c r="AK26" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL26" t="n">
         <v>15</v>
@@ -4243,7 +4243,7 @@
         <v>26</v>
       </c>
       <c r="AN26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO26" t="n">
         <v>51</v>
@@ -4289,46 +4289,46 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="H27" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I27" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="J27" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K27" t="n">
         <v>1.91</v>
       </c>
       <c r="L27" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M27" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P27" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R27" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S27" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="T27" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="U27" t="n">
         <v>5.5</v>
@@ -4337,10 +4337,10 @@
         <v>1.14</v>
       </c>
       <c r="W27" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X27" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y27" t="n">
         <v>2.25</v>
@@ -4349,16 +4349,16 @@
         <v>1.57</v>
       </c>
       <c r="AA27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC27" t="n">
         <v>15</v>
       </c>
       <c r="AD27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE27" t="n">
         <v>41</v>
@@ -4385,25 +4385,25 @@
         <v>5.5</v>
       </c>
       <c r="AM27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AN27" t="n">
         <v>9.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ27" t="n">
         <v>41</v>
       </c>
       <c r="AR27" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="28">
@@ -4438,22 +4438,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="H28" t="n">
         <v>3.4</v>
       </c>
       <c r="I28" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="J28" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K28" t="n">
         <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M28" t="n">
         <v>1.1</v>
@@ -4468,22 +4468,22 @@
         <v>2.63</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R28" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S28" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="T28" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V28" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W28" t="n">
         <v>1.53</v>
@@ -4492,34 +4492,34 @@
         <v>2.38</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AA28" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC28" t="n">
         <v>9</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE28" t="n">
         <v>17</v>
       </c>
       <c r="AF28" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG28" t="n">
         <v>7</v>
       </c>
       <c r="AH28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI28" t="n">
         <v>21</v>
@@ -4534,25 +4534,25 @@
         <v>10</v>
       </c>
       <c r="AM28" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AN28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO28" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ28" t="n">
         <v>51</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="29">
@@ -4590,10 +4590,10 @@
         <v>2.2</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I29" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J29" t="n">
         <v>3</v>
@@ -4602,7 +4602,7 @@
         <v>1.91</v>
       </c>
       <c r="L29" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M29" t="n">
         <v>1.11</v>
@@ -4623,16 +4623,16 @@
         <v>1.48</v>
       </c>
       <c r="S29" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T29" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V29" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W29" t="n">
         <v>1.57</v>
@@ -4665,7 +4665,7 @@
         <v>41</v>
       </c>
       <c r="AG29" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH29" t="n">
         <v>6</v>
@@ -4677,7 +4677,7 @@
         <v>67</v>
       </c>
       <c r="AK29" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AL29" t="n">
         <v>8</v>
@@ -4686,22 +4686,22 @@
         <v>17</v>
       </c>
       <c r="AN29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO29" t="n">
         <v>41</v>
       </c>
       <c r="AP29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ29" t="n">
         <v>51</v>
       </c>
       <c r="AR29" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="30">
@@ -4736,67 +4736,67 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H30" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I30" t="n">
         <v>3.75</v>
       </c>
       <c r="J30" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K30" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L30" t="n">
         <v>4.5</v>
       </c>
       <c r="M30" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N30" t="n">
+        <v>5</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="T30" t="n">
         <v>1.14</v>
       </c>
-      <c r="N30" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.16</v>
-      </c>
       <c r="U30" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V30" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W30" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="X30" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Y30" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB30" t="n">
         <v>9</v>
@@ -4805,22 +4805,22 @@
         <v>11</v>
       </c>
       <c r="AD30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE30" t="n">
         <v>26</v>
       </c>
       <c r="AF30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG30" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AH30" t="n">
         <v>6</v>
       </c>
       <c r="AI30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ30" t="n">
         <v>101</v>
@@ -4829,10 +4829,10 @@
         <v>101</v>
       </c>
       <c r="AL30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN30" t="n">
         <v>15</v>
@@ -4885,7 +4885,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H31" t="n">
         <v>3</v>
@@ -4903,10 +4903,10 @@
         <v>3.75</v>
       </c>
       <c r="M31" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N31" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O31" t="n">
         <v>1.44</v>
@@ -4915,10 +4915,10 @@
         <v>2.63</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R31" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S31" t="n">
         <v>3.85</v>
@@ -4927,22 +4927,22 @@
         <v>1.26</v>
       </c>
       <c r="U31" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W31" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X31" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y31" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA31" t="n">
         <v>6.5</v>
@@ -4963,7 +4963,7 @@
         <v>41</v>
       </c>
       <c r="AG31" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH31" t="n">
         <v>6</v>
@@ -4996,10 +4996,10 @@
         <v>41</v>
       </c>
       <c r="AR31" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AS31" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="32">
@@ -5052,10 +5052,10 @@
         <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="N32" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O32" t="n">
         <v>1.91</v>
@@ -5078,10 +5078,10 @@
         <v>1.06</v>
       </c>
       <c r="W32" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="X32" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="Y32" t="n">
         <v>3</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H33" t="n">
         <v>2.75</v>
@@ -5187,7 +5187,7 @@
         <v>4.33</v>
       </c>
       <c r="K33" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="L33" t="n">
         <v>3.5</v>
@@ -5258,13 +5258,13 @@
         <v>23</v>
       </c>
       <c r="AJ33" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="n">
         <v>101</v>
       </c>
       <c r="AL33" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AM33" t="n">
         <v>10</v>
@@ -5316,22 +5316,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I34" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J34" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K34" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="L34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M34" t="n">
         <v>1.18</v>
@@ -5340,30 +5340,30 @@
         <v>4.5</v>
       </c>
       <c r="O34" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="P34" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="R34" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V34" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W34" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="X34" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="Y34" t="n">
         <v>3.25</v>
@@ -5375,22 +5375,22 @@
         <v>4</v>
       </c>
       <c r="AB34" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF34" t="n">
         <v>51</v>
       </c>
       <c r="AG34" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AH34" t="n">
         <v>7</v>
@@ -5405,16 +5405,16 @@
         <v>101</v>
       </c>
       <c r="AL34" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AM34" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN34" t="n">
         <v>23</v>
       </c>
       <c r="AO34" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AP34" t="n">
         <v>67</v>
@@ -5457,10 +5457,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H35" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I35" t="n">
         <v>5.25</v>
@@ -5475,13 +5475,13 @@
         <v>6</v>
       </c>
       <c r="M35" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="N35" t="n">
         <v>4.5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="P35" t="n">
         <v>2</v>
@@ -5498,7 +5498,7 @@
         <v>8</v>
       </c>
       <c r="V35" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="W35" t="n">
         <v>1.78</v>
@@ -5601,13 +5601,13 @@
         <v>2</v>
       </c>
       <c r="H36" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I36" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K36" t="n">
         <v>1.73</v>
@@ -5616,16 +5616,16 @@
         <v>6</v>
       </c>
       <c r="M36" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N36" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O36" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P36" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Q36" t="n">
         <v>3.6</v>
@@ -5675,7 +5675,7 @@
         <v>4.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI36" t="n">
         <v>29</v>
@@ -5687,7 +5687,7 @@
         <v>101</v>
       </c>
       <c r="AL36" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM36" t="n">
         <v>21</v>
@@ -7028,10 +7028,10 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H46" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I46" t="n">
         <v>1.62</v>
@@ -7088,7 +7088,7 @@
         <v>2.1</v>
       </c>
       <c r="AA46" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB46" t="n">
         <v>26</v>
@@ -8023,22 +8023,22 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="H53" t="n">
         <v>3.3</v>
       </c>
       <c r="I53" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="J53" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="K53" t="n">
         <v>2.1</v>
       </c>
       <c r="L53" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M53" t="n">
         <v>1.06</v>
@@ -8077,25 +8077,25 @@
         <v>2.75</v>
       </c>
       <c r="Y53" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z53" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA53" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB53" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC53" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD53" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE53" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF53" t="n">
         <v>29</v>
@@ -8113,22 +8113,22 @@
         <v>51</v>
       </c>
       <c r="AK53" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL53" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN53" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO53" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP53" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ53" t="n">
         <v>34</v>
@@ -8175,10 +8175,10 @@
         <v>1.62</v>
       </c>
       <c r="H54" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I54" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J54" t="n">
         <v>2.2</v>
@@ -8202,10 +8202,10 @@
         <v>4</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R54" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S54" t="n">
         <v>2.31</v>
@@ -8220,10 +8220,10 @@
         <v>1.4</v>
       </c>
       <c r="W54" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X54" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y54" t="n">
         <v>1.8</v>
@@ -8250,13 +8250,13 @@
         <v>23</v>
       </c>
       <c r="AG54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH54" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ54" t="n">
         <v>51</v>
@@ -8265,13 +8265,13 @@
         <v>251</v>
       </c>
       <c r="AL54" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN54" t="n">
         <v>15</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>17</v>
       </c>
       <c r="AO54" t="n">
         <v>51</v>
@@ -8351,16 +8351,16 @@
         <v>4</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R55" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S55" t="n">
-        <v>2.13</v>
+        <v>2.24</v>
       </c>
       <c r="T55" t="n">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="U55" t="n">
         <v>2.75</v>
@@ -8432,10 +8432,10 @@
         <v>41</v>
       </c>
       <c r="AR55" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AS55" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="56">
@@ -8470,22 +8470,22 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="H56" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I56" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="J56" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K56" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L56" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="M56" t="n">
         <v>1.08</v>
@@ -8500,22 +8500,22 @@
         <v>2.75</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R56" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S56" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="T56" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="U56" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V56" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W56" t="n">
         <v>1.5</v>
@@ -8524,22 +8524,22 @@
         <v>2.5</v>
       </c>
       <c r="Y56" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z56" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA56" t="n">
         <v>5</v>
       </c>
       <c r="AB56" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AC56" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD56" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AE56" t="n">
         <v>15</v>
@@ -8551,34 +8551,34 @@
         <v>7</v>
       </c>
       <c r="AH56" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI56" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AJ56" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK56" t="n">
         <v>101</v>
       </c>
       <c r="AL56" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AM56" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN56" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AO56" t="n">
+        <v>126</v>
+      </c>
+      <c r="AP56" t="n">
         <v>81</v>
       </c>
-      <c r="AP56" t="n">
-        <v>51</v>
-      </c>
       <c r="AQ56" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR56" t="n">
         <v>1.78</v>
@@ -8730,10 +8730,10 @@
         <v>41</v>
       </c>
       <c r="AR57" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="58">
@@ -10049,51 +10049,51 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="H67" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I67" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="J67" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K67" t="n">
         <v>2.2</v>
       </c>
       <c r="L67" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M67" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N67" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O67" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P67" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R67" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V67" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W67" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X67" t="n">
         <v>2.75</v>
@@ -10108,16 +10108,16 @@
         <v>15</v>
       </c>
       <c r="AB67" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC67" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD67" t="n">
         <v>67</v>
       </c>
       <c r="AE67" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AF67" t="n">
         <v>51</v>
@@ -10126,19 +10126,19 @@
         <v>9.5</v>
       </c>
       <c r="AH67" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI67" t="n">
         <v>19</v>
       </c>
       <c r="AJ67" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK67" t="n">
         <v>351</v>
       </c>
       <c r="AL67" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AM67" t="n">
         <v>7</v>
@@ -16444,22 +16444,22 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="H112" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J112" t="n">
         <v>3.2</v>
-      </c>
-      <c r="I112" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J112" t="n">
-        <v>3.1</v>
       </c>
       <c r="K112" t="n">
         <v>2.1</v>
       </c>
       <c r="L112" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M112" t="n">
         <v>1.06</v>
@@ -16477,7 +16477,7 @@
         <v>2.05</v>
       </c>
       <c r="R112" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
@@ -16488,10 +16488,10 @@
         <v>1.29</v>
       </c>
       <c r="W112" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X112" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y112" t="n">
         <v>1.8</v>
@@ -16503,16 +16503,16 @@
         <v>8</v>
       </c>
       <c r="AB112" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC112" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD112" t="n">
         <v>23</v>
       </c>
       <c r="AE112" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF112" t="n">
         <v>29</v>
@@ -16536,7 +16536,7 @@
         <v>9</v>
       </c>
       <c r="AM112" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN112" t="n">
         <v>11</v>
@@ -20440,54 +20440,54 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="H140" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I140" t="n">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="J140" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K140" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L140" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M140" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N140" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O140" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P140" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q140" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="R140" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="S140" t="inlineStr"/>
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V140" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W140" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X140" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y140" t="n">
         <v>1.95</v>
@@ -20499,22 +20499,22 @@
         <v>6.5</v>
       </c>
       <c r="AB140" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG140" t="n">
         <v>8</v>
-      </c>
-      <c r="AC140" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD140" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE140" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF140" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG140" t="n">
-        <v>9</v>
       </c>
       <c r="AH140" t="n">
         <v>6.5</v>
@@ -20526,22 +20526,22 @@
         <v>51</v>
       </c>
       <c r="AK140" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AL140" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AM140" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN140" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO140" t="n">
         <v>41</v>
       </c>
       <c r="AP140" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ140" t="n">
         <v>41</v>
@@ -20581,13 +20581,13 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H141" t="n">
         <v>3</v>
       </c>
       <c r="I141" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J141" t="n">
         <v>3.2</v>
@@ -20596,13 +20596,13 @@
         <v>2.05</v>
       </c>
       <c r="L141" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M141" t="n">
         <v>1.07</v>
       </c>
       <c r="N141" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O141" t="n">
         <v>1.33</v>
@@ -20646,13 +20646,13 @@
         <v>10</v>
       </c>
       <c r="AD141" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE141" t="n">
         <v>21</v>
       </c>
       <c r="AF141" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG141" t="n">
         <v>8.5</v>
@@ -20673,7 +20673,7 @@
         <v>9</v>
       </c>
       <c r="AM141" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN141" t="n">
         <v>11</v>
@@ -21439,22 +21439,22 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H147" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I147" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J147" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K147" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L147" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M147" t="n">
         <v>1.1</v>
@@ -21483,7 +21483,7 @@
         <v>1.17</v>
       </c>
       <c r="W147" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="X147" t="n">
         <v>2.25</v>
@@ -21492,7 +21492,7 @@
         <v>2</v>
       </c>
       <c r="Z147" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AA147" t="n">
         <v>7.5</v>
@@ -21531,7 +21531,7 @@
         <v>7</v>
       </c>
       <c r="AM147" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN147" t="n">
         <v>11</v>
@@ -21540,16 +21540,16 @@
         <v>26</v>
       </c>
       <c r="AP147" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ147" t="n">
         <v>41</v>
       </c>
       <c r="AR147" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="148">
@@ -21587,10 +21587,10 @@
         <v>1.38</v>
       </c>
       <c r="H148" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I148" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J148" t="n">
         <v>1.91</v>
@@ -21614,18 +21614,18 @@
         <v>3.5</v>
       </c>
       <c r="Q148" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R148" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S148" t="inlineStr"/>
       <c r="T148" t="inlineStr"/>
       <c r="U148" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V148" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W148" t="n">
         <v>1.4</v>
@@ -21634,10 +21634,10 @@
         <v>2.75</v>
       </c>
       <c r="Y148" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z148" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA148" t="n">
         <v>6</v>
@@ -21673,7 +21673,7 @@
         <v>101</v>
       </c>
       <c r="AL148" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM148" t="n">
         <v>41</v>
@@ -22023,67 +22023,67 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H151" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I151" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="J151" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K151" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L151" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M151" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N151" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O151" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P151" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q151" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="R151" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="S151" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="T151" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="U151" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V151" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W151" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X151" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z151" t="n">
         <v>1.57</v>
       </c>
-      <c r="X151" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y151" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Z151" t="n">
-        <v>1.53</v>
-      </c>
       <c r="AA151" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB151" t="n">
         <v>26</v>
@@ -22092,7 +22092,7 @@
         <v>19</v>
       </c>
       <c r="AD151" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AE151" t="n">
         <v>51</v>
@@ -22101,7 +22101,7 @@
         <v>51</v>
       </c>
       <c r="AG151" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH151" t="n">
         <v>7</v>
@@ -22110,7 +22110,7 @@
         <v>23</v>
       </c>
       <c r="AJ151" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK151" t="n">
         <v>101</v>
@@ -22122,10 +22122,10 @@
         <v>6.5</v>
       </c>
       <c r="AN151" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO151" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP151" t="n">
         <v>17</v>
@@ -22134,10 +22134,10 @@
         <v>41</v>
       </c>
       <c r="AR151" t="n">
-        <v>1.93</v>
+        <v>1.74</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="152">
@@ -23606,13 +23606,13 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H162" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I162" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J162" t="n">
         <v>1.67</v>
@@ -23621,7 +23621,7 @@
         <v>2.75</v>
       </c>
       <c r="L162" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M162" t="n">
         <v>1.03</v>
@@ -23636,16 +23636,16 @@
         <v>5.5</v>
       </c>
       <c r="Q162" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="R162" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S162" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="T162" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="U162" t="n">
         <v>2.25</v>
@@ -23654,16 +23654,16 @@
         <v>1.57</v>
       </c>
       <c r="W162" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X162" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y162" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z162" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA162" t="n">
         <v>8</v>
@@ -23687,16 +23687,16 @@
         <v>15</v>
       </c>
       <c r="AH162" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI162" t="n">
         <v>21</v>
       </c>
       <c r="AJ162" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK162" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL162" t="n">
         <v>29</v>
@@ -29806,22 +29806,22 @@
         <v>9.5</v>
       </c>
       <c r="M206" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N206" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O206" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P206" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q206" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="R206" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S206" t="inlineStr"/>
       <c r="T206" t="inlineStr"/>
@@ -30036,10 +30036,10 @@
         <v>41</v>
       </c>
       <c r="AR207" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="208">
@@ -30215,44 +30215,44 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="H209" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="I209" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="J209" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="K209" t="n">
         <v>2.18</v>
       </c>
       <c r="L209" t="n">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="M209" t="inlineStr"/>
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P209" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="Q209" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="R209" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S209" t="inlineStr"/>
       <c r="T209" t="inlineStr"/>
       <c r="U209" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="V209" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="W209" t="n">
         <v>1.42</v>
@@ -30261,22 +30261,22 @@
         <v>2.47</v>
       </c>
       <c r="Y209" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="Z209" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AA209" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="AB209" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AC209" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD209" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE209" t="n">
         <v>14</v>
@@ -30285,13 +30285,13 @@
         <v>45</v>
       </c>
       <c r="AG209" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AH209" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AI209" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ209" t="n">
         <v>200</v>
@@ -30300,22 +30300,22 @@
         <v>101</v>
       </c>
       <c r="AL209" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AM209" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AN209" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AO209" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="AP209" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AQ209" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AR209" t="inlineStr"/>
       <c r="AS209" t="inlineStr"/>
@@ -30352,107 +30352,107 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="H210" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I210" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J210" t="n">
         <v>3.05</v>
       </c>
       <c r="K210" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="L210" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M210" t="inlineStr"/>
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P210" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q210" t="n">
-        <v>2.09</v>
+        <v>2.02</v>
       </c>
       <c r="R210" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="S210" t="inlineStr"/>
       <c r="T210" t="inlineStr"/>
       <c r="U210" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="V210" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W210" t="n">
         <v>1.45</v>
       </c>
       <c r="X210" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y210" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z210" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="AA210" t="n">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
       <c r="AB210" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AC210" t="n">
-        <v>7.6</v>
+        <v>9.5</v>
       </c>
       <c r="AD210" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AE210" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF210" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AG210" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="AH210" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="AI210" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AJ210" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AK210" t="n">
-        <v>101</v>
+        <v>700</v>
       </c>
       <c r="AL210" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="AM210" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AN210" t="n">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="AO210" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AP210" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AQ210" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AR210" t="inlineStr"/>
       <c r="AS210" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-15.xlsx
@@ -4885,19 +4885,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H31" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I31" t="n">
         <v>3</v>
       </c>
-      <c r="I31" t="n">
-        <v>3.1</v>
-      </c>
       <c r="J31" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K31" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L31" t="n">
         <v>3.75</v>
@@ -4909,22 +4909,22 @@
         <v>6.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P31" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R31" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S31" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="T31" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="U31" t="n">
         <v>5</v>
@@ -4951,13 +4951,13 @@
         <v>11</v>
       </c>
       <c r="AC31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF31" t="n">
         <v>41</v>
@@ -4978,7 +4978,7 @@
         <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM31" t="n">
         <v>13</v>
@@ -4987,7 +4987,7 @@
         <v>12</v>
       </c>
       <c r="AO31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP31" t="n">
         <v>29</v>
@@ -4996,10 +4996,10 @@
         <v>41</v>
       </c>
       <c r="AR31" t="n">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="32">
@@ -5598,16 +5598,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H36" t="n">
         <v>2.8</v>
       </c>
       <c r="I36" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J36" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K36" t="n">
         <v>1.73</v>
@@ -5622,10 +5622,10 @@
         <v>4.5</v>
       </c>
       <c r="O36" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P36" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Q36" t="n">
         <v>3.6</v>
@@ -5654,7 +5654,7 @@
         <v>1.36</v>
       </c>
       <c r="AA36" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AB36" t="n">
         <v>7.5</v>
@@ -5663,7 +5663,7 @@
         <v>12</v>
       </c>
       <c r="AD36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE36" t="n">
         <v>26</v>
@@ -5687,10 +5687,10 @@
         <v>101</v>
       </c>
       <c r="AL36" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN36" t="n">
         <v>19</v>
@@ -5702,7 +5702,7 @@
         <v>51</v>
       </c>
       <c r="AQ36" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR36" t="n">
         <v>2</v>
@@ -8321,19 +8321,19 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H55" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I55" t="n">
         <v>5</v>
       </c>
-      <c r="I55" t="n">
-        <v>5.25</v>
-      </c>
       <c r="J55" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K55" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L55" t="n">
         <v>6</v>
@@ -8345,28 +8345,28 @@
         <v>15</v>
       </c>
       <c r="O55" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P55" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R55" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S55" t="n">
-        <v>2.24</v>
+        <v>2.23</v>
       </c>
       <c r="T55" t="n">
         <v>1.63</v>
       </c>
       <c r="U55" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V55" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W55" t="n">
         <v>1.33</v>
@@ -8390,7 +8390,7 @@
         <v>8.5</v>
       </c>
       <c r="AD55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE55" t="n">
         <v>12</v>
@@ -8399,13 +8399,13 @@
         <v>26</v>
       </c>
       <c r="AG55" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH55" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI55" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ55" t="n">
         <v>51</v>
@@ -8414,16 +8414,16 @@
         <v>301</v>
       </c>
       <c r="AL55" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN55" t="n">
         <v>15</v>
       </c>
-      <c r="AM55" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>17</v>
-      </c>
       <c r="AO55" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP55" t="n">
         <v>41</v>
@@ -8622,10 +8622,10 @@
         <v>2.25</v>
       </c>
       <c r="H57" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I57" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J57" t="n">
         <v>3.1</v>
@@ -8637,22 +8637,22 @@
         <v>4.33</v>
       </c>
       <c r="M57" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N57" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O57" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P57" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R57" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S57" t="n">
         <v>4.3</v>
@@ -8667,16 +8667,16 @@
         <v>1.14</v>
       </c>
       <c r="W57" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X57" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y57" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z57" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA57" t="n">
         <v>6</v>
@@ -8700,10 +8700,10 @@
         <v>6</v>
       </c>
       <c r="AH57" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI57" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ57" t="n">
         <v>67</v>
@@ -8715,7 +8715,7 @@
         <v>8</v>
       </c>
       <c r="AM57" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN57" t="n">
         <v>13</v>
@@ -8727,13 +8727,13 @@
         <v>34</v>
       </c>
       <c r="AQ57" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR57" t="n">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="58">
@@ -10190,19 +10190,19 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H68" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I68" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J68" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K68" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L68" t="n">
         <v>4.33</v>
@@ -10214,48 +10214,48 @@
         <v>8</v>
       </c>
       <c r="O68" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P68" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R68" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V68" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W68" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X68" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y68" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z68" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA68" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB68" t="n">
         <v>9</v>
       </c>
       <c r="AC68" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD68" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE68" t="n">
         <v>19</v>
@@ -10264,7 +10264,7 @@
         <v>34</v>
       </c>
       <c r="AG68" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH68" t="n">
         <v>6</v>
@@ -10273,16 +10273,16 @@
         <v>17</v>
       </c>
       <c r="AJ68" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK68" t="n">
         <v>351</v>
       </c>
       <c r="AL68" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM68" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN68" t="n">
         <v>13</v>
@@ -10296,8 +10296,12 @@
       <c r="AQ68" t="n">
         <v>41</v>
       </c>
-      <c r="AR68" t="inlineStr"/>
-      <c r="AS68" t="inlineStr"/>
+      <c r="AR68" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>2.03</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -20446,7 +20450,7 @@
         <v>3.4</v>
       </c>
       <c r="I140" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J140" t="n">
         <v>2.75</v>
@@ -20458,30 +20462,30 @@
         <v>4.5</v>
       </c>
       <c r="M140" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N140" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O140" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P140" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q140" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R140" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S140" t="inlineStr"/>
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V140" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W140" t="n">
         <v>1.5</v>
@@ -20490,16 +20494,16 @@
         <v>2.5</v>
       </c>
       <c r="Y140" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z140" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA140" t="n">
         <v>6.5</v>
       </c>
       <c r="AB140" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC140" t="n">
         <v>9</v>
@@ -20508,7 +20512,7 @@
         <v>17</v>
       </c>
       <c r="AE140" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF140" t="n">
         <v>34</v>
@@ -20581,19 +20585,19 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="H141" t="n">
         <v>3</v>
       </c>
       <c r="I141" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J141" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K141" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L141" t="n">
         <v>3.6</v>
@@ -20619,10 +20623,10 @@
       <c r="S141" t="inlineStr"/>
       <c r="T141" t="inlineStr"/>
       <c r="U141" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V141" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W141" t="n">
         <v>1.44</v>
@@ -20643,7 +20647,7 @@
         <v>12</v>
       </c>
       <c r="AC141" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD141" t="n">
         <v>23</v>
@@ -20670,19 +20674,19 @@
         <v>251</v>
       </c>
       <c r="AL141" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM141" t="n">
         <v>15</v>
       </c>
       <c r="AN141" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO141" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP141" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ141" t="n">
         <v>34</v>
@@ -20722,22 +20726,22 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="H142" t="n">
         <v>3.3</v>
       </c>
       <c r="I142" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="J142" t="n">
-        <v>3</v>
+        <v>2.77</v>
       </c>
       <c r="K142" t="n">
         <v>2.07</v>
       </c>
       <c r="L142" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr"/>
@@ -20748,7 +20752,7 @@
         <v>3</v>
       </c>
       <c r="Q142" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R142" t="n">
         <v>1.75</v>
@@ -20756,7 +20760,7 @@
       <c r="S142" t="inlineStr"/>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="V142" t="n">
         <v>1.29</v>
@@ -20765,31 +20769,31 @@
         <v>1.4</v>
       </c>
       <c r="X142" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="Y142" t="n">
         <v>1.7</v>
       </c>
       <c r="Z142" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="AA142" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AB142" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AC142" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AD142" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE142" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AF142" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AG142" t="n">
         <v>9.75</v>
@@ -20807,22 +20811,22 @@
         <v>500</v>
       </c>
       <c r="AL142" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM142" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AN142" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AO142" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AP142" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AQ142" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AR142" t="inlineStr"/>
       <c r="AS142" t="inlineStr"/>
@@ -21587,10 +21591,10 @@
         <v>1.38</v>
       </c>
       <c r="H148" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I148" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J148" t="n">
         <v>1.91</v>
@@ -21614,18 +21618,18 @@
         <v>3.5</v>
       </c>
       <c r="Q148" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R148" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S148" t="inlineStr"/>
       <c r="T148" t="inlineStr"/>
       <c r="U148" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V148" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W148" t="n">
         <v>1.4</v>
@@ -21673,7 +21677,7 @@
         <v>101</v>
       </c>
       <c r="AL148" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM148" t="n">
         <v>41</v>
@@ -22181,13 +22185,13 @@
         <v>15</v>
       </c>
       <c r="J152" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K152" t="n">
         <v>2.5</v>
       </c>
       <c r="L152" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M152" t="n">
         <v>1.06</v>
@@ -22202,10 +22206,10 @@
         <v>3.75</v>
       </c>
       <c r="Q152" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R152" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="S152" t="n">
         <v>2.03</v>
@@ -22214,10 +22218,10 @@
         <v>1.83</v>
       </c>
       <c r="U152" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V152" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W152" t="n">
         <v>1.36</v>
@@ -22235,13 +22239,13 @@
         <v>6</v>
       </c>
       <c r="AB152" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AC152" t="n">
         <v>10</v>
       </c>
       <c r="AD152" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE152" t="n">
         <v>13</v>
@@ -22259,13 +22263,13 @@
         <v>29</v>
       </c>
       <c r="AJ152" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AK152" t="n">
         <v>900</v>
       </c>
       <c r="AL152" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM152" t="n">
         <v>51</v>
@@ -22277,16 +22281,16 @@
         <v>201</v>
       </c>
       <c r="AP152" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AQ152" t="n">
         <v>101</v>
       </c>
       <c r="AR152" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="153">
@@ -29941,7 +29945,7 @@
         <v>3.25</v>
       </c>
       <c r="K207" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L207" t="n">
         <v>4</v>
@@ -29953,16 +29957,16 @@
         <v>7</v>
       </c>
       <c r="O207" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P207" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q207" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R207" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S207" t="inlineStr"/>
       <c r="T207" t="inlineStr"/>
@@ -29985,7 +29989,7 @@
         <v>1.67</v>
       </c>
       <c r="AA207" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB207" t="n">
         <v>10</v>
@@ -30006,7 +30010,7 @@
         <v>7</v>
       </c>
       <c r="AH207" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI207" t="n">
         <v>19</v>
@@ -30036,10 +30040,10 @@
         <v>41</v>
       </c>
       <c r="AR207" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="208">
@@ -30352,22 +30356,22 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
       <c r="H210" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J210" t="n">
         <v>3.2</v>
       </c>
-      <c r="I210" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J210" t="n">
-        <v>3.05</v>
-      </c>
       <c r="K210" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="L210" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="M210" t="inlineStr"/>
       <c r="N210" t="inlineStr"/>
@@ -30386,73 +30390,73 @@
       <c r="S210" t="inlineStr"/>
       <c r="T210" t="inlineStr"/>
       <c r="U210" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="V210" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W210" t="n">
         <v>1.45</v>
       </c>
       <c r="X210" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="Y210" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Z210" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA210" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AB210" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC210" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD210" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AE210" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF210" t="n">
         <v>35</v>
       </c>
       <c r="AG210" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH210" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AI210" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AJ210" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK210" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AL210" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AM210" t="n">
         <v>13.5</v>
       </c>
       <c r="AN210" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO210" t="n">
         <v>32</v>
       </c>
       <c r="AP210" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ210" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AR210" t="inlineStr"/>
       <c r="AS210" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-15.xlsx
@@ -8631,16 +8631,16 @@
         <v>3.1</v>
       </c>
       <c r="K57" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L57" t="n">
         <v>4.33</v>
       </c>
       <c r="M57" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N57" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O57" t="n">
         <v>1.53</v>
@@ -8655,10 +8655,10 @@
         <v>1.44</v>
       </c>
       <c r="S57" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="T57" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="U57" t="n">
         <v>5.5</v>
